--- a/ExcelToXMLConverter/resources/seals.xlsx
+++ b/ExcelToXMLConverter/resources/seals.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugovasko\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03682A1B-6464-4C74-9474-C5D9893732BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,1229 +22,1229 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="707">
   <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>Seal of Andronikos Komnenos</t>
-  </si>
-  <si>
-    <t>Seal of Arsenios Tzamplakon</t>
-  </si>
-  <si>
-    <t>Seal of Kosmas, bishop of Prousa</t>
-  </si>
-  <si>
-    <t>Seal of Ioannes, kouboukleisios and notarios</t>
-  </si>
-  <si>
-    <t>Seal of Theophylaktos, patriarch</t>
-  </si>
-  <si>
-    <t>Seal of the Laura of kyr Antonios</t>
-  </si>
-  <si>
-    <t>Seal of Photeinos, bishop of Trapezous</t>
-  </si>
-  <si>
-    <t>Seal of Ioannes, bishop of Belebousdion</t>
-  </si>
-  <si>
-    <t>Seal of Adrianos Dalassenos</t>
-  </si>
-  <si>
-    <t>Seal of Kanaboutzes</t>
-  </si>
-  <si>
-    <t>Seal of Mauricius</t>
-  </si>
-  <si>
-    <t>Seal of Ratibor</t>
-  </si>
-  <si>
-    <t>Seal of Michael</t>
-  </si>
-  <si>
-    <t>Seal of Eleutherios</t>
-  </si>
-  <si>
-    <t>Seal of Menas</t>
-  </si>
-  <si>
-    <t>Seal of Theophylaktos Polites</t>
-  </si>
-  <si>
-    <t>Seal of Stephanos</t>
-  </si>
-  <si>
-    <t>Seal of Maurianos</t>
-  </si>
-  <si>
-    <t>Seal of Georgios Doukas, sebastos</t>
-  </si>
-  <si>
-    <t>Seal of Konstantinos Doukas, sebastos</t>
-  </si>
-  <si>
-    <t>Seal of Manuel Botaneiates, sebastos</t>
-  </si>
-  <si>
-    <t>Seal of Zacharias, spatharokandidatos epi tou chrysotriklinou</t>
-  </si>
-  <si>
-    <t>Seal of Sisinnios, imperial strator</t>
-  </si>
-  <si>
-    <t>ЗАГЛАВИЕ</t>
-  </si>
-  <si>
-    <t>Печат на Андроник Комнин</t>
-  </si>
-  <si>
-    <t>Печат на Арсений Цамблак</t>
-  </si>
-  <si>
-    <t>Печат на Козма, епископ на Прусса</t>
-  </si>
-  <si>
-    <t>Печат на Иван, кубуклисий и нотарий</t>
-  </si>
-  <si>
-    <t>Печат на Теофилакт, патриарх</t>
-  </si>
-  <si>
-    <t>Печат на лаврата на господина Антоний</t>
-  </si>
-  <si>
-    <t>Печат на Фотинос, епископ на Трапезунт</t>
-  </si>
-  <si>
-    <t>Печат на Иван, епископ на Велбъжд</t>
-  </si>
-  <si>
-    <t>Печат на Адриан Даласенос</t>
-  </si>
-  <si>
-    <t>Печат на Канавуцис</t>
-  </si>
-  <si>
-    <t>Печат на Маврикий</t>
-  </si>
-  <si>
-    <t>Печат на Ратибор</t>
-  </si>
-  <si>
-    <t>Печат на Михаил</t>
-  </si>
-  <si>
-    <t>Печат на Елевтерий</t>
-  </si>
-  <si>
-    <t>Печат на Мина</t>
-  </si>
-  <si>
-    <t>Печат на Теофилакт Политис</t>
-  </si>
-  <si>
-    <t>Печат на Стефан</t>
-  </si>
-  <si>
-    <t>Печат на Мавриан</t>
-  </si>
-  <si>
-    <t>Печат  на Георги Дука, севаст</t>
-  </si>
-  <si>
-    <t>Печат  на Константин Дука, севаст</t>
-  </si>
-  <si>
-    <t>Печат на Мануил Вотаниат, севаст</t>
-  </si>
-  <si>
-    <t>Печат на Захарий, спатарокандидат на хризотриклиниума</t>
-  </si>
-  <si>
-    <t>Печат на Сисини, императорски стратор</t>
-  </si>
-  <si>
-    <t>TITLE EDITOR FORENAME</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>РЕДАКТОР НА ЗАГЛАВИЕТО СОБСТВЕНО ИМЕ</t>
-  </si>
-  <si>
-    <t>Иван</t>
+    <t xml:space="preserve">TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Andronikos Komnenos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Arsenios Tzamplakon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Kosmas, bishop of Prousa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Ioannes, kouboukleisios and notarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Theophylaktos, patriarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of the Laura of kyr Antonios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Photeinos, bishop of Trapezous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Ioannes, bishop of Belebousdion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Adrianos Dalassenos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Kanaboutzes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Mauricius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Ratibor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Eleutherios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Menas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Theophylaktos Polites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Stephanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Maurianos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Georgios Doukas, sebastos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Konstantinos Doukas, sebastos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Manuel Botaneiates, sebastos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Zacharias, spatharokandidatos epi tou chrysotriklinou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Sisinnios, imperial strator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАГЛАВИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Андроник Комнин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Арсений Цамблак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Козма, епископ на Прусса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Иван, кубуклисий и нотарий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Теофилакт, патриарх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на лаврата на господина Антоний</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Фотинос, епископ на Трапезунт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Иван, епископ на Велбъжд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Адриан Даласенос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Канавуцис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Маврикий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Ратибор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Елевтерий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Мина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Теофилакт Политис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Стефан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Мавриан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат  на Георги Дука, севаст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат  на Константин Дука, севаст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Мануил Вотаниат, севаст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Захарий, спатарокандидат на хризотриклиниума</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат на Сисини, императорски стратор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE EDITOR FORENAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕДАКТОР НА ЗАГЛАВИЕТО СОБСТВЕНО ИМЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иван</t>
   </si>
   <si>
     <t xml:space="preserve">Иван </t>
   </si>
   <si>
-    <t>TITLE EDITOR SURNAME</t>
-  </si>
-  <si>
-    <t>Jordanov</t>
-  </si>
-  <si>
-    <t>РЕДАКТОР НА ЗАГЛАВИЕТО ФАМИЛНО ИМЕ</t>
-  </si>
-  <si>
-    <t>Йорданов</t>
-  </si>
-  <si>
-    <t>EDITION EDITOR FORENAME</t>
-  </si>
-  <si>
-    <t>Pantelis</t>
-  </si>
-  <si>
-    <t>Pentelis</t>
-  </si>
-  <si>
-    <t>Metodi</t>
-  </si>
-  <si>
-    <t>РЕДАКТОР НА ЗАПИСА СОБСТВЕНО ИМЕ</t>
-  </si>
-  <si>
-    <t>Пантелис</t>
-  </si>
-  <si>
-    <t>Методи</t>
-  </si>
-  <si>
-    <t>EDITION EDITOR SURNAME</t>
-  </si>
-  <si>
-    <t>Charalampakis</t>
-  </si>
-  <si>
-    <t>Zlatkov</t>
-  </si>
-  <si>
-    <t>РЕДАКТОР НА ЗАПИСА ФАМИЛНО ИМЕ</t>
-  </si>
-  <si>
-    <t>Харалампакис</t>
-  </si>
-  <si>
-    <t>Златков</t>
-  </si>
-  <si>
-    <t>FILENAME</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_182</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_183</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_278</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_251</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_245</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_90</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_135</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_86</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_132</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_133</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_317</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_91</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_131</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_312</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_29</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_49</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_181</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_238</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_127</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_144</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_42</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_39</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_54</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_243</t>
-  </si>
-  <si>
-    <t>BG_Sofia_NAIM_30</t>
-  </si>
-  <si>
-    <t>SIGIDOC ID</t>
-  </si>
-  <si>
-    <t>DATE OF ENTRY CREATION</t>
-  </si>
-  <si>
-    <t>2023.05.18</t>
-  </si>
-  <si>
-    <t>2023.09.07</t>
-  </si>
-  <si>
-    <t>2023.09.08</t>
-  </si>
-  <si>
-    <t>2023.09.05</t>
-  </si>
-  <si>
-    <t>2023.09.04</t>
-  </si>
-  <si>
-    <t>2023.05.10</t>
-  </si>
-  <si>
-    <t>2023.05.09</t>
-  </si>
-  <si>
-    <t>2023.05.07</t>
-  </si>
-  <si>
-    <t>2023.09.11</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>Seal</t>
-  </si>
-  <si>
-    <t>ТИП</t>
-  </si>
-  <si>
-    <t>Печат</t>
-  </si>
-  <si>
-    <t>GENERAL LAYOUT</t>
-  </si>
-  <si>
-    <t>Bilateral legend</t>
-  </si>
-  <si>
-    <t>Iconography and legend</t>
-  </si>
-  <si>
-    <t>Monogram and legend</t>
-  </si>
-  <si>
-    <t>Iconography and monogram</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>ОФОРМЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>Надпис</t>
-  </si>
-  <si>
-    <t>Иконография и надпис</t>
-  </si>
-  <si>
-    <t>Монограм и надпис</t>
-  </si>
-  <si>
-    <t>Иконография и монограм</t>
-  </si>
-  <si>
-    <t>MATRIX</t>
-  </si>
-  <si>
-    <t>МАТРИЦА (ПЕЧАТ)</t>
-  </si>
-  <si>
-    <t>TYPE OF IMPRESSION</t>
-  </si>
-  <si>
-    <t>Original impression</t>
-  </si>
-  <si>
-    <t>ОТПЕЧАТЪК</t>
-  </si>
-  <si>
-    <t>Оригинален отпечатък</t>
+    <t xml:space="preserve">TITLE EDITOR SURNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕДАКТОР НА ЗАГЛАВИЕТО ФАМИЛНО ИМЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Йорданов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDITION EDITOR FORENAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantelis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentelis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metodi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕДАКТОР НА ЗАПИСА СОБСТВЕНО ИМЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пантелис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Методи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDITION EDITOR SURNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charalampakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zlatkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕДАКТОР НА ЗАПИСА ФАМИЛНО ИМЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Харалампакис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Златков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILENAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG_Sofia_NAIM_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGIDOC ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE OF ENTRY CREATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.05.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.09.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.09.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.09.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.09.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.05.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.05.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.05.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.09.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL LAYOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilateral legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iconography and legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monogram and legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iconography and monogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОФОРМЛЕНИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надпис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иконография и надпис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монограм и надпис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иконография и монограм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАТРИЦА (ПЕЧАТ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE OF IMPRESSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original impression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОТПЕЧАТЪК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оригинален отпечатък</t>
   </si>
   <si>
     <t xml:space="preserve">Оригинален отпечатък </t>
   </si>
   <si>
-    <t>MATERIAL</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>МАТЕРИАЛ</t>
-  </si>
-  <si>
-    <t>Олово</t>
-  </si>
-  <si>
-    <t>DIMENSIONS (mm)</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>32.8</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>WEIGHT (g)</t>
-  </si>
-  <si>
-    <t>29.10</t>
-  </si>
-  <si>
-    <t>20.76</t>
-  </si>
-  <si>
-    <t>21.09</t>
-  </si>
-  <si>
-    <t>12.74</t>
-  </si>
-  <si>
-    <t>20.33</t>
-  </si>
-  <si>
-    <t>4.27</t>
-  </si>
-  <si>
-    <t>15.24</t>
-  </si>
-  <si>
-    <t>AXIS (clock)</t>
+    <t xml:space="preserve">MATERIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАТЕРИАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Олово</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMENSIONS (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEIGHT (g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXIS (clock)</t>
   </si>
   <si>
     <t xml:space="preserve">ПОСОКА НА МАТРИЦИТЕ (ПО ЧАСОВНИКОВАТА СТРЕЛКА) </t>
   </si>
   <si>
-    <t>OVERSTRIKE ORIENTATION (clock)</t>
-  </si>
-  <si>
-    <t>ПОСОКА НА ПРЕПЕЧАТКАТА (ПО ЧАСОВНИКОВАТА СТРЕЛКА)</t>
-  </si>
-  <si>
-    <t>CHANNEL ORIENTATION (clock)</t>
-  </si>
-  <si>
-    <t>ПОСОКА НА КАНАЛА (ПО ЧАСОВНИКОВАТА СТРЕЛКА)</t>
-  </si>
-  <si>
-    <t>EXECUTION</t>
-  </si>
-  <si>
-    <t>Struck</t>
-  </si>
-  <si>
-    <t>НАЧИН НА ИЗРАБОТВАНЕ</t>
-  </si>
-  <si>
-    <t>Отсечен</t>
-  </si>
-  <si>
-    <t>COUNTERMARK</t>
-  </si>
-  <si>
-    <t>КОНТРАМАРКИ</t>
-  </si>
-  <si>
-    <t>LETTERING</t>
-  </si>
-  <si>
-    <t>ОСОБЕНОСТИ НА БУКВИТЕ</t>
-  </si>
-  <si>
-    <t>SHAPE</t>
-  </si>
-  <si>
-    <t>Round</t>
-  </si>
-  <si>
-    <t>ФОРМА НА ЯДРОТО</t>
-  </si>
-  <si>
-    <t>Кръгъл</t>
-  </si>
-  <si>
-    <t>CONDITION</t>
-  </si>
-  <si>
-    <t>Well-centered, but parts of the disc have been flattened, perhaps from the strike.</t>
-  </si>
-  <si>
-    <t>It appears to be in a poor state
+    <t xml:space="preserve">OVERSTRIKE ORIENTATION (clock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОСОКА НА ПРЕПЕЧАТКАТА (ПО ЧАСОВНИКОВАТА СТРЕЛКА)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANNEL ORIENTATION (clock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОСОКА НА КАНАЛА (ПО ЧАСОВНИКОВАТА СТРЕЛКА)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАЧИН НА ИЗРАБОТВАНЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отсечен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNTERMARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНТРАМАРКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LETTERING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСОБЕНОСТИ НА БУКВИТЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОРМА НА ЯДРОТО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кръгъл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well-centered, but parts of the disc have been flattened, perhaps from the strike.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It appears to be in a poor state
 of preservation. Its letters are corroded and indistinct.</t>
   </si>
   <si>
-    <t>Poor state of preservation. Only the letters on the channel swelling are partially preserved. The identification is based on the above better preserved specimen.</t>
-  </si>
-  <si>
-    <t>Complete imprint but in a poor state of preservation.</t>
-  </si>
-  <si>
-    <t>Complete imprint in a good state of preservation.</t>
-  </si>
-  <si>
-    <t>СЪВРЕМЕННО СЪСТОЯНИЕ</t>
-  </si>
-  <si>
-    <t>Добре центриран, но части от ядрото са сплеснати, вероятно при отсичането.</t>
-  </si>
-  <si>
-    <t>Запазен е в лошо състояние. Буквите са корозирали и неясни.</t>
-  </si>
-  <si>
-    <t>Лошо състояние на запазеност. Частично са запазени само буквите върху издатината на канала. Идентификацията се основава на горния по-добре запазен екземпляр.</t>
-  </si>
-  <si>
-    <t>Пълен отпечатък, но запазен в лошо състояние.</t>
-  </si>
-  <si>
-    <t>Пълен отпечатък, запазен в добро състояние.</t>
-  </si>
-  <si>
-    <t>ANALYSIS DATE NOT BEFORE</t>
-  </si>
-  <si>
-    <t>ANALYSIS DATE NOT AFTER</t>
-  </si>
-  <si>
-    <t>ANALYSIS DATE CRITERIA</t>
-  </si>
-  <si>
-    <t>Onomastics, Terminology</t>
-  </si>
-  <si>
-    <t>Epigraphy</t>
-  </si>
-  <si>
-    <t>Iconography</t>
-  </si>
-  <si>
-    <t>Onomastics</t>
-  </si>
-  <si>
-    <t>Iconography and epigraphy</t>
-  </si>
-  <si>
-    <t>Onomastics and epigraphy</t>
-  </si>
-  <si>
-    <t>АНАЛИЗ НА ДАТИРОВКА – КРИТЕРИИ</t>
-  </si>
-  <si>
-    <t>Ономанстика, Терминология</t>
-  </si>
-  <si>
-    <t>Епиграфика</t>
-  </si>
-  <si>
-    <t>Иконография</t>
-  </si>
-  <si>
-    <t>Ономастика</t>
-  </si>
-  <si>
-    <t>Иконография и епиграфика</t>
-  </si>
-  <si>
-    <t>Ономастика и епиграфика</t>
-  </si>
-  <si>
-    <t>ANALYSIS DATE CERTITUDE</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>АНАЛИЗ НА ДАТИРОВКА – НИВО НА СИГУРНОСТ</t>
-  </si>
-  <si>
-    <t>Високо</t>
-  </si>
-  <si>
-    <t>Средно</t>
-  </si>
-  <si>
-    <t>Ниско</t>
-  </si>
-  <si>
-    <t>ANALYSIS DATE</t>
-  </si>
-  <si>
-    <t>1133-1176</t>
-  </si>
-  <si>
-    <t>1301-1350</t>
-  </si>
-  <si>
-    <t>1001-1050</t>
-  </si>
-  <si>
-    <t>0976-1025</t>
-  </si>
-  <si>
-    <t>0933-0956</t>
-  </si>
-  <si>
-    <t>1026-1075</t>
-  </si>
-  <si>
-    <t>0776-0800</t>
-  </si>
-  <si>
-    <t>1151-1200</t>
-  </si>
-  <si>
-    <t>1076-1125</t>
-  </si>
-  <si>
-    <t>1076-1150</t>
-  </si>
-  <si>
-    <t>0551-0650</t>
-  </si>
-  <si>
-    <t>1076-1100</t>
-  </si>
-  <si>
-    <t>1051-1100</t>
-  </si>
-  <si>
-    <t>0551-0700</t>
-  </si>
-  <si>
-    <t>1101-1200</t>
-  </si>
-  <si>
-    <t>0501-0600</t>
-  </si>
-  <si>
-    <t>1175-1225</t>
-  </si>
-  <si>
-    <t>1176-1225</t>
-  </si>
-  <si>
-    <t>1101-1125</t>
-  </si>
-  <si>
-    <t>0701-0800</t>
-  </si>
-  <si>
-    <t>INTERNAL DATE</t>
+    <t xml:space="preserve">Poor state of preservation. Only the letters on the channel swelling are partially preserved. The identification is based on the above better preserved specimen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete imprint but in a poor state of preservation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete imprint in a good state of preservation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЪВРЕМЕННО СЪСТОЯНИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добре центриран, но части от ядрото са сплеснати, вероятно при отсичането.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запазен е в лошо състояние. Буквите са корозирали и неясни.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лошо състояние на запазеност. Частично са запазени само буквите върху издатината на канала. Идентификацията се основава на горния по-добре запазен екземпляр.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пълен отпечатък, но запазен в лошо състояние.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пълен отпечатък, запазен в добро състояние.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALYSIS DATE NOT BEFORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALYSIS DATE NOT AFTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALYSIS DATE CRITERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onomastics, Terminology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epigraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iconography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onomastics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iconography and epigraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onomastics and epigraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНАЛИЗ НА ДАТИРОВКА – КРИТЕРИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ономанстика, Терминология</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Епиграфика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иконография</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ономастика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иконография и епиграфика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ономастика и епиграфика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALYSIS DATE CERTITUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНАЛИЗ НА ДАТИРОВКА – НИВО НА СИГУРНОСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Високо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ниско</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALYSIS DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1133-1176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1301-1350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001-1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0976-1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0933-0956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026-1075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0776-0800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1151-1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1076-1125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1076-1150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0551-0650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1076-1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1051-1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0551-0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1101-1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0501-0600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1175-1225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1176-1225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1101-1125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0701-0800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNAL DATE</t>
   </si>
   <si>
     <t xml:space="preserve">INTERNAL DATE CRITERIA </t>
   </si>
   <si>
-    <t>КРИТЕРИИ ЗА ДАТИРОВКАТА, УКАЗАНА В ПЕЧАТА</t>
-  </si>
-  <si>
-    <t>ALTERNATIVE DATING</t>
-  </si>
-  <si>
-    <t>АЛТЕРНАТИВНА ДАТИРОВКА</t>
-  </si>
-  <si>
-    <t>SEAL’S CONTEXT</t>
-  </si>
-  <si>
-    <t>Private seal</t>
+    <t xml:space="preserve">КРИТЕРИИ ЗА ДАТИРОВКАТА, УКАЗАНА В ПЕЧАТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTERNATIVE DATING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛТЕРНАТИВНА ДАТИРОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEAL’S CONTEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private seal</t>
   </si>
   <si>
     <t xml:space="preserve">Ecclesiastical </t>
   </si>
   <si>
-    <t>Ecclesiastical</t>
+    <t xml:space="preserve">Ecclesiastical</t>
   </si>
   <si>
     <t xml:space="preserve">Private seal </t>
   </si>
   <si>
-    <t>Dignitaries</t>
-  </si>
-  <si>
-    <t>КОНТЕКСТ НА ПЕЧАТА</t>
-  </si>
-  <si>
-    <t>Личен печат</t>
-  </si>
-  <si>
-    <t>Църковен</t>
-  </si>
-  <si>
-    <t>Личенпечат</t>
-  </si>
-  <si>
-    <t>Официални лица</t>
-  </si>
-  <si>
-    <t>ISSUER</t>
-  </si>
-  <si>
-    <t>Andronikos Komnenos</t>
-  </si>
-  <si>
-    <t>Arsenios Tzamplakon</t>
-  </si>
-  <si>
-    <t>Kosmas</t>
-  </si>
-  <si>
-    <t>Ioannes</t>
-  </si>
-  <si>
-    <t>Theophylaktos</t>
-  </si>
-  <si>
-    <t>The Laura of kyr Antonios</t>
-  </si>
-  <si>
-    <t>Photeinos</t>
-  </si>
-  <si>
-    <t>Adrianos Dalassenos</t>
-  </si>
-  <si>
-    <t>Kanaboutzes</t>
-  </si>
-  <si>
-    <t>Mauricius</t>
-  </si>
-  <si>
-    <t>Ratibor</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Eleutherios</t>
-  </si>
-  <si>
-    <t>Menas</t>
-  </si>
-  <si>
-    <t>Theophylaktos Polites</t>
-  </si>
-  <si>
-    <t>Stephanos</t>
-  </si>
-  <si>
-    <t>Maurianos</t>
-  </si>
-  <si>
-    <t>Georgios Doukas</t>
-  </si>
-  <si>
-    <t>Konstantinos Doukas</t>
-  </si>
-  <si>
-    <t>Manuel Botaneiates</t>
-  </si>
-  <si>
-    <t>Zacharias</t>
-  </si>
-  <si>
-    <t>Sisinnios</t>
-  </si>
-  <si>
-    <t>ИЗДАТЕЛ (СОБСТВЕНИК НА ПЕЧАТА)</t>
+    <t xml:space="preserve">Dignitaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНТЕКСТ НА ПЕЧАТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Личен печат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Църковен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Личенпечат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Официални лица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISSUER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andronikos Komnenos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenios Tzamplakon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ioannes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theophylaktos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Laura of kyr Antonios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photeinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrianos Dalassenos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanaboutzes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauricius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratibor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eleutherios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theophylaktos Polites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurianos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgios Doukas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konstantinos Doukas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Botaneiates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacharias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sisinnios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЗДАТЕЛ (СОБСТВЕНИК НА ПЕЧАТА)</t>
   </si>
   <si>
     <t xml:space="preserve">Андроник Комнин </t>
   </si>
   <si>
-    <t>Арсений Цамблак</t>
-  </si>
-  <si>
-    <t>Козма</t>
-  </si>
-  <si>
-    <t>Теофилакт</t>
-  </si>
-  <si>
-    <t>Лаврата на господина Антония</t>
-  </si>
-  <si>
-    <t>Фотинос</t>
-  </si>
-  <si>
-    <t>Адриан Даласенос</t>
-  </si>
-  <si>
-    <t>Канавуцис</t>
-  </si>
-  <si>
-    <t>Маврикий</t>
-  </si>
-  <si>
-    <t>Ратибор</t>
-  </si>
-  <si>
-    <t>Михаил</t>
-  </si>
-  <si>
-    <t>Елевтерий</t>
-  </si>
-  <si>
-    <t>Мина</t>
-  </si>
-  <si>
-    <t>Теофилакт Политис</t>
-  </si>
-  <si>
-    <t>Стефан</t>
-  </si>
-  <si>
-    <t>Мавриан</t>
-  </si>
-  <si>
-    <t>Георги Дука</t>
-  </si>
-  <si>
-    <t>Константин Дука</t>
-  </si>
-  <si>
-    <t>Мануил Вотаниат</t>
-  </si>
-  <si>
-    <t>Захарий</t>
-  </si>
-  <si>
-    <t>Сисини</t>
-  </si>
-  <si>
-    <t>ISSUER’S MILIEU</t>
-  </si>
-  <si>
-    <t>Aristocracy</t>
-  </si>
-  <si>
-    <t>Monastic</t>
-  </si>
-  <si>
-    <t>Secular Church</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Civil</t>
-  </si>
-  <si>
-    <t>Civil; Military</t>
-  </si>
-  <si>
-    <t>СФЕРА НА ДЕЙНОСТ НА ИЗДАТЕЛЯ (СОБСТВЕНИКА НА ПЕЧАТА)</t>
-  </si>
-  <si>
-    <t>Аристокрация (сфера на дейност)</t>
-  </si>
-  <si>
-    <t>Монашеска (сфера на дейност)</t>
-  </si>
-  <si>
-    <t>Църковна светска (сфера на дейност)</t>
-  </si>
-  <si>
-    <t>Частна (сфера на дейност)</t>
-  </si>
-  <si>
-    <t>Цивилна (сфера на дейност)</t>
-  </si>
-  <si>
-    <t>Цивилна (сфера на дейност); Военна (сфера на дейност)</t>
-  </si>
-  <si>
-    <t>PLACE OF ORIGIN</t>
-  </si>
-  <si>
-    <t>МЯСТО НА ИЗРАБОТКА</t>
-  </si>
-  <si>
-    <t>FIND PLACE – ANCIENT FINDSPOT</t>
-  </si>
-  <si>
-    <t>Pliska</t>
-  </si>
-  <si>
-    <t>Preslav</t>
-  </si>
-  <si>
-    <t>Selymbria</t>
-  </si>
-  <si>
-    <t>Anchialos</t>
-  </si>
-  <si>
-    <t>МЕСТОНАМИРАНЕ – АНТИЧЕН ТОПОНИМ</t>
-  </si>
-  <si>
-    <t>Плиска</t>
-  </si>
-  <si>
-    <t>Преслав</t>
-  </si>
-  <si>
-    <t>Селимбрия</t>
-  </si>
-  <si>
-    <t>Анхиало</t>
-  </si>
-  <si>
-    <t>FIND PLACE – MODERN FINDSPOT</t>
-  </si>
-  <si>
-    <t>Veliki Preslav</t>
+    <t xml:space="preserve">Арсений Цамблак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Козма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теофилакт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лаврата на господина Антония</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фотинос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адриан Даласенос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Канавуцис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маврикий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ратибор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Елевтерий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теофилакт Политис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стефан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мавриан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Георги Дука</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Константин Дука</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мануил Вотаниат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Захарий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сисини</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISSUER’S MILIEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristocracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secular Church</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil; Military</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СФЕРА НА ДЕЙНОСТ НА ИЗДАТЕЛЯ (СОБСТВЕНИКА НА ПЕЧАТА)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аристокрация (сфера на дейност)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монашеска (сфера на дейност)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Църковна светска (сфера на дейност)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частна (сфера на дейност)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цивилна (сфера на дейност)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цивилна (сфера на дейност); Военна (сфера на дейност)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACE OF ORIGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЯСТО НА ИЗРАБОТКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIND PLACE – ANCIENT FINDSPOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pliska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preslav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selymbria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchialos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕСТОНАМИРАНЕ – АНТИЧЕН ТОПОНИМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плиска</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Преслав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Селимбрия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анхиало</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIND PLACE – MODERN FINDSPOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veliki Preslav</t>
   </si>
   <si>
     <t xml:space="preserve">Hisarlaka </t>
   </si>
   <si>
-    <t>Silivri</t>
-  </si>
-  <si>
-    <t>Beligrad, kraj Kurilo, Novi Iskar</t>
-  </si>
-  <si>
-    <t>Pomorie</t>
-  </si>
-  <si>
-    <t>village of Ahmatovo, Plovdiv region</t>
-  </si>
-  <si>
-    <t>village of Yana, Sofia region</t>
-  </si>
-  <si>
-    <t>uncertain</t>
-  </si>
-  <si>
-    <t>vicinity of Radomir, Pernik region</t>
-  </si>
-  <si>
-    <t>МЕСТОНАМИРАНЕ – СЪВРЕМЕНЕН ТОПОНИМ</t>
-  </si>
-  <si>
-    <t>Велики Преслав</t>
-  </si>
-  <si>
-    <t>Хисарлъка</t>
-  </si>
-  <si>
-    <t>Силиврия</t>
-  </si>
-  <si>
-    <t>Белиград, край Курило, Нови Искър</t>
-  </si>
-  <si>
-    <t>Поморие</t>
-  </si>
-  <si>
-    <t>с. Ахматово, област Пловдив</t>
-  </si>
-  <si>
-    <t>с. Яна, Софийска област</t>
-  </si>
-  <si>
-    <t>неизвестно</t>
-  </si>
-  <si>
-    <t>околностите на Радомир, област Перник</t>
-  </si>
-  <si>
-    <t>COORDINATES</t>
-  </si>
-  <si>
-    <t>42.136897, 24.742168</t>
-  </si>
-  <si>
-    <t>42.697334, 23.325941</t>
-  </si>
-  <si>
-    <t>43.387, 27.132</t>
-  </si>
-  <si>
-    <t>43.166667, 26.817</t>
-  </si>
-  <si>
-    <t>42.2757, 22.6918</t>
-  </si>
-  <si>
-    <t>41.073889, 28.246389</t>
-  </si>
-  <si>
-    <t>42.840833, 23.371111</t>
-  </si>
-  <si>
-    <t>42.5569, 27.6405</t>
-  </si>
-  <si>
-    <t>42.110831, 25.050339</t>
-  </si>
-  <si>
-    <t>42.730899, 23.557926</t>
-  </si>
-  <si>
-    <t>42.546054, 22.962896</t>
-  </si>
-  <si>
-    <t>FIND DATE</t>
-  </si>
-  <si>
-    <t>1931-1937</t>
-  </si>
-  <si>
-    <t>1906, 1908-1909, 1911-1912</t>
-  </si>
-  <si>
-    <t>FIND CIRCUMSTANCES</t>
-  </si>
-  <si>
-    <t>Excavations</t>
-  </si>
-  <si>
-    <t>ОБСТОЯТЕЛСТВА НА НАМИРАНЕ</t>
-  </si>
-  <si>
-    <t>Разкопки</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>ДЪРЖАВА</t>
-  </si>
-  <si>
-    <t>България</t>
-  </si>
-  <si>
-    <t>SETTLEMENT</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>СЕЛИЩЕ</t>
-  </si>
-  <si>
-    <t>София</t>
-  </si>
-  <si>
-    <t>INSTITUTION</t>
-  </si>
-  <si>
-    <t>National Archaeological Institute with Museum – Bulgarian Academy of Sciences</t>
-  </si>
-  <si>
-    <t>ИНСТИТУЦИЯ</t>
-  </si>
-  <si>
-    <t>Национален Археологически Институт с Музей – Българската Академия на Науките</t>
-  </si>
-  <si>
-    <t>REPOSITORY</t>
-  </si>
-  <si>
-    <t>Exhibition</t>
+    <t xml:space="preserve">Silivri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beligrad, kraj Kurilo, Novi Iskar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">village of Ahmatovo, Plovdiv region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">village of Yana, Sofia region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncertain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vicinity of Radomir, Pernik region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕСТОНАМИРАНЕ – СЪВРЕМЕНЕН ТОПОНИМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Велики Преслав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хисарлъка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Силиврия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белиград, край Курило, Нови Искър</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поморие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с. Ахматово, област Пловдив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с. Яна, Софийска област</t>
+  </si>
+  <si>
+    <t xml:space="preserve">неизвестно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">околностите на Радомир, област Перник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COORDINATES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.136897, 24.742168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.697334, 23.325941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.387, 27.132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.166667, 26.817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2757, 22.6918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.073889, 28.246389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.840833, 23.371111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5569, 27.6405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.110831, 25.050339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.730899, 23.557926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.546054, 22.962896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIND DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931-1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1906, 1908-1909, 1911-1912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIND CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excavations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБСТОЯТЕЛСТВА НА НАМИРАНЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разкопки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNTRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЪРЖАВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">България</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETTLEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕЛИЩЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">София</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTITUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Archaeological Institute with Museum – Bulgarian Academy of Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИНСТИТУЦИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Национален Археологически Институт с Музей – Българската Академия на Науките</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPOSITORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibition</t>
   </si>
   <si>
     <t xml:space="preserve">МЯСТО НА СЪХРАНЕНИЕ </t>
   </si>
   <si>
-    <t>Нумизматичен фонд</t>
-  </si>
-  <si>
-    <t>Експозиция</t>
-  </si>
-  <si>
-    <t>COLLECTION</t>
-  </si>
-  <si>
-    <t>КОЛЕКЦИЯ</t>
-  </si>
-  <si>
-    <t>INVENTORY NUMBER</t>
-  </si>
-  <si>
-    <t>ACQUISITION</t>
-  </si>
-  <si>
-    <t>Purchased from Georgi Panayotov in 1976</t>
-  </si>
-  <si>
-    <t>Donation by Asen Nikolov (Silistra) in 1976</t>
-  </si>
-  <si>
-    <t>Purchased from Emil Kosev (Shumen) in 1994</t>
-  </si>
-  <si>
-    <t>Donation by Trifon Kunev in 1953</t>
-  </si>
-  <si>
-    <t>Given to the museum by Oskar Shehim (Russe), who purchased it at the Constantinople market</t>
-  </si>
-  <si>
-    <t>Purchased from Kiril Dimitrov (Burgas) in 1989</t>
-  </si>
-  <si>
-    <t>Donated by Metodi Nedyalkov Kondev (Yana), a teacher, in 1964</t>
-  </si>
-  <si>
-    <t>Donated by a goldsmith from Sofia.</t>
-  </si>
-  <si>
-    <t>Donated by K. Dimitrov (Burgas) in 1989</t>
-  </si>
-  <si>
-    <t>СПОСОБ НА ПРИДОБИВАНЕ</t>
-  </si>
-  <si>
-    <t>Закупен от Георги Панайотов през 1976 г.</t>
-  </si>
-  <si>
-    <t>Дарение от Асен Николов (Силистра) през 1976 г.</t>
-  </si>
-  <si>
-    <t>Закупен от Емил Косев (Шумен) през 1994 г.</t>
-  </si>
-  <si>
-    <t>Дарение от Трифон Кунев през 1953 г.</t>
-  </si>
-  <si>
-    <t>Закупен от Кирил Димитров (Бургас) през 1989 г.</t>
-  </si>
-  <si>
-    <t>Дарение от Методи Недялков Кондев през 1964 г.</t>
-  </si>
-  <si>
-    <t>Дарение от софийски златар.</t>
-  </si>
-  <si>
-    <t>Дарение от К. Димитров (Бургас) през 1989 г.</t>
-  </si>
-  <si>
-    <t>PREVIOUS LOCATIONS</t>
-  </si>
-  <si>
-    <t>National Archaeological Institute with Museum – Bulgarian Academy of Sciences 173</t>
-  </si>
-  <si>
-    <t>Avramov collection (Bulgaria)</t>
-  </si>
-  <si>
-    <t>NAIM 129</t>
-  </si>
-  <si>
-    <t>NAIM 111</t>
-  </si>
-  <si>
-    <t>NAIM 156</t>
-  </si>
-  <si>
-    <t>NAIM 50</t>
-  </si>
-  <si>
-    <t>ПРЕДИШНО МЕСТОСЪХРАНЕНИЕ</t>
-  </si>
-  <si>
-    <t>Национален Археологически Институт с Музей – Българската Академия на Науките 173</t>
-  </si>
-  <si>
-    <t>Частна колекция Аврамов (България)</t>
-  </si>
-  <si>
-    <t>НАИМ 129</t>
-  </si>
-  <si>
-    <t>НАИМ 111</t>
-  </si>
-  <si>
-    <t>НАИМ 156</t>
-  </si>
-  <si>
-    <t>НАИМ 50</t>
-  </si>
-  <si>
-    <t>MODERN OBSERVATIONS</t>
-  </si>
-  <si>
-    <t>It is not known whether G. Panayotov discovered the seal or he was simply the one who presented it to the museum.</t>
-  </si>
-  <si>
-    <t>Although it has been assumed that because A. Nikolov was from Silistra, therefore the seal must have originated from the same place, this cannot be verified.</t>
-  </si>
-  <si>
-    <t>Discovered during excavations at the Palace Square (NW sector, square 2) in Pliska, in 2005.</t>
-  </si>
-  <si>
-    <t>It is not known whether E. Kosev discovered the seal or he was simply the one who presented it to the museum. In the Corpus of 2009 and the Museum Catalogue of 2011, Jordanov writes that the seal “was passed on to the Archaeological Museum by E. Kosev in 1984”, but in Jordanov, 2006, 353, the author says that the seal with inventory number 251 was purchased by that person in 1994.</t>
-  </si>
-  <si>
-    <t>Discovered during the excavations in Pliska by K. Miyatev, in 1931-1937.</t>
+    <t xml:space="preserve">Нумизматичен фонд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Експозиция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОЛЕКЦИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVENTORY NUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACQUISITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchased from Georgi Panayotov in 1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donation by Asen Nikolov (Silistra) in 1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchased from Emil Kosev (Shumen) in 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donation by Trifon Kunev in 1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given to the museum by Oskar Shehim (Russe), who purchased it at the Constantinople market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchased from Kiril Dimitrov (Burgas) in 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donated by Metodi Nedyalkov Kondev (Yana), a teacher, in 1964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donated by a goldsmith from Sofia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donated by K. Dimitrov (Burgas) in 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СПОСОБ НА ПРИДОБИВАНЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закупен от Георги Панайотов през 1976 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дарение от Асен Николов (Силистра) през 1976 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закупен от Емил Косев (Шумен) през 1994 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дарение от Трифон Кунев през 1953 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закупен от Кирил Димитров (Бургас) през 1989 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дарение от Методи Недялков Кондев през 1964 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дарение от софийски златар.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дарение от К. Димитров (Бургас) през 1989 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREVIOUS LOCATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Archaeological Institute with Museum – Bulgarian Academy of Sciences 173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avramov collection (Bulgaria)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAIM 129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAIM 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAIM 156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAIM 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРЕДИШНО МЕСТОСЪХРАНЕНИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Национален Археологически Институт с Музей – Българската Академия на Науките 173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частна колекция Аврамов (България)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАИМ 129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАИМ 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАИМ 156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАИМ 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODERN OBSERVATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not known whether G. Panayotov discovered the seal or he was simply the one who presented it to the museum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although it has been assumed that because A. Nikolov was from Silistra, therefore the seal must have originated from the same place, this cannot be verified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discovered during excavations at the Palace Square (NW sector, square 2) in Pliska, in 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not known whether E. Kosev discovered the seal or he was simply the one who presented it to the museum. In the Corpus of 2009 and the Museum Catalogue of 2011, Jordanov writes that the seal “was passed on to the Archaeological Museum by E. Kosev in 1984”, but in Jordanov, 2006, 353, the author says that the seal with inventory number 251 was purchased by that person in 1994.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discovered during the excavations in Pliska by K. Miyatev, in 1931-1937.</t>
   </si>
   <si>
     <t xml:space="preserve">It is not clear where the seal was found or how it came into possession of the National Archaeological Institute with Museum. The seal shows traces of letters on both the obverse and the reverse, which means that what we see today is a second strike, unrelated to the first, i.e. the disc was reused. </t>
@@ -1258,532 +1253,532 @@
     <t xml:space="preserve">Discovered during the excavations in Hisarlak fortress, next to Kyustendil, by J. Ivanov, in 1906, 1908-1909, 1911-1912. </t>
   </si>
   <si>
-    <t>It is not clear whether T. Kunev discovered the seal in 1912 and it was again him who donated it in 1953.</t>
-  </si>
-  <si>
-    <t>According to Jordanov, it was found in the region of Veliko Tarnovo (without more precise information). There are traces of letters indicating that the disc was struck twice and seemingly the first time by a different boulloterion.</t>
-  </si>
-  <si>
-    <t>Although it has been assumed that because M. Kondev was a teacher in the village of Yana, the seal also originated from that same place, this cannot be confirmed.</t>
-  </si>
-  <si>
-    <t>СЪВРЕМЕННИ НАБЛЮДЕНИЯ</t>
-  </si>
-  <si>
-    <t>Не е ясно дали Г. Панайотов е откривателят на печата, или само го е дарил на музея.</t>
-  </si>
-  <si>
-    <t>Счита се, че понеже А. Николов е от Силистра, то и печатът произхожда от същото място, но това не може да се потвърди.</t>
-  </si>
-  <si>
-    <t>Счита се, че понеже М. Кондев е бил учител в с. Яна, то и печатът произхожда от същото място, но това не може да се потвърди.</t>
-  </si>
-  <si>
-    <t>OBVERSE LAYOUT OF FIELD</t>
-  </si>
-  <si>
-    <t>Legend of 8 lines</t>
-  </si>
-  <si>
-    <t>Legend of 4 lines</t>
-  </si>
-  <si>
-    <t>Iconography with circular legend</t>
-  </si>
-  <si>
-    <t>Cruciform monogram</t>
-  </si>
-  <si>
-    <t>Iconography with legend</t>
-  </si>
-  <si>
-    <t>Legend of 3 lines</t>
-  </si>
-  <si>
-    <t>Monogram</t>
-  </si>
-  <si>
-    <t>ОФОРМЛЕНИЕ НА ЛИЦЕВАТА СТРАНА</t>
-  </si>
-  <si>
-    <t>Линеен надпис в 8 редове</t>
-  </si>
-  <si>
-    <t>Линеен надпис в 4 редове</t>
-  </si>
-  <si>
-    <t>Иконография с кръгов надпис</t>
-  </si>
-  <si>
-    <t>Кръстообразен монограм</t>
-  </si>
-  <si>
-    <t>Линеен надпис в 3 редове</t>
-  </si>
-  <si>
-    <t>Монограм</t>
-  </si>
-  <si>
-    <t>OBVERSE FIELD’S DIMENSIONS (mm)</t>
-  </si>
-  <si>
-    <t>OBVERSE MATRIX</t>
-  </si>
-  <si>
-    <t>ЛИЦЕВ ПЕЧАТ / ЛИЦЕВА МАТРИЦА</t>
-  </si>
-  <si>
-    <t>OBVERSE ICONOGRAPHY</t>
-  </si>
-  <si>
-    <t>Bust of Mother of God orans; sigla</t>
-  </si>
-  <si>
-    <t>Patriarchal Cross, on three steps, with X at the intersection of the arms and a hizontal line forming a crosslet on top, flanked by floral decoration reaching to the crosslet</t>
-  </si>
-  <si>
-    <t>Bust of Mother of God, type Nikopoios</t>
-  </si>
-  <si>
-    <t>Bust of Mother of God, type Minimalorantengestus; sigla; Tongues of Fire above</t>
-  </si>
-  <si>
-    <t>Mother of God, type Hagiosoritissa, standing; sigla</t>
-  </si>
-  <si>
-    <t>Bust of Mother of God, type Episkepsis</t>
-  </si>
-  <si>
-    <t>Bust of Mother of God, type Nikopoios; sigla</t>
-  </si>
-  <si>
-    <t>Lion advancing to the right; star above</t>
-  </si>
-  <si>
-    <t>Bust of Saint Clement (pope of Rome), blessing (r. hand) and holding the Holy Gospel (l. hand); on either side, vertical inscription</t>
-  </si>
-  <si>
-    <t>Saint Eustratios, standing, holding a spear (r. hand) and a shield resting on the ground (l. hand); on either side, vertical inscription</t>
-  </si>
-  <si>
-    <t>Bust of Saint Menas, bearded; on either side, cross</t>
-  </si>
-  <si>
-    <t>Bust of Mother of God, type Episkepsis; sigla</t>
-  </si>
-  <si>
-    <t>Cross; letters in the lower quarters</t>
-  </si>
-  <si>
-    <t>Saint Georgios on horseback, moving to the right, holding a spear (r. hand) and the leash (l. hand); on either side, vertical inscription arranged in horizontal lines</t>
-  </si>
-  <si>
-    <t>Mother of God, type Eleousa, standing on a suppedion</t>
-  </si>
-  <si>
-    <t>Bust of Saint Theodoros holding a spear (r. hand) and a shield (l. hand).</t>
-  </si>
-  <si>
-    <t>ИКОНОГРАФИЯ НА АВЕРСА</t>
-  </si>
-  <si>
-    <t>Бюст на Богородица; сигла</t>
-  </si>
-  <si>
-    <t>Бюст на Богородица Никопея</t>
-  </si>
-  <si>
-    <t>Бюст на Богородица Minimalorantengestus; сигла; Огнени Езици</t>
-  </si>
-  <si>
-    <t>Богородица Агиосоритиса; сигла</t>
-  </si>
-  <si>
-    <t>Бюст на Богородица Епискепсис</t>
-  </si>
-  <si>
-    <t>Бюст на Богородица Никопея; сигла</t>
-  </si>
-  <si>
-    <t>Бюст на Богородица Епискепсис; сигла</t>
-  </si>
-  <si>
-    <t>Св. Георги на кон (на д.), държи копие на рамо (д. ръка) и поводите (л. ръка). От двете страни на главата му има вертикален надпис в хоризонтални линии</t>
-  </si>
-  <si>
-    <t>Св. Георги на кон (на д.), държи копие на рамо (д. ръка) и поводите (л. ръка). От двете страни на главата му има надпис в хоризонтални линии</t>
-  </si>
-  <si>
-    <t>Богородица Елеуса стъпила върху супендион</t>
-  </si>
-  <si>
-    <t>Бюст на Св. Тодор, държащ копие (д. ръка) и щит (л. ръка).</t>
-  </si>
-  <si>
-    <t>OBVERSE DECORATION</t>
-  </si>
-  <si>
-    <t>ДЕКОРАТИВНИ ЕЛЕМЕНТИ НА АВЕРСА</t>
-  </si>
-  <si>
-    <t>REVERSE LAYOUT OF FIELD</t>
-  </si>
-  <si>
-    <t>Legend of 7 lines</t>
-  </si>
-  <si>
-    <t>Legend of 6 lines</t>
-  </si>
-  <si>
-    <t>Legend of 5 lines</t>
-  </si>
-  <si>
-    <t>Legend of 2 lines</t>
-  </si>
-  <si>
-    <t>Block monogram</t>
-  </si>
-  <si>
-    <t>ОФОРМЛЕНИЕ НА ОБРАТНАТА СТРАНА</t>
-  </si>
-  <si>
-    <t>Линеен надпис в 7 редове</t>
-  </si>
-  <si>
-    <t>Линеен надпис в 6 редове</t>
-  </si>
-  <si>
-    <t>Линеен надпис в 5 редове</t>
-  </si>
-  <si>
-    <t>Линеен надпис в 2 редове</t>
-  </si>
-  <si>
-    <t>Блоков монограм</t>
-  </si>
-  <si>
-    <t>Линеен надпис в 6 редoве</t>
-  </si>
-  <si>
-    <t>REVERSE FIELD’S DIMENSIONS (mm)</t>
-  </si>
-  <si>
-    <t>REVERSE MATRIX</t>
-  </si>
-  <si>
-    <t>РЕВЕРСЕН ПЕЧАТ / РЕВЕРС НА МАТРИЦА</t>
-  </si>
-  <si>
-    <t>REVERSE ICONOGRAPHY</t>
-  </si>
-  <si>
-    <t>ИКОНОГРАФИЯ НА РЕВЕРСА</t>
-  </si>
-  <si>
-    <t>REVERSE DECORATION</t>
-  </si>
-  <si>
-    <t>ДЕКОРАТИВНИ ЕЛЕМЕНТИ НА РЕВЕРСА</t>
-  </si>
-  <si>
-    <t>LANGUAGE(S)</t>
-  </si>
-  <si>
-    <t>Byzantine Greek</t>
-  </si>
-  <si>
-    <t>Latin</t>
-  </si>
-  <si>
-    <t>Byzantine Greek and Old Russian</t>
-  </si>
-  <si>
-    <t>ЕЗИК (ЕЗИЦИ)</t>
-  </si>
-  <si>
-    <t>Византийски гръцки</t>
-  </si>
-  <si>
-    <t>Латински</t>
-  </si>
-  <si>
-    <t>Византийски гръцки и староруски</t>
-  </si>
-  <si>
-    <t>FACSIMILE OBVERSE GRAPHIC</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_182_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_183_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_278_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_251_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_245_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_90_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_135_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_86_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_132_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_133_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_317_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_91_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_131_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_312_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_29_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_49_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_181_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_238_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_127_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_144_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_42_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_39_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_54_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_243_O.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_30_O.jpg</t>
-  </si>
-  <si>
-    <t>FACSIMILE OBVERSE DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Seal of Georgios Doukas</t>
-  </si>
-  <si>
-    <t>FACSIMILE REVERSE GRAPHIC</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_182_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_183_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_278_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_251_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_245_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_90_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_135_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_86_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_132_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_133_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_317_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_91_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_131_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_312_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_29_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_49_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_181_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_238_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_127_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_144_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_42_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_39_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_54_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_243_R.jpg</t>
-  </si>
-  <si>
-    <t>Sofia_NAIM_30_R.jpg</t>
-  </si>
-  <si>
-    <t>FACSIMILE REVERSE DESCRIPTION</t>
-  </si>
-  <si>
-    <t>EDITION(S)</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 161, p. 80; Jordanov, Corpus, 3, 1933; Jordanov, Corpus, 2, 339</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 138, p. 70; Jordanov, Corpus, 3, 1780; Jordanov, Corpus, 2, 710</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 141, p. 71-72; Jordanov, Corpus, 3, 1742, p. 575</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 135, p. 69</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 133, p. 68; Jordanov, Corpus, 3, 1619, p. 528-530; Jordanov, 2006, p. 353-359</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 137, p. 70; Jordanov, Corpus, 3, 1652, p. 544-545; Jordanov, Corpus, 1, 9.1, p. 39; Jordanov, 1992, 25, p. 291; Laurent, Corpus, 5.2, 1139, p. 66-67; Gerasimov, 1940-1942, 5, p. 176-177</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 145, p. 73; Jordanov, Corpus, 3, 1752, p. 581; Jordanov, Corpus, 1, 75.1, p. 161</t>
-  </si>
-  <si>
-    <t>Wassiliou-Seibt, 2016, 2135, p. 363-364; Jordanov, 2011, 139, p. 71; Jordanov, Corpus, 3, 1680, p. 555; Jordanov, Corpus, 1, 16.1, p. 45; Laurent, Corpus, 5.2, 1501, p. 330; Ivanov, 1919-1920, 18, p. 112-113</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 153, p. 77; Jordanov, Corpus, 3, 1866, p. 616; Jordanov, Corpus, 2, 156, p. 119</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 158, p. 79; Jordanov, Corpus, 3, 1910, p. 626-627; Jordanov, Corpus, 2, 260, p. 178-179</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 174, p. 86</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 167, p. 83; Bulgakova, 2004, p. 246-247; Janin, 1970, 71, p. 62-64, 181, tables 7.71, 40.71; Gerasimov, 1952, 1, p. 93-95</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 154, p. 77; Jordanov, Corpus, 3, 1886, p. 622; Jordanov, Corpus, 2, 222, p. 152-153</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 170, p. 84</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 184, p. 88-89; Jordanov, Corpus, 3, 2303, p. 730</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 165, p. 82; Jordanov, Corpus, 3, 2018, p. 655; Jordanov, Corpus, 2, 553, p. 331; Mushmov, 1934, 38, p. 345</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 209, p. 96</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 213, p. 97</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 72, p. 34; Jordanov, 2009, 22, p. 164-165; Jordanov, Corpus, 3, 631, p. 235-236; Jordanov, Corpus, 2, 198, p. 139; Jordanov, 1998, 10, p. 13; Jordanov, 1995, 8, p. 119</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 73, p. 34-35; Jordanov, 2009, 26, p. 173-174; Jordanov, Corpus, 3, 651, p. 241-242; Jordanov, Corpus, 2, 201, p. 142-143; Jordanov, 1998, 22, p. 23</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 74, p. 34-35; Jordanov, 2009, 27, p. 173-174; Jordanov, Corpus, 3, 652, p. 241-242</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 75, p. 35-36; Jordanov, Corpus, 3, 658, p. 243; Jordanov, Corpus, 2, 118(b), p. 99-100; Jordanov, 1998, 28(2), p. 27; Mushmov, 1934, 19(2), p. 339</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 76, p. 35-36; Jordanov, Corpus, 3, 659, p. 243; Jordanov, Corpus, 2, 119(c), p. 99-100; Jordanov, 1998, 29(3), p. 27; Mushmov, 1934, 19(1), p. 339</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 78, p. 36</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 79, p. 36-37; Jordanov, Corpus, 3, 710, p. 259-260; Mushmov, 1934, 30, p. 343</t>
-  </si>
-  <si>
-    <t>ПУБЛИКАЦИЯ (ПУБЛИКАЦИИ)</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011, 161, стр. 80; Jordanov, Corpus, 3, 1933; Jordanov, Corpus, 2, 339</t>
-  </si>
-  <si>
-    <t>Jordanov, 2011,138, стр. 70; Jordanov, Corpus, 3, 1780; Jordanov, Corpus, 2, 710</t>
-  </si>
-  <si>
-    <t>COMMENTARY ON EDITION(S)</t>
-  </si>
-  <si>
-    <t>Jordanov mistook the cross at the beginning of the first line on the obverse for a theta, making an invocation to the Mother of God.</t>
-  </si>
-  <si>
-    <t>The seal preserves more letters that are not displayed in Jordanov’s diplomatic edition. It is possible that the author confused the reading of this seal with that published as Jordanov, Corpus, 3, no. 1631, p. 536, perhaps attributed to the same person.</t>
-  </si>
-  <si>
-    <t>Jordanov dated the seal in the years of Basil I. However, the alpha with broken horizontal line, as well as the short omega point to a much earlier date. There is no reason to assume that a bishop of Trabzon must have necessarily been also a metropolitan, since Trabzon was a suffragant bishopric in the eighth century, and Photeinos’ seal could have been issued in that period by a simple bishop.</t>
-  </si>
-  <si>
-    <t>There is no space for a third line. The name is spelled in Latin.</t>
+    <t xml:space="preserve">It is not clear whether T. Kunev discovered the seal in 1912 and it was again him who donated it in 1953.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to Jordanov, it was found in the region of Veliko Tarnovo (without more precise information). There are traces of letters indicating that the disc was struck twice and seemingly the first time by a different boulloterion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although it has been assumed that because M. Kondev was a teacher in the village of Yana, the seal also originated from that same place, this cannot be confirmed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЪВРЕМЕННИ НАБЛЮДЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не е ясно дали Г. Панайотов е откривателят на печата, или само го е дарил на музея.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Счита се, че понеже А. Николов е от Силистра, то и печатът произхожда от същото място, но това не може да се потвърди.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Счита се, че понеже М. Кондев е бил учител в с. Яна, то и печатът произхожда от същото място, но това не може да се потвърди.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBVERSE LAYOUT OF FIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend of 8 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend of 4 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iconography with circular legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruciform monogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iconography with legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend of 3 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОФОРМЛЕНИЕ НА ЛИЦЕВАТА СТРАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линеен надпис в 8 редове</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линеен надпис в 4 редове</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иконография с кръгов надпис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кръстообразен монограм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линеен надпис в 3 редове</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монограм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBVERSE FIELD’S DIMENSIONS (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBVERSE MATRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИЦЕВ ПЕЧАТ / ЛИЦЕВА МАТРИЦА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBVERSE ICONOGRAPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bust of Mother of God orans; sigla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patriarchal Cross, on three steps, with X at the intersection of the arms and a hizontal line forming a crosslet on top, flanked by floral decoration reaching to the crosslet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bust of Mother of God, type Nikopoios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bust of Mother of God, type Minimalorantengestus; sigla; Tongues of Fire above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of God, type Hagiosoritissa, standing; sigla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bust of Mother of God, type Episkepsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bust of Mother of God, type Nikopoios; sigla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lion advancing to the right; star above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bust of Saint Clement (pope of Rome), blessing (r. hand) and holding the Holy Gospel (l. hand); on either side, vertical inscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Eustratios, standing, holding a spear (r. hand) and a shield resting on the ground (l. hand); on either side, vertical inscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bust of Saint Menas, bearded; on either side, cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bust of Mother of God, type Episkepsis; sigla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross; letters in the lower quarters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Georgios on horseback, moving to the right, holding a spear (r. hand) and the leash (l. hand); on either side, vertical inscription arranged in horizontal lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of God, type Eleousa, standing on a suppedion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bust of Saint Theodoros holding a spear (r. hand) and a shield (l. hand).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИКОНОГРАФИЯ НА АВЕРСА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бюст на Богородица; сигла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бюст на Богородица Никопея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бюст на Богородица Minimalorantengestus; сигла; Огнени Езици</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богородица Агиосоритиса; сигла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бюст на Богородица Епискепсис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бюст на Богородица Никопея; сигла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бюст на Богородица Епискепсис; сигла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Св. Георги на кон (на д.), държи копие на рамо (д. ръка) и поводите (л. ръка). От двете страни на главата му има вертикален надпис в хоризонтални линии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Св. Георги на кон (на д.), държи копие на рамо (д. ръка) и поводите (л. ръка). От двете страни на главата му има надпис в хоризонтални линии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богородица Елеуса стъпила върху супендион</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бюст на Св. Тодор, държащ копие (д. ръка) и щит (л. ръка).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBVERSE DECORATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЕКОРАТИВНИ ЕЛЕМЕНТИ НА АВЕРСА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERSE LAYOUT OF FIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend of 7 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend of 6 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend of 5 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend of 2 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block monogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОФОРМЛЕНИЕ НА ОБРАТНАТА СТРАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линеен надпис в 7 редове</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линеен надпис в 6 редове</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линеен надпис в 5 редове</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линеен надпис в 2 редове</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блоков монограм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линеен надпис в 6 редoве</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERSE FIELD’S DIMENSIONS (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERSE MATRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕВЕРСЕН ПЕЧАТ / РЕВЕРС НА МАТРИЦА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERSE ICONOGRAPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИКОНОГРАФИЯ НА РЕВЕРСА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERSE DECORATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЕКОРАТИВНИ ЕЛЕМЕНТИ НА РЕВЕРСА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANGUAGE(S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byzantine Greek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byzantine Greek and Old Russian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЗИК (ЕЗИЦИ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Византийски гръцки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Латински</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Византийски гръцки и староруски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACSIMILE OBVERSE GRAPHIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_182_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_183_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_278_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_251_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_245_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_90_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_135_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_86_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_132_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_133_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_317_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_91_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_131_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_312_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_29_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_49_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_181_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_238_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_127_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_144_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_42_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_39_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_54_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_243_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_30_O.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACSIMILE OBVERSE DESCRIPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal of Georgios Doukas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACSIMILE REVERSE GRAPHIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_182_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_183_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_278_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_251_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_245_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_90_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_135_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_86_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_132_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_133_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_317_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_91_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_131_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_312_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_29_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_49_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_181_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_238_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_127_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_144_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_42_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_39_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_54_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_243_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia_NAIM_30_R.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACSIMILE REVERSE DESCRIPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDITION(S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 161, p. 80; Jordanov, Corpus, 3, 1933; Jordanov, Corpus, 2, 339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 138, p. 70; Jordanov, Corpus, 3, 1780; Jordanov, Corpus, 2, 710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 141, p. 71-72; Jordanov, Corpus, 3, 1742, p. 575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 135, p. 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 133, p. 68; Jordanov, Corpus, 3, 1619, p. 528-530; Jordanov, 2006, p. 353-359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 137, p. 70; Jordanov, Corpus, 3, 1652, p. 544-545; Jordanov, Corpus, 1, 9.1, p. 39; Jordanov, 1992, 25, p. 291; Laurent, Corpus, 5.2, 1139, p. 66-67; Gerasimov, 1940-1942, 5, p. 176-177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 145, p. 73; Jordanov, Corpus, 3, 1752, p. 581; Jordanov, Corpus, 1, 75.1, p. 161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wassiliou-Seibt, 2016, 2135, p. 363-364; Jordanov, 2011, 139, p. 71; Jordanov, Corpus, 3, 1680, p. 555; Jordanov, Corpus, 1, 16.1, p. 45; Laurent, Corpus, 5.2, 1501, p. 330; Ivanov, 1919-1920, 18, p. 112-113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 153, p. 77; Jordanov, Corpus, 3, 1866, p. 616; Jordanov, Corpus, 2, 156, p. 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 158, p. 79; Jordanov, Corpus, 3, 1910, p. 626-627; Jordanov, Corpus, 2, 260, p. 178-179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 174, p. 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 167, p. 83; Bulgakova, 2004, p. 246-247; Janin, 1970, 71, p. 62-64, 181, tables 7.71, 40.71; Gerasimov, 1952, 1, p. 93-95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 154, p. 77; Jordanov, Corpus, 3, 1886, p. 622; Jordanov, Corpus, 2, 222, p. 152-153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 170, p. 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 184, p. 88-89; Jordanov, Corpus, 3, 2303, p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 165, p. 82; Jordanov, Corpus, 3, 2018, p. 655; Jordanov, Corpus, 2, 553, p. 331; Mushmov, 1934, 38, p. 345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 209, p. 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 213, p. 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 72, p. 34; Jordanov, 2009, 22, p. 164-165; Jordanov, Corpus, 3, 631, p. 235-236; Jordanov, Corpus, 2, 198, p. 139; Jordanov, 1998, 10, p. 13; Jordanov, 1995, 8, p. 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 73, p. 34-35; Jordanov, 2009, 26, p. 173-174; Jordanov, Corpus, 3, 651, p. 241-242; Jordanov, Corpus, 2, 201, p. 142-143; Jordanov, 1998, 22, p. 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 74, p. 34-35; Jordanov, 2009, 27, p. 173-174; Jordanov, Corpus, 3, 652, p. 241-242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 75, p. 35-36; Jordanov, Corpus, 3, 658, p. 243; Jordanov, Corpus, 2, 118(b), p. 99-100; Jordanov, 1998, 28(2), p. 27; Mushmov, 1934, 19(2), p. 339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 76, p. 35-36; Jordanov, Corpus, 3, 659, p. 243; Jordanov, Corpus, 2, 119(c), p. 99-100; Jordanov, 1998, 29(3), p. 27; Mushmov, 1934, 19(1), p. 339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 78, p. 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 79, p. 36-37; Jordanov, Corpus, 3, 710, p. 259-260; Mushmov, 1934, 30, p. 343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУБЛИКАЦИЯ (ПУБЛИКАЦИИ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011, 161, стр. 80; Jordanov, Corpus, 3, 1933; Jordanov, Corpus, 2, 339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov, 2011,138, стр. 70; Jordanov, Corpus, 3, 1780; Jordanov, Corpus, 2, 710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENTARY ON EDITION(S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov mistook the cross at the beginning of the first line on the obverse for a theta, making an invocation to the Mother of God.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The seal preserves more letters that are not displayed in Jordanov’s diplomatic edition. It is possible that the author confused the reading of this seal with that published as Jordanov, Corpus, 3, no. 1631, p. 536, perhaps attributed to the same person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov dated the seal in the years of Basil I. However, the alpha with broken horizontal line, as well as the short omega point to a much earlier date. There is no reason to assume that a bishop of Trabzon must have necessarily been also a metropolitan, since Trabzon was a suffragant bishopric in the eighth century, and Photeinos’ seal could have been issued in that period by a simple bishop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no space for a third line. The name is spelled in Latin.</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgakova provides different size numbers. According to Bulgakova, there are two more types of this seal, issued with different boulloteria. </t>
   </si>
   <si>
-    <t>Jordanov has presented the seal as if Michael bears the family name Eustratios. In fact, the name Eustratios on the reverse refers to the Saint (also depicted on the obverse)</t>
-  </si>
-  <si>
-    <t>Jordanov dated the seal in the 10th-11th c., but it is an early one.</t>
+    <t xml:space="preserve">Jordanov has presented the seal as if Michael bears the family name Eustratios. In fact, the name Eustratios on the reverse refers to the Saint (also depicted on the obverse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanov dated the seal in the 10th-11th c., but it is an early one.</t>
   </si>
   <si>
     <r>
@@ -1794,7 +1789,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>Mushmov read ΠΑΛΙΤΗΝ. Jordanov at first also read the same, interpreting the family name ΠΑΛΙΤΗΝΟC, which he associated with the well-known name ΠΑΛΑΤΙΝΟC. Later, Jordanov changed the reading to ΠΟΛΙΤΗΝ, interpreting it as ΠΟΛΙΤΗΝΟC. First, one must comment on the name’s second letter: it is true, that in the photo published by Mushmov, at a time when the seal was better preserved than today, the letter looks like an alpha, albeit thinner than the one right above it. However, close inspection of the specimen, as well as the high quality photo, show that the letter is closing below with a circular line, which makes it an omicron. Therefore, the reading should be ΠΟΛΙΤΗΝ. Second: there is no reason to search for abbreviated names since the family name ΠΟΛΙΤΗC was commonly attested in the 11</t>
+      <t xml:space="preserve">Mushmov read ΠΑΛΙΤΗΝ. Jordanov at first also read the same, interpreting the family name ΠΑΛΙΤΗΝΟC, which he associated with the well-known name ΠΑΛΑΤΙΝΟC. Later, Jordanov changed the reading to ΠΟΛΙΤΗΝ, interpreting it as ΠΟΛΙΤΗΝΟC. First, one must comment on the name’s second letter: it is true, that in the photo published by Mushmov, at a time when the seal was better preserved than today, the letter looks like an alpha, albeit thinner than the one right above it. However, close inspection of the specimen, as well as the high quality photo, show that the letter is closing below with a circular line, which makes it an omicron. Therefore, the reading should be ΠΟΛΙΤΗΝ. Second: there is no reason to search for abbreviated names since the family name ΠΟΛΙΤΗC was commonly attested in the 11</t>
     </r>
     <r>
       <rPr>
@@ -1805,7 +1800,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -1826,7 +1821,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -1840,7 +1835,7 @@
     </r>
   </si>
   <si>
-    <t>Jordanov described the figure on the obverse as a saint.</t>
+    <t xml:space="preserve">Jordanov described the figure on the obverse as a saint.</t>
   </si>
   <si>
     <r>
@@ -1851,7 +1846,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>According to Jordanov, the cross on the obverse occupies the whole field. In fact, there are two letters on either side of the lower quarters: the right one is a C, while the left looks like a reverse C, but the weak imprint does not allow for a certain identification. The tall cross is characteristic of the 6</t>
+      <t xml:space="preserve">According to Jordanov, the cross on the obverse occupies the whole field. In fact, there are two letters on either side of the lower quarters: the right one is a C, while the left looks like a reverse C, but the weak imprint does not allow for a certain identification. The tall cross is characteristic of the 6</t>
     </r>
     <r>
       <rPr>
@@ -1862,7 +1857,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -1876,76 +1871,76 @@
     </r>
   </si>
   <si>
-    <t>КОМЕНТАР НА ПУБЛИКАЦИИТЕ</t>
-  </si>
-  <si>
-    <t>PARALLEL(S)</t>
-  </si>
-  <si>
-    <t>Zacos, 1, 2730a, p. 1532; Zacos,1, 2730b, p. 1533</t>
-  </si>
-  <si>
-    <t>DO BZS.1951.31.5.1833 (DOS 3, 67.2); Vienna MK 219 (Laurent, Corpus, 5.1, 382)</t>
-  </si>
-  <si>
-    <t>Archaeological Museum Veliki Preslav 20178 (Jordanov, 1993, 380; Jordanov, Corpus, 3, 1627, p. 536); RHM Shumen 14217 (Jordanov, 1993, 381; Jordanov, Corpus, 3, 1628, p. 536); RHM Shumen 15228 (Jordanov, Corpus, 3, 1629, p. 536); Private collection – Bulgaria (Jordanov, Corpus, 3, 1630, p. 536)</t>
-  </si>
-  <si>
-    <t>Numismatic Museum, Athens, K618 (Stavrakos, coll. Athens, 2000, 54, p. 118-119; Konstantopoulos, coll. Athens, 1917, 618, p. 160)</t>
-  </si>
-  <si>
-    <t>National Historical Museum, Sofia (Jordanov, Corpus, 3, 2849, p. 862)</t>
-  </si>
-  <si>
-    <t>RHM Shumen 14857 (Jordanov, Corpus, 3, 1887, p. 622; Jordanov, Corpus, 2, 223, p. 152-153; Jordanov, Zhekova, coll. Shumen, 2007, 382)</t>
-  </si>
-  <si>
-    <t>RHM Shumen 15210 (Jordanov, Corpus, 3, 2112, p. 684; Jordanov, Zhekova, coll. Shumen, 2007, 418)</t>
-  </si>
-  <si>
-    <t>No parallels known</t>
-  </si>
-  <si>
-    <t>Numismatic Museum, Athens, K492δ (Stavrakos, coll. Athens, 2000, 70, p. 137-138; Laurent, 1932, 482; Konstantopoulos, coll. Athens, 1917, 492δ, p. 335)</t>
-  </si>
-  <si>
-    <t>ПАРАЛЕЛ (ПАРАЛЕЛИ)</t>
-  </si>
-  <si>
-    <t>Zacos, 1, 2730a, стр. 1532; Zacos,1, 2730b, стр. 1533</t>
-  </si>
-  <si>
-    <t>Няма известни паралели</t>
-  </si>
-  <si>
-    <t>COMMENTARY ON PARALLEL(S)</t>
-  </si>
-  <si>
-    <t>All seals were struck with the same boulloterion</t>
+    <t xml:space="preserve">КОМЕНТАР НА ПУБЛИКАЦИИТЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARALLEL(S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacos, 1, 2730a, p. 1532; Zacos,1, 2730b, p. 1533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO BZS.1951.31.5.1833 (DOS 3, 67.2); Vienna MK 219 (Laurent, Corpus, 5.1, 382)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archaeological Museum Veliki Preslav 20178 (Jordanov, 1993, 380; Jordanov, Corpus, 3, 1627, p. 536); RHM Shumen 14217 (Jordanov, 1993, 381; Jordanov, Corpus, 3, 1628, p. 536); RHM Shumen 15228 (Jordanov, Corpus, 3, 1629, p. 536); Private collection – Bulgaria (Jordanov, Corpus, 3, 1630, p. 536)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numismatic Museum, Athens, K618 (Stavrakos, coll. Athens, 2000, 54, p. 118-119; Konstantopoulos, coll. Athens, 1917, 618, p. 160)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Historical Museum, Sofia (Jordanov, Corpus, 3, 2849, p. 862)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHM Shumen 14857 (Jordanov, Corpus, 3, 1887, p. 622; Jordanov, Corpus, 2, 223, p. 152-153; Jordanov, Zhekova, coll. Shumen, 2007, 382)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHM Shumen 15210 (Jordanov, Corpus, 3, 2112, p. 684; Jordanov, Zhekova, coll. Shumen, 2007, 418)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No parallels known</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numismatic Museum, Athens, K492δ (Stavrakos, coll. Athens, 2000, 70, p. 137-138; Laurent, 1932, 482; Konstantopoulos, coll. Athens, 1917, 492δ, p. 335)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАРАЛЕЛ (ПАРАЛЕЛИ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacos, 1, 2730a, стр. 1532; Zacos,1, 2730b, стр. 1533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Няма известни паралели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENTARY ON PARALLEL(S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All seals were struck with the same boulloterion</t>
   </si>
   <si>
     <t xml:space="preserve">According to Laurent, the Vienna specimen and the one mentioned by Schlumberger (Sig., p. 250-251) are the same object. This statement is repeated by the editors of the DO catalogue. It is not clear why Laurent assumed this: Schlumberger only noted that the information about this seal was sent to him by A. Sorlin-Dorigny. There is no photo, no drawing, and no information about the place where that seal was kept. Considering the above, it is possible that Schlumberger was referring not to the Vienna seal, but to another specimen, whose destiny is still unknown to scholars. </t>
   </si>
   <si>
-    <t>Similar specimens, struck with different boulloteria, in: Bulgakova, 2004, p. 245-247. The seals were issued by Ratibor, deputy of the prince of Kiev.</t>
-  </si>
-  <si>
-    <t>Another two specimen were issued with different boulloteria – the differences are visible on both the obverse and the reverse: Sofia, NAIM, 42 (see here); unknown present location (Spink Auction 127, coll. Zacos, part 1, 1998, 79, p. 41)</t>
-  </si>
-  <si>
-    <t>Another three specimen were issued with different boulloteria – the differences are visible on both the obverse and the reverse: Sofia, NAIM, 144 (see here); unknown present location (Spink Auction 127, coll. Zacos, part 1, 1998, 79, p. 41); Numismatic Museum, Athens, K492δ (Stavrakos, coll. Athens, 2000, 70, p. 137-138; Laurent, 1932, 482; Konstantopoulos, coll. Athens, 1917, 492δ, p. 335)</t>
-  </si>
-  <si>
-    <t>КОМЕНТАР НА ПАРАЛЕЛИТЕ</t>
-  </si>
-  <si>
-    <t>Всички печати са отсечени с един и същи булотирион</t>
+    <t xml:space="preserve">Similar specimens, struck with different boulloteria, in: Bulgakova, 2004, p. 245-247. The seals were issued by Ratibor, deputy of the prince of Kiev.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another two specimen were issued with different boulloteria – the differences are visible on both the obverse and the reverse: Sofia, NAIM, 42 (see here); unknown present location (Spink Auction 127, coll. Zacos, part 1, 1998, 79, p. 41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another three specimen were issued with different boulloteria – the differences are visible on both the obverse and the reverse: Sofia, NAIM, 144 (see here); unknown present location (Spink Auction 127, coll. Zacos, part 1, 1998, 79, p. 41); Numismatic Museum, Athens, K492δ (Stavrakos, coll. Athens, 2000, 70, p. 137-138; Laurent, 1932, 482; Konstantopoulos, coll. Athens, 1917, 492δ, p. 335)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМЕНТАР НА ПАРАЛЕЛИТЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всички печати са отсечени с един и същи булотирион</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>EDITION INTERPRETIVE</t>
+    <t xml:space="preserve">EDITION INTERPRETIVE</t>
   </si>
   <si>
     <r>
@@ -1955,7 +1950,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>1 [Κο]μνηνὸ[ς] /2 [Ἀν]δρόνικος /3 [ἐξ Ε]ὐδοκίας /4 [πορ]φυροφυοῦς /5 [ἐκ] φυεὶς ῥίζης /6 [κλ]ἀδος ἀνεψι&lt;ὸ-&gt; /7 [ς δ]ἐ Μανουὴλ /8 [βα]σιλέως - 1 [υἱ]ὸς Βατ&lt;ά-&gt; /2 τζου δεσπ[ό-] /3 του Θεοδώρου /4 ἐμὲ προΐστ[η] /5 κ(α</t>
+      <t xml:space="preserve">1 [Κο]μνηνὸ[ς] /2 [Ἀν]δρόνικος /3 [ἐξ Ε]ὐδοκίας /4 [πορ]φυροφυοῦς /5 [ἐκ] φυεὶς ῥίζης /6 [κλ]ἀδος ἀνεψι&lt;ὸ-&gt; /7 [ς δ]ἐ Μανουὴλ /8 [βα]σιλέως - 1 [υἱ]ὸς Βατ&lt;ά-&gt; /2 τζου δεσπ[ό-] /3 του Θεοδώρου /4 ἐμὲ προΐστ[η] /5 κ(α</t>
     </r>
     <r>
       <rPr>
@@ -1964,7 +1959,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ὶ</t>
+      <t xml:space="preserve">ὶ</t>
     </r>
     <r>
       <rPr>
@@ -1973,104 +1968,104 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>) λόγων /6 καὶ πραγ- /7 μάτων</t>
+      <t xml:space="preserve">) λόγων /6 καὶ πραγ- /7 μάτων</t>
     </r>
   </si>
   <si>
-    <t>1 Μ(ήτη)ρ Θ(εο)ῦ  – 1 Ἐκ σοῦ /2 μοναχὸς Ἀρ- /3 σένιος Τζαμ- /4 πλάκων Π[άνα-] /5 γνε κυροῖ καὶ /6 γραφὰς και π- /7 ρακτέα</t>
-  </si>
-  <si>
-    <t>1 Κ(ύρι)ε /2 [β]οήθι /3 [τ]ῷ σῷ /4 δούλ(ῳ) - 1 Κοσμᾶ /2 [ἐ]πισκό- /3 πῳ Πρού- /4 σης</t>
-  </si>
-  <si>
-    <t>1 Κ(ύρι)ε βωήθει τῷ σῷ δούλ(ῳ) - 1 Ἰω(άννῃ) κου- /2 βουκλησ(ίῳ) /3 (καὶ) νοτα- /4 ρίο</t>
-  </si>
-  <si>
-    <t>1 Θε[οτ]όκε βοήθει – 1 Θεοφυ- /2 [λ]άκτῳ ἀρ- /3 χιεπισκό- /4 π(ῳ) Κωνσταν- /5 τ(ινου)πόλ(εως) Νέα(ς) /6  Ῥώμης</t>
-  </si>
-  <si>
-    <t>1 Μ(ήτη)ρ Θ(εο)ῦ  – 1 Τῆς /2 λαύρας /3 τοῦ κ(υρίο)υ Ἀν- /4 [τ]ωνί[ου]</t>
-  </si>
-  <si>
-    <t>(Θεοτόκε βοήθει)  – 1 Φωτινῷ /2 [ἐ]πισκόπῳ /3 Τραπε- /4 ζοῦ(ντος)</t>
-  </si>
-  <si>
-    <t>Μ(ήτη)ρ Θ(εο)ῦ –  1 Σκέποις μ(υσ-) /2 τικοῦ [π]οιμνήου /3 [σ]ὺ Παρθένε Βε- /4 λεβουσδίου ποι- /5 μένα Ἰωά- /6 ννην</t>
-  </si>
-  <si>
-    <t>1 [Θ(εοτό)]κ[ε β(οή)θ(ει)] /2 [Ἀ]δριανὸ[ν] /3 τὸν Δαλα- /4 σινόν</t>
-  </si>
-  <si>
-    <t>Μή(τη)ρ Θ(εο)ῦ. – 1 Σφρα- /2 γὶς γραφὰς /3 πιστοῦσα /4 τοῦ Καννα- /5 βο[ύ]τζι</t>
-  </si>
-  <si>
-    <t>1 Mau- /2 rici[i]</t>
-  </si>
-  <si>
-    <t>a (Ὁ ἅγιος) Κλη- - b μέ[ν]τ(ιος) – 1 ωт /2 Рати- /3 бора</t>
-  </si>
-  <si>
-    <t>a ῾Ο ἅγιος - b Εὐστράτ(ιος) – 1 Σόν Εὐ- /2 στράτιε /3 Μιχαὴλ /4 δοῦλον /5 σκέποι[ς]</t>
-  </si>
-  <si>
-    <t>1 Κ(ύρι)ε /2 [β]οήθει /3 τῷ σῷ – 1 δούλῳ /2 [Ἐ]λευθε- /3 ρίῳ</t>
+    <t xml:space="preserve">1 Μ(ήτη)ρ Θ(εο)ῦ  – 1 Ἐκ σοῦ /2 μοναχὸς Ἀρ- /3 σένιος Τζαμ- /4 πλάκων Π[άνα-] /5 γνε κυροῖ καὶ /6 γραφὰς και π- /7 ρακτέα</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Κ(ύρι)ε /2 [β]οήθι /3 [τ]ῷ σῷ /4 δούλ(ῳ) - 1 Κοσμᾶ /2 [ἐ]πισκό- /3 πῳ Πρού- /4 σης</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Κ(ύρι)ε βωήθει τῷ σῷ δούλ(ῳ) - 1 Ἰω(άννῃ) κου- /2 βουκλησ(ίῳ) /3 (καὶ) νοτα- /4 ρίο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Θε[οτ]όκε βοήθει – 1 Θεοφυ- /2 [λ]άκτῳ ἀρ- /3 χιεπισκό- /4 π(ῳ) Κωνσταν- /5 τ(ινου)πόλ(εως) Νέα(ς) /6  Ῥώμης</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Μ(ήτη)ρ Θ(εο)ῦ  – 1 Τῆς /2 λαύρας /3 τοῦ κ(υρίο)υ Ἀν- /4 [τ]ωνί[ου]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Θεοτόκε βοήθει)  – 1 Φωτινῷ /2 [ἐ]πισκόπῳ /3 Τραπε- /4 ζοῦ(ντος)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μ(ήτη)ρ Θ(εο)ῦ –  1 Σκέποις μ(υσ-) /2 τικοῦ [π]οιμνήου /3 [σ]ὺ Παρθένε Βε- /4 λεβουσδίου ποι- /5 μένα Ἰωά- /6 ννην</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 [Θ(εοτό)]κ[ε β(οή)θ(ει)] /2 [Ἀ]δριανὸ[ν] /3 τὸν Δαλα- /4 σινόν</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μή(τη)ρ Θ(εο)ῦ. – 1 Σφρα- /2 γὶς γραφὰς /3 πιστοῦσα /4 τοῦ Καννα- /5 βο[ύ]τζι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Mau- /2 rici[i]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a (Ὁ ἅγιος) Κλη- - b μέ[ν]τ(ιος) – 1 ωт /2 Рати- /3 бора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a ῾Ο ἅγιος - b Εὐστράτ(ιος) – 1 Σόν Εὐ- /2 στράτιε /3 Μιχαὴλ /4 δοῦλον /5 σκέποι[ς]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Κ(ύρι)ε /2 [β]οήθει /3 τῷ σῷ – 1 δούλῳ /2 [Ἐ]λευθε- /3 ρίῳ</t>
   </si>
   <si>
     <t xml:space="preserve"> – (Μηνᾶ)</t>
   </si>
   <si>
-    <t>Μή(τη)ρ Θ(εο)ῦ –  1 Θεοφύ- /2 λακτον /3 Πολίτην /4 [Ἁ]γνή σκέ- /5 [π]οι[ς]</t>
-  </si>
-  <si>
-    <t>[Μή(τη)ρ] Θ[(εο)ῦ] –  1 Στε- /2 [φ]αν(...) [.]α /3 [.]τας</t>
-  </si>
-  <si>
-    <t>[.]σ – (Μαυριανοῦ)</t>
-  </si>
-  <si>
-    <t>EDITION DIPLOMATIC</t>
-  </si>
-  <si>
-    <t>1..μνηνο. /2.ΔΡΟΝΙΚΟΣ /3..υδοκιας /4..ρΦΥΡΟΦΥς /5.ΦυιςριΖΗΣ /6.ΛΑΔΟΣΑΝΕΨΙ /7..ΕΜΑΝΗΛ /8..ΣΙΛΕΟΣ – 1..ΟΣRΑΤ /2ΤΖΔΕΣΠ. /3ΤΘΕΟΔΩΡ /4ΕΜΕΠΡΟΙΣΤ. /5ΚΕΛΟΓΩΝ /6ΚΑΙΠΡΑΓ /7ΜΑΤΩΝ</t>
-  </si>
-  <si>
-    <t>1̅ΘΥ̅ – 1ΕΚ̣ΣΟ̣Υ̣ /2ΜΟΑΧΟΣΑ̣Ρ̣ /3ΣΕΝΙΟΣΤΑ̣Μ̣ /4ΠΛ̣ΑΚΠ̣.. /5ΓΕΚΥ̣ΡΟΙΚ̣Α̣Ι /6ΓΡΑΦΑ̣ΣΚΑΙΠ /7ΡΑΚΤ̣ΕΑ</t>
-  </si>
-  <si>
-    <t>1̣Ε /2.ΟΗΘΙ /3.Σ /4Λ, /5 – 1 ̣ΟΣΜ /2.ΙΣΟ /3̣̣ /4ΣΗΣ /5</t>
-  </si>
-  <si>
-    <t>1ΕΗΘΕΙΤΣΟΥΛ   – 1 /2̣Ι̅ /3̣ΛΗΣ, /4.ΝΟΤΑ̣ /5ΡΙΟ</t>
-  </si>
-  <si>
-    <t>1ΘΕ.Ο̣Ε̣ΟΗΘΕΙ – 1ΘΕΟΥ /2.ΑΤ,ΑΡ̣ /3ΧΙΕΠΙΣΟ̣ /4Π,ΝΣΤΑΝ /5Τ,ΠΟΛ,ΕΑ⸊ /6ΜΗΣ</t>
-  </si>
-  <si>
-    <t>1̅ Θ̅Υ – 1 /2ΤΗΣ /3ΛΑΥΑΣ /4Τ͵ΥΑΝ /5.Ι. /6</t>
-  </si>
-  <si>
-    <t>1  /2Φ̣ΩΤΙΩ /3.ΠΙΣΚΟΠΩ /4Τ̣ΡΠΕ /5ΟΥ</t>
-  </si>
-  <si>
-    <t>Μ̅Ρ Θ̅Υ – 1 .ΣΚΕΠΟ̣ΙΣΜ /2ΤΙΚ.Ο̣ΙΜ /3.ΥΠΑΡΘ̣ΕΝΕΕ /4Λ̣ΕΟΥΣΔΙΠΟΙ /5ΜΕΝΑΙΑ /6ΝΝΗΝ</t>
-  </si>
-  <si>
-    <t>1[] /2.Κ̣… /3.ΔΡΙΑΟ. /4ΤΟΔΑΛΑ /5ΣΙΟ /6[]</t>
-  </si>
-  <si>
-    <t>̅ Θ̅Υ – 1̣ΣΦ̣ΡΑ /2ΓΙΣΓΡΑΦΑΣ /3ΠΙΣΤΟΥΣΑ /4ΤΟΥΚΑΝΝΑ /5Ο.Ι</t>
-  </si>
-  <si>
-    <t>1mav /2Ṛici.</t>
-  </si>
-  <si>
-    <t>a |ΚΛ|Η - b Μ|Ε.|Τ –  1ΩΤ /2ΡΤΗ /3БΟΡ</t>
-  </si>
-  <si>
-    <t>a Ο|Α|ΓΙ|ΟΣ - b Ε|Υ|ΣΤ|ΡΑ̣|Τ̣ –  1 /2ΣΟΕ /3ΣΤΡΑΤΙΕ̣ /4ΙΧΑΗΛ̣ /5ΔΟΥΛΟ̣ /6Σ̣ΚΕΠΟ.</t>
-  </si>
-  <si>
-    <t>1ΚΕ̅ /2.Ο̣ΗΘΕΙ /3Τ̣Σ – 1 /2Δ̣Λ /3.ΛΕΥΘΕ /4ΡΙ</t>
+    <t xml:space="preserve">Μή(τη)ρ Θ(εο)ῦ –  1 Θεοφύ- /2 λακτον /3 Πολίτην /4 [Ἁ]γνή σκέ- /5 [π]οι[ς]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Μή(τη)ρ] Θ[(εο)ῦ] –  1 Στε- /2 [φ]αν(...) [.]α /3 [.]τας</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[.]σ – (Μαυριανοῦ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDITION DIPLOMATIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1..μνηνο. /2.ΔΡΟΝΙΚΟΣ /3..υδοκιας /4..ρΦΥΡΟΦΥς /5.ΦυιςριΖΗΣ /6.ΛΑΔΟΣΑΝΕΨΙ /7..ΕΜΑΝΗΛ /8..ΣΙΛΕΟΣ – 1..ΟΣRΑΤ /2ΤΖΔΕΣΠ. /3ΤΘΕΟΔΩΡ /4ΕΜΕΠΡΟΙΣΤ. /5ΚΕΛΟΓΩΝ /6ΚΑΙΠΡΑΓ /7ΜΑΤΩΝ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1̅ΘΥ̅ – 1ΕΚ̣ΣΟ̣Υ̣ /2ΜΟΑΧΟΣΑ̣Ρ̣ /3ΣΕΝΙΟΣΤΑ̣Μ̣ /4ΠΛ̣ΑΚΠ̣.. /5ΓΕΚΥ̣ΡΟΙΚ̣Α̣Ι /6ΓΡΑΦΑ̣ΣΚΑΙΠ /7ΡΑΚΤ̣ΕΑ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1̣Ε /2.ΟΗΘΙ /3.Σ /4Λ, /5 – 1 ̣ΟΣΜ /2.ΙΣΟ /3̣̣ /4ΣΗΣ /5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ΕΗΘΕΙΤΣΟΥΛ   – 1 /2̣Ι̅ /3̣ΛΗΣ, /4.ΝΟΤΑ̣ /5ΡΙΟ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ΘΕ.Ο̣Ε̣ΟΗΘΕΙ – 1ΘΕΟΥ /2.ΑΤ,ΑΡ̣ /3ΧΙΕΠΙΣΟ̣ /4Π,ΝΣΤΑΝ /5Τ,ΠΟΛ,ΕΑ⸊ /6ΜΗΣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1̅ Θ̅Υ – 1 /2ΤΗΣ /3ΛΑΥΑΣ /4Τ͵ΥΑΝ /5.Ι. /6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1  /2Φ̣ΩΤΙΩ /3.ΠΙΣΚΟΠΩ /4Τ̣ΡΠΕ /5ΟΥ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μ̅Ρ Θ̅Υ – 1 .ΣΚΕΠΟ̣ΙΣΜ /2ΤΙΚ.Ο̣ΙΜ /3.ΥΠΑΡΘ̣ΕΝΕΕ /4Λ̣ΕΟΥΣΔΙΠΟΙ /5ΜΕΝΑΙΑ /6ΝΝΗΝ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1[] /2.Κ̣… /3.ΔΡΙΑΟ. /4ΤΟΔΑΛΑ /5ΣΙΟ /6[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">̅ Θ̅Υ – 1̣ΣΦ̣ΡΑ /2ΓΙΣΓΡΑΦΑΣ /3ΠΙΣΤΟΥΣΑ /4ΤΟΥΚΑΝΝΑ /5Ο.Ι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1mav /2Ṛici.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a |ΚΛ|Η - b Μ|Ε.|Τ –  1ΩΤ /2ΡΤΗ /3БΟΡ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a Ο|Α|ΓΙ|ΟΣ - b Ε|Υ|ΣΤ|ΡΑ̣|Τ̣ –  1 /2ΣΟΕ /3ΣΤΡΑΤΙΕ̣ /4ΙΧΑΗΛ̣ /5ΔΟΥΛΟ̣ /6Σ̣ΚΕΠΟ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ΚΕ̅ /2.Ο̣ΗΘΕΙ /3Τ̣Σ – 1 /2Δ̣Λ /3.ΛΕΥΘΕ /4ΡΙ</t>
   </si>
   <si>
     <t xml:space="preserve"> – Μ - Η - Ν - </t>
@@ -2081,6 +2076,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Athena Ruby"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">̅ Θ̅Υ </t>
@@ -2093,13 +2089,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>–</t>
+      <t xml:space="preserve">–</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Athena Ruby"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 1  /2ΘΕΟΦΥ /3ΛΑΚΤΟ /4ΠΟΛΙΤΗ /5.ΓΣΚΕ /6.ΟΙ.</t>
@@ -2111,6 +2108,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Athena Ruby"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.. Θ. </t>
@@ -2130,70 +2128,71 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Athena Ruby"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>1 /2̣ΣΤΕ /3.Α͂, .̄ Α̣ /4.Τ̣Α̣Σ /5</t>
+      <t xml:space="preserve">1 /2̣ΣΤΕ /3.Α͂, .̄ Α̣ /4.Τ̣Α̣Σ /5</t>
     </r>
   </si>
   <si>
-    <t>. - Σ – Μ -  - Υ – Ρ – Ι – Α – Ν – Ο – Υ</t>
-  </si>
-  <si>
-    <t>APPARATUS</t>
-  </si>
-  <si>
-    <t>L. 2: reverse N and A in ligature</t>
-  </si>
-  <si>
-    <t>L. 6: Κέα(ς)</t>
-  </si>
-  <si>
-    <t>КРИТИЧЕН АПАРАТ</t>
-  </si>
-  <si>
-    <t>LEGEND</t>
-  </si>
-  <si>
-    <t>Κομνηνὸς Ἀνδρόνικος ἐξ Εὐδοκίας πορφυροφυοῦς ἐκ φυεὶς ῥίζης κλἀδος ἀνεψιὸς δἐ Μανουὴλ βασιλέως – υἱὸς Βατάτζου δεσπότου Θεοδώρου ἐμὲ προΐστη καὶ λόγων καὶ πραγμάτων</t>
-  </si>
-  <si>
-    <t>Μήτηρ Θεοῦ. Ἐκ σοῦ μοναχὸς Ἀρσένιος Τζαμπλάκων Πάναγνε κυροῖ καὶ γραφὰς και πρακτέα</t>
-  </si>
-  <si>
-    <t>Κύριε βοήθει τῷ σῷ δούλῳ Κοσμᾷ ἐπισκόπῳ Προύσης</t>
-  </si>
-  <si>
-    <t>Κύριε βοήθει τῷ σῷ δούλῳ Ἰωάννῃ κουβουκλεισίῳ καὶ νοταρίῳ</t>
-  </si>
-  <si>
-    <t>Θεοτόκε βοήθει Θεοφυλάκτῳ ἀρχιεπισκόπῳ Κωνσταντινουπόλεως Νέας Ῥώμης</t>
-  </si>
-  <si>
-    <t>Μήτηρ Θεοῦ. Τῆς λαύρας τοῦ κυρίου Ἀντωνίου</t>
-  </si>
-  <si>
-    <t>Θεοτόκε βοήθει Φωτεινῷ ἐπισκόπῳ Τραπεζοῦντος</t>
-  </si>
-  <si>
-    <t>Μήτηρ Θεοῦ. Σκέποις μυστικοῦ ποιμνίου σὺ Παρθένε Βελεβουσδίου ποιμένα Ἰωάννην</t>
-  </si>
-  <si>
-    <t>Θεοτόκε βοήθει Ἀδριανὸν τὸν Δαλασσηνόν</t>
-  </si>
-  <si>
-    <t>Μήτηρ Θεοῦ. Σφραγὶς γραφὰς πιστοῦσα τοῦ Κανναβούτζη</t>
-  </si>
-  <si>
-    <t>Mauricii</t>
-  </si>
-  <si>
-    <t>Ὁ ἅγιος Κλημέντιος. Wт Ратибора</t>
-  </si>
-  <si>
-    <t>῾Ο ἅγιος Εὐστράτιος. Σόν, Εὐστράτιε, Μιχαὴλ δοῦλον σκέποις</t>
-  </si>
-  <si>
-    <t>Κύριε βοήθει τῷ σῷ δούλῳ Ἐλευθερίῳ</t>
+    <t xml:space="preserve">. - Σ – Μ -  - Υ – Ρ – Ι – Α – Ν – Ο – Υ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPARATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L. 2: reverse N and A in ligature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L. 6: Κέα(ς)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРИТИЧЕН АПАРАТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEGEND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κομνηνὸς Ἀνδρόνικος ἐξ Εὐδοκίας πορφυροφυοῦς ἐκ φυεὶς ῥίζης κλἀδος ἀνεψιὸς δἐ Μανουὴλ βασιλέως – υἱὸς Βατάτζου δεσπότου Θεοδώρου ἐμὲ προΐστη καὶ λόγων καὶ πραγμάτων</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μήτηρ Θεοῦ. Ἐκ σοῦ μοναχὸς Ἀρσένιος Τζαμπλάκων Πάναγνε κυροῖ καὶ γραφὰς και πρακτέα</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κύριε βοήθει τῷ σῷ δούλῳ Κοσμᾷ ἐπισκόπῳ Προύσης</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κύριε βοήθει τῷ σῷ δούλῳ Ἰωάννῃ κουβουκλεισίῳ καὶ νοταρίῳ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Θεοτόκε βοήθει Θεοφυλάκτῳ ἀρχιεπισκόπῳ Κωνσταντινουπόλεως Νέας Ῥώμης</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μήτηρ Θεοῦ. Τῆς λαύρας τοῦ κυρίου Ἀντωνίου</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Θεοτόκε βοήθει Φωτεινῷ ἐπισκόπῳ Τραπεζοῦντος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μήτηρ Θεοῦ. Σκέποις μυστικοῦ ποιμνίου σὺ Παρθένε Βελεβουσδίου ποιμένα Ἰωάννην</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Θεοτόκε βοήθει Ἀδριανὸν τὸν Δαλασσηνόν</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μήτηρ Θεοῦ. Σφραγὶς γραφὰς πιστοῦσα τοῦ Κανναβούτζη</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauricii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ὁ ἅγιος Κλημέντιος. Wт Ратибора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">῾Ο ἅγιος Εὐστράτιος. Σόν, Εὐστράτιε, Μιχαὴλ δοῦλον σκέποις</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κύριε βοήθει τῷ σῷ δούλῳ Ἐλευθερίῳ</t>
   </si>
   <si>
     <r>
@@ -2204,7 +2203,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>Μην</t>
+      <t xml:space="preserve">Μην</t>
     </r>
     <r>
       <rPr>
@@ -2214,135 +2213,152 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ᾶ</t>
+      <t xml:space="preserve">ᾶ</t>
     </r>
   </si>
   <si>
-    <t>Μήτηρ Θεοῦ. Θεοφύλακτον Πολίτην Ἁγνή σκέποις</t>
-  </si>
-  <si>
-    <t>Μήτηρ Θεοῦ. Στέφανος […]</t>
-  </si>
-  <si>
-    <t>[…] Μαυριανοῦ</t>
-  </si>
-  <si>
-    <t>TRANSLATION</t>
-  </si>
-  <si>
-    <t>Andronikos Komnenos, distinguished by his birth and origin from Eudokia born in the purple, nephew of the emperor Manuel, son of the despotes Theodore Vatatzes, has set me over his words and acts</t>
-  </si>
-  <si>
-    <t>(It is) Through you, All-holy One, (that) Arsenios Tzamplakon the monk authenticates his scripts and acts</t>
-  </si>
-  <si>
-    <t>Lord, aid your servant Kosmas, bishop of Prousa</t>
-  </si>
-  <si>
-    <t>Lord, aid your servant Ioannes, kouboukleisios and notarios</t>
-  </si>
-  <si>
-    <t>Mother of God, aid Theophylaktos, archbishop of Constantinople, the New Rome</t>
-  </si>
-  <si>
-    <t>Mother of God. (The seal of) The Laura of kyr Antonios</t>
-  </si>
-  <si>
-    <t>Mother of God, aid Photeinos, bishop of Trapezous</t>
-  </si>
-  <si>
-    <t>Mother of God. Virgin [...] may you protect Ioannes bishop of Velebousdion</t>
-  </si>
-  <si>
-    <t>Mother of God, aid Adrianos Dalassenos</t>
-  </si>
-  <si>
-    <t>Mother of God. Seal authenticating the writings of Kanaboutzes</t>
-  </si>
-  <si>
-    <t>(Seal of) Mauricius</t>
-  </si>
-  <si>
-    <t>From Ratibor</t>
+    <t xml:space="preserve">Μήτηρ Θεοῦ. Θεοφύλακτον Πολίτην Ἁγνή σκέποις</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μήτηρ Θεοῦ. Στέφανος […]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[…] Μαυριανοῦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSLATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andronikos Komnenos, distinguished by his birth and origin from Eudokia born in the purple, nephew of the emperor Manuel, son of the despotes Theodore Vatatzes, has set me over his words and acts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(It is) Through you, All-holy One, (that) Arsenios Tzamplakon the monk authenticates his scripts and acts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lord, aid your servant Kosmas, bishop of Prousa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lord, aid your servant Ioannes, kouboukleisios and notarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of God, aid Theophylaktos, archbishop of Constantinople, the New Rome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of God. (The seal of) The Laura of kyr Antonios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of God, aid Photeinos, bishop of Trapezous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of God. Virgin [...] may you protect Ioannes bishop of Velebousdion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of God, aid Adrianos Dalassenos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of God. Seal authenticating the writings of Kanaboutzes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Seal of) Mauricius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Ratibor</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Eustratios. Eustratios, may you protect your servant Michael </t>
   </si>
   <si>
-    <t>Lord, aid your servant Eleutherios</t>
-  </si>
-  <si>
-    <t>(Seal of) Menas</t>
-  </si>
-  <si>
-    <t>Mother of God. Pure one, may you protect Theophylaktos Polites</t>
-  </si>
-  <si>
-    <t>Mother of God. Stephanos […]</t>
-  </si>
-  <si>
-    <t>[…] (Seal of) Maurianos</t>
-  </si>
-  <si>
-    <t>ПРЕВОД НА НАДПИСИТЕ</t>
-  </si>
-  <si>
-    <t>Богородица. (Печат на) Лаврата на господина Антоний</t>
-  </si>
-  <si>
-    <t>(Печат на) Маврикий</t>
-  </si>
-  <si>
-    <t>От Ратибор</t>
-  </si>
-  <si>
-    <t>(Печат на) Мина</t>
-  </si>
-  <si>
-    <t>Богородица. Стефан […]</t>
-  </si>
-  <si>
-    <t>[…] (Печат на) Мавриан</t>
-  </si>
-  <si>
-    <t>COMMENTARY ON TEXT</t>
-  </si>
-  <si>
-    <t>The name could be reconstructed either in Nominative - Στέ[φ]αν(ος), or in Genitive - Στε[φ]άν(ου), or in Dative – Στε[φ]άν(ῳ). The Nominative seems more plausible, if one accepts that the following word is a family name ending in sigma, which, however, is not certain at all.</t>
+    <t xml:space="preserve">Lord, aid your servant Eleutherios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Seal of) Menas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of God. Pure one, may you protect Theophylaktos Polites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of God. Stephanos […]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[…] (Seal of) Maurianos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРЕВОД НА НАДПИСИТЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богородица. (Печат на) Лаврата на господина Антоний</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Печат на) Маврикий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">От Ратибор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Печат на) Мина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богородица. Стефан […]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[…] (Печат на) Мавриан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENTARY ON TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name could be reconstructed either in Nominative - Στέ[φ]αν(ος), or in Genitive - Στε[φ]άν(ου), or in Dative – Στε[φ]άν(ῳ). The Nominative seems more plausible, if one accepts that the following word is a family name ending in sigma, which, however, is not certain at all.</t>
   </si>
   <si>
     <t xml:space="preserve">The block monogram contains several certain and a few uncertain letters. Not all of them are necessarily used to give the key word. From left to right: V, P (reverse), Ι, N (reverse), A, M, Λ, Ο. Excluding the Λ, the remaining letters form the name MAVPIANOV. The reverse N is attested, albeit rarely, in block monograms of the early period (e.g. Zacos, 1, plate 241, no. 438 and plate 245, no. 234A).  </t>
   </si>
   <si>
-    <t>КОМЕНТАР НА НАДПИСИТЕ</t>
-  </si>
-  <si>
-    <t>FOOTNOTES</t>
-  </si>
-  <si>
-    <t>БЕЛЕЖКИ ПОД ЛИНИЯ</t>
-  </si>
-  <si>
-    <t>BIBLIOGRAPHY</t>
-  </si>
-  <si>
-    <t>БИБЛИОГРАФИЯ</t>
+    <t xml:space="preserve">КОМЕНТАР НА НАДПИСИТЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOTNOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЕЖКИ ПОД ЛИНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIBLIOGRAPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БИБЛИОГРАФИЯ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2375,17 +2391,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Athena Ruby"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Athena Ruby"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2411,103 +2430,140 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+  <cellXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2566,362 +2622,54 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" style="5"/>
-    <col min="20" max="20" width="13.140625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" style="6" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="15" style="6" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="21.7109375" style="6" customWidth="1"/>
-    <col min="27" max="1024" width="8.5703125" style="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="16.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="5" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="30.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="5" width="16.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="5" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="6" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="6" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="6" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="6" width="21.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="7" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="51.75">
+    <row r="1" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +2749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="77.25">
+    <row r="2" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3081,7 +2829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -3161,7 +2909,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -3241,7 +2989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -3321,7 +3069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="25.5">
+    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -3401,7 +3149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -3481,7 +3229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -3561,7 +3309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="25.5">
+    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -3641,7 +3389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="25.5">
+    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
@@ -3721,7 +3469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="38.25">
+    <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -3801,12 +3549,87 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="25.5">
+      <c r="B12" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>278</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>251</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>245</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>135</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>132</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>317</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>131</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>312</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>181</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>238</v>
+      </c>
+      <c r="T12" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="X12" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="6" t="n">
+        <v>243</v>
+      </c>
+      <c r="Z12" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -3864,29 +3687,29 @@
       <c r="S13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="10" t="n">
         <v>45119</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="10" t="n">
         <v>45147</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V13" s="10" t="n">
         <v>45147</v>
       </c>
-      <c r="W13" s="10">
+      <c r="W13" s="10" t="n">
         <v>45147</v>
       </c>
-      <c r="X13" s="10">
+      <c r="X13" s="10" t="n">
         <v>45147</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y13" s="10" t="n">
         <v>45147</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Z13" s="10" t="n">
         <v>45147</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
@@ -3966,7 +3789,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -4046,7 +3869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="51">
+    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
@@ -4126,7 +3949,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="51">
+    <row r="17" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>117</v>
       </c>
@@ -4206,17 +4029,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="38.25">
+    <row r="20" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
@@ -4296,7 +4119,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="51">
+    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
@@ -4376,7 +4199,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>129</v>
       </c>
@@ -4456,7 +4279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -4536,71 +4359,71 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="11" t="n">
         <v>33</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="5" t="n">
         <v>28.5</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="5" t="n">
         <v>24.5</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="5" t="n">
         <v>19.5</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="5" t="n">
         <v>15</v>
       </c>
       <c r="T24" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="13" t="n">
         <v>31</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="13" t="n">
         <v>32</v>
       </c>
       <c r="W24" s="13" t="s">
@@ -4616,62 +4439,62 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="11" t="n">
         <v>23.73</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="11" t="n">
         <v>22.82</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="12" t="n">
         <v>6.36</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="5" t="n">
         <v>10.99</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="5" t="n">
         <v>10.67</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="5" t="n">
         <v>7.75</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="5" t="n">
         <v>15.28</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="5" t="n">
         <v>15.3</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="5" t="n">
         <v>6.17</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="5" t="n">
         <v>24.76</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="5" t="n">
         <v>4.51</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="5" t="n">
         <v>10.97</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="5" t="n">
         <v>5.58</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="5" t="n">
         <v>4.7</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="5" t="n">
         <v>15.97</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="5" t="n">
         <v>20.12</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="5" t="n">
         <v>7.06</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="5" t="n">
         <v>4.25</v>
       </c>
       <c r="T25" s="13" t="s">
@@ -4696,37 +4519,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
@@ -4806,7 +4629,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>156</v>
       </c>
@@ -4886,27 +4709,27 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>162</v>
       </c>
@@ -4986,7 +4809,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -5066,7 +4889,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="153.75">
+    <row r="40" customFormat="false" ht="153.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
         <v>166</v>
       </c>
@@ -5092,7 +4915,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="153.75">
+    <row r="41" customFormat="false" ht="153.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
@@ -5118,167 +4941,167 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="11" t="n">
         <v>1133</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="11" t="n">
         <v>1301</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="12" t="n">
         <v>1001</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="12" t="n">
         <v>976</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="5" t="n">
         <v>933</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="5" t="n">
         <v>1026</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="5" t="n">
         <v>776</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="5" t="n">
         <v>1151</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="5" t="n">
         <v>1076</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="5" t="n">
         <v>1076</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="5" t="n">
         <v>551</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="5" t="n">
         <v>1076</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="5" t="n">
         <v>1076</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="5" t="n">
         <v>1051</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="5" t="n">
         <v>551</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="Q42" s="5" t="n">
         <v>1076</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42" s="5" t="n">
         <v>1101</v>
       </c>
-      <c r="S42" s="5">
+      <c r="S42" s="5" t="n">
         <v>501</v>
       </c>
-      <c r="T42" s="15">
+      <c r="T42" s="15" t="n">
         <v>1176</v>
       </c>
-      <c r="U42" s="16">
+      <c r="U42" s="16" t="n">
         <v>1176</v>
       </c>
-      <c r="V42" s="16">
+      <c r="V42" s="16" t="n">
         <v>1176</v>
       </c>
-      <c r="W42" s="16">
+      <c r="W42" s="16" t="n">
         <v>1101</v>
       </c>
-      <c r="X42" s="16">
+      <c r="X42" s="16" t="n">
         <v>1101</v>
       </c>
-      <c r="Y42" s="16">
+      <c r="Y42" s="16" t="n">
         <v>1051</v>
       </c>
-      <c r="Z42" s="16">
+      <c r="Z42" s="16" t="n">
         <v>701</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="11" t="n">
         <v>1176</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="11" t="n">
         <v>1350</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="12" t="n">
         <v>1050</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="12" t="n">
         <v>1025</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="5" t="n">
         <v>956</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="5" t="n">
         <v>1075</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="5" t="n">
         <v>800</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="5" t="n">
         <v>1125</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="5" t="n">
         <v>1150</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="5" t="n">
         <v>650</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="5" t="n">
         <v>1125</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43" s="5" t="n">
         <v>700</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q43" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43" s="5" t="n">
         <v>600</v>
       </c>
-      <c r="T43" s="15">
+      <c r="T43" s="15" t="n">
         <v>1225</v>
       </c>
-      <c r="U43" s="16">
+      <c r="U43" s="16" t="n">
         <v>1225</v>
       </c>
-      <c r="V43" s="16">
+      <c r="V43" s="16" t="n">
         <v>1225</v>
       </c>
-      <c r="W43" s="16">
+      <c r="W43" s="16" t="n">
         <v>1125</v>
       </c>
-      <c r="X43" s="16">
+      <c r="X43" s="16" t="n">
         <v>1125</v>
       </c>
-      <c r="Y43" s="16">
+      <c r="Y43" s="16" t="n">
         <v>1100</v>
       </c>
-      <c r="Z43" s="16">
+      <c r="Z43" s="16" t="n">
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="51">
+    <row r="44" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>180</v>
       </c>
@@ -5358,7 +5181,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="51">
+    <row r="45" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
@@ -5438,7 +5261,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>194</v>
       </c>
@@ -5518,7 +5341,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>198</v>
       </c>
@@ -5598,7 +5421,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>202</v>
       </c>
@@ -5678,12 +5501,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>224</v>
       </c>
@@ -5691,7 +5514,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>225</v>
       </c>
@@ -5699,17 +5522,17 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="25.5">
+    <row r="54" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>228</v>
       </c>
@@ -5789,7 +5612,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="25.5">
+    <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>234</v>
       </c>
@@ -5869,7 +5692,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="26.25">
+    <row r="56" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>239</v>
       </c>
@@ -5949,7 +5772,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="38.25">
+    <row r="57" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>262</v>
       </c>
@@ -6029,7 +5852,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>284</v>
       </c>
@@ -6109,7 +5932,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="51">
+    <row r="59" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="s">
         <v>291</v>
       </c>
@@ -6189,17 +6012,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="25.5">
+    <row r="62" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>300</v>
       </c>
@@ -6225,7 +6048,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>305</v>
       </c>
@@ -6251,7 +6074,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="39">
+    <row r="64" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>310</v>
       </c>
@@ -6304,7 +6127,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="39">
+    <row r="65" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>320</v>
       </c>
@@ -6357,7 +6180,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="26.25">
+    <row r="66" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>330</v>
       </c>
@@ -6404,13 +6227,13 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="25.5">
+    <row r="67" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="s">
         <v>342</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="5">
+      <c r="D67" s="5" t="n">
         <v>2005</v>
       </c>
       <c r="G67" s="4" t="s">
@@ -6419,25 +6242,25 @@
       <c r="I67" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="5" t="n">
         <v>1912</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67" s="5" t="n">
         <v>1912</v>
       </c>
-      <c r="T67" s="16">
+      <c r="T67" s="16" t="n">
         <v>1951</v>
       </c>
-      <c r="U67" s="16">
+      <c r="U67" s="16" t="n">
         <v>1964</v>
       </c>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
       <c r="Y67" s="15"/>
-      <c r="Z67" s="17"/>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="Z67" s="15"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>345</v>
       </c>
@@ -6451,7 +6274,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>347</v>
       </c>
@@ -6465,7 +6288,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>349</v>
       </c>
@@ -6545,7 +6368,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>351</v>
       </c>
@@ -6625,7 +6448,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>353</v>
       </c>
@@ -6705,7 +6528,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>355</v>
       </c>
@@ -6785,7 +6608,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="140.25">
+    <row r="74" customFormat="false" ht="140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
         <v>357</v>
       </c>
@@ -6865,7 +6688,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="153">
+    <row r="75" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="s">
         <v>359</v>
       </c>
@@ -6945,7 +6768,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="s">
         <v>361</v>
       </c>
@@ -6969,7 +6792,7 @@
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
     </row>
-    <row r="77" spans="1:26" ht="38.25">
+    <row r="77" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="s">
         <v>363</v>
       </c>
@@ -7049,97 +6872,97 @@
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="11" t="n">
         <v>182</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="11" t="n">
         <v>183</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="12" t="n">
         <v>278</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="5" t="n">
         <v>251</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="5" t="n">
         <v>245</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="5" t="n">
         <v>90</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I80" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J80" s="5" t="n">
         <v>132</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80" s="5" t="n">
         <v>133</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="5" t="n">
         <v>317</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="5" t="n">
         <v>91</v>
       </c>
-      <c r="N80" s="5">
+      <c r="N80" s="5" t="n">
         <v>131</v>
       </c>
-      <c r="O80" s="5">
+      <c r="O80" s="5" t="n">
         <v>312</v>
       </c>
-      <c r="P80" s="5">
+      <c r="P80" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="Q80" s="5">
+      <c r="Q80" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="R80" s="5">
+      <c r="R80" s="5" t="n">
         <v>181</v>
       </c>
-      <c r="S80" s="5">
+      <c r="S80" s="5" t="n">
         <v>238</v>
       </c>
-      <c r="T80" s="16">
+      <c r="T80" s="16" t="n">
         <v>127</v>
       </c>
-      <c r="U80" s="16">
+      <c r="U80" s="16" t="n">
         <v>144</v>
       </c>
-      <c r="V80" s="16">
+      <c r="V80" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="W80" s="16">
+      <c r="W80" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="X80" s="16">
+      <c r="X80" s="16" t="n">
         <v>54</v>
       </c>
-      <c r="Y80" s="16">
+      <c r="Y80" s="16" t="n">
         <v>243</v>
       </c>
-      <c r="Z80" s="16">
+      <c r="Z80" s="16" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="102">
+    <row r="81" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>369</v>
       </c>
@@ -7180,7 +7003,7 @@
       </c>
       <c r="Z81" s="8"/>
     </row>
-    <row r="82" spans="1:26" ht="89.25">
+    <row r="82" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>379</v>
       </c>
@@ -7218,11 +7041,10 @@
       </c>
       <c r="Z82" s="8"/>
     </row>
-    <row r="83" spans="1:26" ht="89.25">
+    <row r="83" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F83"/>
       <c r="G83" s="4" t="s">
         <v>389</v>
       </c>
@@ -7242,7 +7064,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="89.25">
+    <row r="84" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>395</v>
       </c>
@@ -7266,7 +7088,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="357">
+    <row r="85" customFormat="false" ht="357" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>402</v>
       </c>
@@ -7301,7 +7123,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="114.75">
+    <row r="86" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>413</v>
       </c>
@@ -7320,7 +7142,7 @@
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
     </row>
-    <row r="87" spans="1:26" ht="26.25">
+    <row r="87" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>417</v>
       </c>
@@ -7400,7 +7222,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="38.25">
+    <row r="88" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>425</v>
       </c>
@@ -7480,79 +7302,79 @@
         <v>431</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="5" t="n">
         <v>18.5</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="5" t="n">
         <v>18.5</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89" s="5" t="n">
         <v>22.5</v>
       </c>
-      <c r="N89" s="5">
+      <c r="N89" s="5" t="n">
         <v>17.5</v>
       </c>
-      <c r="O89" s="5">
+      <c r="O89" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="P89" s="5">
+      <c r="P89" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="Q89" s="5">
+      <c r="Q89" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="R89" s="5">
+      <c r="R89" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="S89" s="5">
+      <c r="S89" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="T89" s="16">
+      <c r="T89" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="U89" s="16">
+      <c r="U89" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="V89" s="16">
+      <c r="V89" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="W89" s="16">
+      <c r="W89" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="X89" s="16">
+      <c r="X89" s="16" t="n">
         <v>25.5</v>
       </c>
-      <c r="Y89" s="16">
+      <c r="Y89" s="16" t="n">
         <v>12.2</v>
       </c>
-      <c r="Z89" s="16">
+      <c r="Z89" s="16" t="n">
         <v>19.5</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="153">
+    <row r="92" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>435</v>
       </c>
@@ -7617,7 +7439,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="141">
+    <row r="93" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>452</v>
       </c>
@@ -7664,17 +7486,17 @@
         <v>429</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="38.25">
+    <row r="96" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>466</v>
       </c>
@@ -7754,7 +7576,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="38.25">
+    <row r="97" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>472</v>
       </c>
@@ -7834,93 +7656,93 @@
         <v>430</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="5" t="n">
         <v>18.5</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="N98" s="5">
+      <c r="N98" s="5" t="n">
         <v>17.5</v>
       </c>
-      <c r="O98" s="5">
+      <c r="O98" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="P98" s="5">
+      <c r="P98" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="Q98" s="5">
+      <c r="Q98" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="R98" s="5">
+      <c r="R98" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="S98" s="5">
+      <c r="S98" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="T98" s="16">
+      <c r="T98" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="U98" s="16">
+      <c r="U98" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="V98" s="16">
+      <c r="V98" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="W98" s="16">
+      <c r="W98" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="X98" s="16">
+      <c r="X98" s="16" t="n">
         <v>25.5</v>
       </c>
-      <c r="Y98" s="16">
+      <c r="Y98" s="16" t="n">
         <v>12.2</v>
       </c>
-      <c r="Z98" s="16">
+      <c r="Z98" s="16" t="n">
         <v>19.5</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="38.25">
+    <row r="105" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>486</v>
       </c>
@@ -8000,7 +7822,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="38.25">
+    <row r="106" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>490</v>
       </c>
@@ -8080,7 +7902,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="38.25">
+    <row r="107" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>494</v>
       </c>
@@ -8160,7 +7982,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="51.75">
+    <row r="108" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>520</v>
       </c>
@@ -8240,7 +8062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="38.25">
+    <row r="109" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>522</v>
       </c>
@@ -8320,7 +8142,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="51.75">
+    <row r="110" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>548</v>
       </c>
@@ -8400,7 +8222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="204">
+    <row r="111" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>549</v>
       </c>
@@ -8480,7 +8302,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="204">
+    <row r="112" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="14" t="s">
         <v>575</v>
       </c>
@@ -8560,7 +8382,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="113" spans="1:26" ht="409.5">
+    <row r="113" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>578</v>
       </c>
@@ -8595,12 +8417,12 @@
         <v>588</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="115" spans="1:26" ht="267.75">
+    <row r="115" customFormat="false" ht="267.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>590</v>
       </c>
@@ -8635,7 +8457,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="116" spans="1:26" ht="267.75">
+    <row r="116" customFormat="false" ht="267.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>600</v>
       </c>
@@ -8670,7 +8492,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="117" spans="1:26" ht="409.5">
+    <row r="117" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>603</v>
       </c>
@@ -8694,7 +8516,7 @@
       <c r="Y117" s="15"/>
       <c r="Z117" s="15"/>
     </row>
-    <row r="118" spans="1:26" ht="38.25">
+    <row r="118" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>609</v>
       </c>
@@ -8708,7 +8530,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="119" spans="1:26" ht="153">
+    <row r="119" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>612</v>
       </c>
@@ -8751,7 +8573,7 @@
       <c r="N119" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="O119" s="18" t="s">
+      <c r="O119" s="17" t="s">
         <v>626</v>
       </c>
       <c r="P119" s="5" t="s">
@@ -8767,41 +8589,41 @@
         <v>630</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="178.5">
+    <row r="120" customFormat="false" ht="178.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B120" s="19" t="s">
+      <c r="B120" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="D120" s="20" t="s">
+      <c r="D120" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E120" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F120" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="G120" s="21" t="s">
+      <c r="G120" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="H120" s="20" t="s">
+      <c r="H120" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="I120" s="20" t="s">
+      <c r="I120" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="J120" s="20" t="s">
+      <c r="J120" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="K120" s="20" t="s">
+      <c r="K120" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="L120" s="20" t="s">
+      <c r="L120" s="19" t="s">
         <v>642</v>
       </c>
       <c r="M120" s="5" t="s">
@@ -8810,23 +8632,23 @@
       <c r="N120" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="O120" s="20" t="s">
+      <c r="O120" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="P120" s="20" t="s">
+      <c r="P120" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="Q120" s="20" t="s">
+      <c r="Q120" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="R120" s="20" t="s">
+      <c r="R120" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="S120" s="20" t="s">
+      <c r="S120" s="19" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="121" spans="1:26" ht="25.5">
+    <row r="121" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>650</v>
       </c>
@@ -8837,7 +8659,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>653</v>
       </c>
@@ -8845,7 +8667,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="123" spans="1:26" ht="114.75">
+    <row r="123" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>654</v>
       </c>
@@ -8904,7 +8726,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="124" spans="1:26" ht="127.5">
+    <row r="124" customFormat="false" ht="127.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>673</v>
       </c>
@@ -8963,7 +8785,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" spans="1:26" ht="63.75">
+    <row r="125" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>692</v>
       </c>
@@ -8986,7 +8808,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="126" spans="1:26" ht="409.5">
+    <row r="126" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>699</v>
       </c>
@@ -8997,33 +8819,38 @@
         <v>701</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>706</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/ExcelToXMLConverter/resources/seals.xlsx
+++ b/ExcelToXMLConverter/resources/seals.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="709">
   <si>
     <t xml:space="preserve">TITLE</t>
   </si>
@@ -1037,6 +1037,9 @@
     <t xml:space="preserve">42.840833, 23.371111</t>
   </si>
   <si>
+    <t xml:space="preserve">42.840833, 23.371113</t>
+  </si>
+  <si>
     <t xml:space="preserve">42.5569, 27.6405</t>
   </si>
   <si>
@@ -1047,6 +1050,9 @@
   </si>
   <si>
     <t xml:space="preserve">42.546054, 22.962896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.840833, 23.371181</t>
   </si>
   <si>
     <t xml:space="preserve">FIND DATE</t>
@@ -2337,7 +2343,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2372,6 +2378,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -2470,7 +2482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2539,19 +2551,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2634,8 +2654,8 @@
   </sheetPr>
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z66" activeCellId="0" sqref="Z66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6180,7 +6200,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>330</v>
       </c>
@@ -6214,22 +6234,28 @@
       <c r="N66" s="5" t="s">
         <v>336</v>
       </c>
+      <c r="P66" s="17" t="s">
+        <v>338</v>
+      </c>
       <c r="S66" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U66" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X66" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="Z66" s="18" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -6237,10 +6263,10 @@
         <v>2005</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>1912</v>
@@ -6262,528 +6288,528 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="V70" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="W70" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="X70" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y70" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Z70" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="T71" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="U71" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W71" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="X71" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Y71" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Z71" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="T72" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="U72" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="W72" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="X72" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y72" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Z72" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="T73" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="U73" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="V73" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W73" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="X73" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Y73" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Z73" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="T74" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="U74" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="W74" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="X74" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y74" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Z74" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="T75" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="U75" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="V75" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="W75" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="X75" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Y75" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Z75" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B76" s="11"/>
       <c r="F76" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="T76" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
@@ -6794,97 +6820,97 @@
     </row>
     <row r="77" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="T77" s="15" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="U77" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="V77" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="W77" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="X77" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Y77" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Z77" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B80" s="11" t="n">
         <v>182</v>
@@ -6964,177 +6990,177 @@
     </row>
     <row r="81" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="S81" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="U81" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="V81" s="8"/>
       <c r="W81" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="X81" s="8"/>
       <c r="Y81" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Z81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="S82" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="U82" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="V82" s="8"/>
       <c r="W82" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="X82" s="8"/>
       <c r="Y82" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Z82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="U83" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="W83" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="X83" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z83" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="U84" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="W84" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="X84" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Z84" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="357" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="U85" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="U86" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
@@ -7144,28 +7170,28 @@
     </row>
     <row r="87" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>183</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>183</v>
@@ -7180,13 +7206,13 @@
         <v>183</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>183</v>
@@ -7201,7 +7227,7 @@
         <v>183</v>
       </c>
       <c r="T87" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="U87" s="8" t="s">
         <v>183</v>
@@ -7219,33 +7245,33 @@
         <v>183</v>
       </c>
       <c r="Z87" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>190</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>190</v>
@@ -7266,7 +7292,7 @@
         <v>119</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P88" s="5" t="s">
         <v>190</v>
@@ -7281,7 +7307,7 @@
         <v>190</v>
       </c>
       <c r="T88" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="U88" s="8" t="s">
         <v>190</v>
@@ -7299,12 +7325,12 @@
         <v>190</v>
       </c>
       <c r="Z88" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B89" s="11" t="n">
         <v>30</v>
@@ -7366,299 +7392,299 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M92" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="R92" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="N92" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="P92" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q92" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="R92" s="5" t="s">
-        <v>442</v>
-      </c>
       <c r="S92" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="U92" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="V92" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="W92" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="X92" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Y92" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Z92" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="U93" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="V93" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="W93" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="X93" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Y93" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Z93" s="8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L96" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="T96" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="U96" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="M96" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="O96" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="P96" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q96" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="R96" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="S96" s="5" t="s">
+      <c r="V96" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="W96" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="T96" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="U96" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="V96" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="W96" s="8" t="s">
-        <v>469</v>
-      </c>
       <c r="X96" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Y96" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Z96" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L97" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="P97" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q97" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="R97" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="S97" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="T97" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="U97" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="V97" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="N97" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="O97" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="P97" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q97" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="R97" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="S97" s="5" t="s">
+      <c r="W97" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="T97" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="U97" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="V97" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="W97" s="8" t="s">
-        <v>475</v>
-      </c>
       <c r="X97" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Y97" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Z97" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="14" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B98" s="11" t="n">
         <v>30</v>
@@ -7714,277 +7740,277 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M105" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="N105" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="N105" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="O105" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T105" s="8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="U105" s="8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="V105" s="8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="W105" s="8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="X105" s="8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Y105" s="8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Z105" s="8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M106" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="N106" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="N106" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="O106" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P106" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="S106" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="T106" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="U106" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="V106" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="W106" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="X106" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Y106" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Z106" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O107" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P107" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="S107" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="U107" s="6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="W107" s="6" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="X107" s="6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Y107" s="6" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Z107" s="6" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>1</v>
@@ -8041,7 +8067,7 @@
         <v>18</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="U108" s="6" t="s">
         <v>20</v>
@@ -8064,87 +8090,87 @@
     </row>
     <row r="109" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="O109" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P109" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Q109" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="S109" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="U109" s="6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="V109" s="6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="W109" s="6" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="X109" s="6" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Y109" s="6" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Z109" s="6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>1</v>
@@ -8201,7 +8227,7 @@
         <v>18</v>
       </c>
       <c r="T110" s="6" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="U110" s="6" t="s">
         <v>20</v>
@@ -8224,292 +8250,292 @@
     </row>
     <row r="111" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Q111" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="T111" s="8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="U111" s="8" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="V111" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="W111" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="X111" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Y111" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Z111" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="P112" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q112" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="R112" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="S112" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="T112" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="U112" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="V112" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="W112" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="X112" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y112" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="Z112" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="J112" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="K112" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="L112" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="N112" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="O112" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="P112" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q112" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="R112" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="S112" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="T112" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="U112" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="V112" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="W112" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="X112" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="Y112" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="Z112" s="8" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P113" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q113" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="S113" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="267.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="T115" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="U115" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="V115" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="267.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="O116" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="T116" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="U116" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="L116" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="N116" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="O116" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="T116" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="U116" s="6" t="s">
-        <v>599</v>
-      </c>
       <c r="V116" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="U117" s="6" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="V117" s="6" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="W117" s="15"/>
       <c r="X117" s="15"/>
@@ -8518,330 +8544,330 @@
     </row>
     <row r="118" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="W118" s="8"/>
       <c r="X118" s="8"/>
       <c r="Y118" s="8"/>
       <c r="Z118" s="8" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="O119" s="17" t="s">
-        <v>626</v>
+        <v>627</v>
+      </c>
+      <c r="O119" s="19" t="s">
+        <v>628</v>
       </c>
       <c r="P119" s="5" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="Q119" s="5" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="R119" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="S119" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="178.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="C120" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="D120" s="19" t="s">
+      <c r="B120" s="20" t="s">
         <v>634</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="C120" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="F120" s="20" t="s">
+      <c r="D120" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="G120" s="20" t="s">
+      <c r="E120" s="22" t="s">
         <v>637</v>
       </c>
-      <c r="H120" s="19" t="s">
+      <c r="F120" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="I120" s="19" t="s">
+      <c r="G120" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="J120" s="19" t="s">
+      <c r="H120" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="K120" s="19" t="s">
+      <c r="I120" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="L120" s="19" t="s">
+      <c r="J120" s="21" t="s">
         <v>642</v>
       </c>
+      <c r="K120" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="L120" s="21" t="s">
+        <v>644</v>
+      </c>
       <c r="M120" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="O120" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="P120" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="Q120" s="19" t="s">
+      <c r="O120" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="R120" s="19" t="s">
+      <c r="P120" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="S120" s="19" t="s">
+      <c r="Q120" s="21" t="s">
         <v>649</v>
+      </c>
+      <c r="R120" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="S120" s="21" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P123" s="5" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="Q123" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="R123" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="S123" s="5" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="127.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="P124" s="5" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="Q124" s="5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="R124" s="5" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="S124" s="5" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="P125" s="5" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="R125" s="5" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="S125" s="5" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="S126" s="5" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToXMLConverter/resources/seals.xlsx
+++ b/ExcelToXMLConverter/resources/seals.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/repos/codecrew/SigiDoc/ExcelToXMLConverter/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D3269C-D6E4-814A-BA97-831BE811A8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,1235 +27,1235 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="709">
   <si>
-    <t xml:space="preserve">TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Andronikos Komnenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Arsenios Tzamplakon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Kosmas, bishop of Prousa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Ioannes, kouboukleisios and notarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Theophylaktos, patriarch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of the Laura of kyr Antonios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Photeinos, bishop of Trapezous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Ioannes, bishop of Belebousdion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Adrianos Dalassenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Kanaboutzes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Mauricius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Ratibor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Eleutherios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Menas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Theophylaktos Polites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Stephanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Maurianos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Georgios Doukas, sebastos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Konstantinos Doukas, sebastos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Manuel Botaneiates, sebastos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Zacharias, spatharokandidatos epi tou chrysotriklinou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Sisinnios, imperial strator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАГЛАВИЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Андроник Комнин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Арсений Цамблак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Козма, епископ на Прусса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Иван, кубуклисий и нотарий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Теофилакт, патриарх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на лаврата на господина Антоний</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Фотинос, епископ на Трапезунт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Иван, епископ на Велбъжд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Адриан Даласенос</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Канавуцис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Маврикий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Ратибор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Михаил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Елевтерий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Мина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Теофилакт Политис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Стефан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Мавриан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат  на Георги Дука, севаст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат  на Константин Дука, севаст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Мануил Вотаниат, севаст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Захарий, спатарокандидат на хризотриклиниума</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат на Сисини, императорски стратор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITLE EDITOR FORENAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕДАКТОР НА ЗАГЛАВИЕТО СОБСТВЕНО ИМЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван</t>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>Seal of Andronikos Komnenos</t>
+  </si>
+  <si>
+    <t>Seal of Arsenios Tzamplakon</t>
+  </si>
+  <si>
+    <t>Seal of Kosmas, bishop of Prousa</t>
+  </si>
+  <si>
+    <t>Seal of Ioannes, kouboukleisios and notarios</t>
+  </si>
+  <si>
+    <t>Seal of Theophylaktos, patriarch</t>
+  </si>
+  <si>
+    <t>Seal of the Laura of kyr Antonios</t>
+  </si>
+  <si>
+    <t>Seal of Photeinos, bishop of Trapezous</t>
+  </si>
+  <si>
+    <t>Seal of Ioannes, bishop of Belebousdion</t>
+  </si>
+  <si>
+    <t>Seal of Adrianos Dalassenos</t>
+  </si>
+  <si>
+    <t>Seal of Kanaboutzes</t>
+  </si>
+  <si>
+    <t>Seal of Mauricius</t>
+  </si>
+  <si>
+    <t>Seal of Ratibor</t>
+  </si>
+  <si>
+    <t>Seal of Michael</t>
+  </si>
+  <si>
+    <t>Seal of Eleutherios</t>
+  </si>
+  <si>
+    <t>Seal of Menas</t>
+  </si>
+  <si>
+    <t>Seal of Theophylaktos Polites</t>
+  </si>
+  <si>
+    <t>Seal of Stephanos</t>
+  </si>
+  <si>
+    <t>Seal of Maurianos</t>
+  </si>
+  <si>
+    <t>Seal of Georgios Doukas, sebastos</t>
+  </si>
+  <si>
+    <t>Seal of Konstantinos Doukas, sebastos</t>
+  </si>
+  <si>
+    <t>Seal of Manuel Botaneiates, sebastos</t>
+  </si>
+  <si>
+    <t>Seal of Zacharias, spatharokandidatos epi tou chrysotriklinou</t>
+  </si>
+  <si>
+    <t>Seal of Sisinnios, imperial strator</t>
+  </si>
+  <si>
+    <t>ЗАГЛАВИЕ</t>
+  </si>
+  <si>
+    <t>Печат на Андроник Комнин</t>
+  </si>
+  <si>
+    <t>Печат на Арсений Цамблак</t>
+  </si>
+  <si>
+    <t>Печат на Козма, епископ на Прусса</t>
+  </si>
+  <si>
+    <t>Печат на Иван, кубуклисий и нотарий</t>
+  </si>
+  <si>
+    <t>Печат на Теофилакт, патриарх</t>
+  </si>
+  <si>
+    <t>Печат на лаврата на господина Антоний</t>
+  </si>
+  <si>
+    <t>Печат на Фотинос, епископ на Трапезунт</t>
+  </si>
+  <si>
+    <t>Печат на Иван, епископ на Велбъжд</t>
+  </si>
+  <si>
+    <t>Печат на Адриан Даласенос</t>
+  </si>
+  <si>
+    <t>Печат на Канавуцис</t>
+  </si>
+  <si>
+    <t>Печат на Маврикий</t>
+  </si>
+  <si>
+    <t>Печат на Ратибор</t>
+  </si>
+  <si>
+    <t>Печат на Михаил</t>
+  </si>
+  <si>
+    <t>Печат на Елевтерий</t>
+  </si>
+  <si>
+    <t>Печат на Мина</t>
+  </si>
+  <si>
+    <t>Печат на Теофилакт Политис</t>
+  </si>
+  <si>
+    <t>Печат на Стефан</t>
+  </si>
+  <si>
+    <t>Печат на Мавриан</t>
+  </si>
+  <si>
+    <t>Печат  на Георги Дука, севаст</t>
+  </si>
+  <si>
+    <t>Печат  на Константин Дука, севаст</t>
+  </si>
+  <si>
+    <t>Печат на Мануил Вотаниат, севаст</t>
+  </si>
+  <si>
+    <t>Печат на Захарий, спатарокандидат на хризотриклиниума</t>
+  </si>
+  <si>
+    <t>Печат на Сисини, императорски стратор</t>
+  </si>
+  <si>
+    <t>TITLE EDITOR FORENAME</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>РЕДАКТОР НА ЗАГЛАВИЕТО СОБСТВЕНО ИМЕ</t>
+  </si>
+  <si>
+    <t>Иван</t>
   </si>
   <si>
     <t xml:space="preserve">Иван </t>
   </si>
   <si>
-    <t xml:space="preserve">TITLE EDITOR SURNAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕДАКТОР НА ЗАГЛАВИЕТО ФАМИЛНО ИМЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Йорданов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDITION EDITOR FORENAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantelis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pentelis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metodi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕДАКТОР НА ЗАПИСА СОБСТВЕНО ИМЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пантелис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Методи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDITION EDITOR SURNAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charalampakis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zlatkov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕДАКТОР НА ЗАПИСА ФАМИЛНО ИМЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Харалампакис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Златков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILENAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG_Sofia_NAIM_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGIDOC ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE OF ENTRY CREATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.05.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.09.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.09.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.09.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.09.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.05.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.05.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.05.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.09.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТИП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERAL LAYOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilateral legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iconography and legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monogram and legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iconography and monogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОФОРМЛЕНИЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Надпис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иконография и надпис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монограм и надпис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иконография и монограм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATRIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАТРИЦА (ПЕЧАТ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE OF IMPRESSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original impression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОТПЕЧАТЪК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оригинален отпечатък</t>
+    <t>TITLE EDITOR SURNAME</t>
+  </si>
+  <si>
+    <t>Jordanov</t>
+  </si>
+  <si>
+    <t>РЕДАКТОР НА ЗАГЛАВИЕТО ФАМИЛНО ИМЕ</t>
+  </si>
+  <si>
+    <t>Йорданов</t>
+  </si>
+  <si>
+    <t>EDITION EDITOR FORENAME</t>
+  </si>
+  <si>
+    <t>Pantelis</t>
+  </si>
+  <si>
+    <t>Pentelis</t>
+  </si>
+  <si>
+    <t>Metodi</t>
+  </si>
+  <si>
+    <t>РЕДАКТОР НА ЗАПИСА СОБСТВЕНО ИМЕ</t>
+  </si>
+  <si>
+    <t>Пантелис</t>
+  </si>
+  <si>
+    <t>Методи</t>
+  </si>
+  <si>
+    <t>EDITION EDITOR SURNAME</t>
+  </si>
+  <si>
+    <t>Charalampakis</t>
+  </si>
+  <si>
+    <t>Zlatkov</t>
+  </si>
+  <si>
+    <t>РЕДАКТОР НА ЗАПИСА ФАМИЛНО ИМЕ</t>
+  </si>
+  <si>
+    <t>Харалампакис</t>
+  </si>
+  <si>
+    <t>Златков</t>
+  </si>
+  <si>
+    <t>FILENAME</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_182</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_183</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_278</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_251</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_245</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_90</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_135</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_86</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_132</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_133</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_317</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_91</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_131</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_312</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_29</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_49</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_181</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_238</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_127</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_144</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_42</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_39</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_54</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_243</t>
+  </si>
+  <si>
+    <t>BG_Sofia_NAIM_30</t>
+  </si>
+  <si>
+    <t>SIGIDOC ID</t>
+  </si>
+  <si>
+    <t>DATE OF ENTRY CREATION</t>
+  </si>
+  <si>
+    <t>2023.05.18</t>
+  </si>
+  <si>
+    <t>2023.09.07</t>
+  </si>
+  <si>
+    <t>2023.09.08</t>
+  </si>
+  <si>
+    <t>2023.09.05</t>
+  </si>
+  <si>
+    <t>2023.09.04</t>
+  </si>
+  <si>
+    <t>2023.05.10</t>
+  </si>
+  <si>
+    <t>2023.05.09</t>
+  </si>
+  <si>
+    <t>2023.05.07</t>
+  </si>
+  <si>
+    <t>2023.09.11</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>ТИП</t>
+  </si>
+  <si>
+    <t>Печат</t>
+  </si>
+  <si>
+    <t>GENERAL LAYOUT</t>
+  </si>
+  <si>
+    <t>Bilateral legend</t>
+  </si>
+  <si>
+    <t>Iconography and legend</t>
+  </si>
+  <si>
+    <t>Monogram and legend</t>
+  </si>
+  <si>
+    <t>Iconography and monogram</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>ОФОРМЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Надпис</t>
+  </si>
+  <si>
+    <t>Иконография и надпис</t>
+  </si>
+  <si>
+    <t>Монограм и надпис</t>
+  </si>
+  <si>
+    <t>Иконография и монограм</t>
+  </si>
+  <si>
+    <t>MATRIX</t>
+  </si>
+  <si>
+    <t>МАТРИЦА (ПЕЧАТ)</t>
+  </si>
+  <si>
+    <t>TYPE OF IMPRESSION</t>
+  </si>
+  <si>
+    <t>Original impression</t>
+  </si>
+  <si>
+    <t>ОТПЕЧАТЪК</t>
+  </si>
+  <si>
+    <t>Оригинален отпечатък</t>
   </si>
   <si>
     <t xml:space="preserve">Оригинален отпечатък </t>
   </si>
   <si>
-    <t xml:space="preserve">MATERIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАТЕРИАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Олово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIMENSIONS (mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEIGHT (g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXIS (clock)</t>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>МАТЕРИАЛ</t>
+  </si>
+  <si>
+    <t>Олово</t>
+  </si>
+  <si>
+    <t>DIMENSIONS (mm)</t>
+  </si>
+  <si>
+    <t>33.5</t>
+  </si>
+  <si>
+    <t>32.8</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>WEIGHT (g)</t>
+  </si>
+  <si>
+    <t>29.10</t>
+  </si>
+  <si>
+    <t>20.76</t>
+  </si>
+  <si>
+    <t>21.09</t>
+  </si>
+  <si>
+    <t>12.74</t>
+  </si>
+  <si>
+    <t>20.33</t>
+  </si>
+  <si>
+    <t>4.27</t>
+  </si>
+  <si>
+    <t>15.24</t>
+  </si>
+  <si>
+    <t>AXIS (clock)</t>
   </si>
   <si>
     <t xml:space="preserve">ПОСОКА НА МАТРИЦИТЕ (ПО ЧАСОВНИКОВАТА СТРЕЛКА) </t>
   </si>
   <si>
-    <t xml:space="preserve">OVERSTRIKE ORIENTATION (clock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОСОКА НА ПРЕПЕЧАТКАТА (ПО ЧАСОВНИКОВАТА СТРЕЛКА)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHANNEL ORIENTATION (clock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОСОКА НА КАНАЛА (ПО ЧАСОВНИКОВАТА СТРЕЛКА)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXECUTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Struck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАЧИН НА ИЗРАБОТВАНЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отсечен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNTERMARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНТРАМАРКИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETTERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСОБЕНОСТИ НА БУКВИТЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHAPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФОРМА НА ЯДРОТО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кръгъл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well-centered, but parts of the disc have been flattened, perhaps from the strike.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It appears to be in a poor state
+    <t>OVERSTRIKE ORIENTATION (clock)</t>
+  </si>
+  <si>
+    <t>ПОСОКА НА ПРЕПЕЧАТКАТА (ПО ЧАСОВНИКОВАТА СТРЕЛКА)</t>
+  </si>
+  <si>
+    <t>CHANNEL ORIENTATION (clock)</t>
+  </si>
+  <si>
+    <t>ПОСОКА НА КАНАЛА (ПО ЧАСОВНИКОВАТА СТРЕЛКА)</t>
+  </si>
+  <si>
+    <t>EXECUTION</t>
+  </si>
+  <si>
+    <t>Struck</t>
+  </si>
+  <si>
+    <t>НАЧИН НА ИЗРАБОТВАНЕ</t>
+  </si>
+  <si>
+    <t>Отсечен</t>
+  </si>
+  <si>
+    <t>COUNTERMARK</t>
+  </si>
+  <si>
+    <t>КОНТРАМАРКИ</t>
+  </si>
+  <si>
+    <t>LETTERING</t>
+  </si>
+  <si>
+    <t>ОСОБЕНОСТИ НА БУКВИТЕ</t>
+  </si>
+  <si>
+    <t>SHAPE</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>ФОРМА НА ЯДРОТО</t>
+  </si>
+  <si>
+    <t>Кръгъл</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>Well-centered, but parts of the disc have been flattened, perhaps from the strike.</t>
+  </si>
+  <si>
+    <t>It appears to be in a poor state
 of preservation. Its letters are corroded and indistinct.</t>
   </si>
   <si>
-    <t xml:space="preserve">Poor state of preservation. Only the letters on the channel swelling are partially preserved. The identification is based on the above better preserved specimen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete imprint but in a poor state of preservation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete imprint in a good state of preservation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЪВРЕМЕННО СЪСТОЯНИЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добре центриран, но части от ядрото са сплеснати, вероятно при отсичането.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запазен е в лошо състояние. Буквите са корозирали и неясни.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лошо състояние на запазеност. Частично са запазени само буквите върху издатината на канала. Идентификацията се основава на горния по-добре запазен екземпляр.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пълен отпечатък, но запазен в лошо състояние.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пълен отпечатък, запазен в добро състояние.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANALYSIS DATE NOT BEFORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANALYSIS DATE NOT AFTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANALYSIS DATE CRITERIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onomastics, Terminology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epigraphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iconography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onomastics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iconography and epigraphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onomastics and epigraphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНАЛИЗ НА ДАТИРОВКА – КРИТЕРИИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ономанстика, Терминология</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Епиграфика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иконография</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ономастика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иконография и епиграфика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ономастика и епиграфика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANALYSIS DATE CERTITUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНАЛИЗ НА ДАТИРОВКА – НИВО НА СИГУРНОСТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Високо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Средно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ниско</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANALYSIS DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1133-1176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1301-1350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001-1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0976-1025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0933-0956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1026-1075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0776-0800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1151-1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1076-1125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1076-1150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0551-0650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1076-1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1051-1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0551-0700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1101-1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0501-0600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1175-1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1176-1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1101-1125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0701-0800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNAL DATE</t>
+    <t>Poor state of preservation. Only the letters on the channel swelling are partially preserved. The identification is based on the above better preserved specimen.</t>
+  </si>
+  <si>
+    <t>Complete imprint but in a poor state of preservation.</t>
+  </si>
+  <si>
+    <t>Complete imprint in a good state of preservation.</t>
+  </si>
+  <si>
+    <t>СЪВРЕМЕННО СЪСТОЯНИЕ</t>
+  </si>
+  <si>
+    <t>Добре центриран, но части от ядрото са сплеснати, вероятно при отсичането.</t>
+  </si>
+  <si>
+    <t>Запазен е в лошо състояние. Буквите са корозирали и неясни.</t>
+  </si>
+  <si>
+    <t>Лошо състояние на запазеност. Частично са запазени само буквите върху издатината на канала. Идентификацията се основава на горния по-добре запазен екземпляр.</t>
+  </si>
+  <si>
+    <t>Пълен отпечатък, но запазен в лошо състояние.</t>
+  </si>
+  <si>
+    <t>Пълен отпечатък, запазен в добро състояние.</t>
+  </si>
+  <si>
+    <t>ANALYSIS DATE NOT BEFORE</t>
+  </si>
+  <si>
+    <t>ANALYSIS DATE NOT AFTER</t>
+  </si>
+  <si>
+    <t>ANALYSIS DATE CRITERIA</t>
+  </si>
+  <si>
+    <t>Onomastics, Terminology</t>
+  </si>
+  <si>
+    <t>Epigraphy</t>
+  </si>
+  <si>
+    <t>Iconography</t>
+  </si>
+  <si>
+    <t>Onomastics</t>
+  </si>
+  <si>
+    <t>Iconography and epigraphy</t>
+  </si>
+  <si>
+    <t>Onomastics and epigraphy</t>
+  </si>
+  <si>
+    <t>АНАЛИЗ НА ДАТИРОВКА – КРИТЕРИИ</t>
+  </si>
+  <si>
+    <t>Ономанстика, Терминология</t>
+  </si>
+  <si>
+    <t>Епиграфика</t>
+  </si>
+  <si>
+    <t>Иконография</t>
+  </si>
+  <si>
+    <t>Ономастика</t>
+  </si>
+  <si>
+    <t>Иконография и епиграфика</t>
+  </si>
+  <si>
+    <t>Ономастика и епиграфика</t>
+  </si>
+  <si>
+    <t>ANALYSIS DATE CERTITUDE</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>АНАЛИЗ НА ДАТИРОВКА – НИВО НА СИГУРНОСТ</t>
+  </si>
+  <si>
+    <t>Високо</t>
+  </si>
+  <si>
+    <t>Средно</t>
+  </si>
+  <si>
+    <t>Ниско</t>
+  </si>
+  <si>
+    <t>ANALYSIS DATE</t>
+  </si>
+  <si>
+    <t>1133-1176</t>
+  </si>
+  <si>
+    <t>1301-1350</t>
+  </si>
+  <si>
+    <t>1001-1050</t>
+  </si>
+  <si>
+    <t>0976-1025</t>
+  </si>
+  <si>
+    <t>0933-0956</t>
+  </si>
+  <si>
+    <t>1026-1075</t>
+  </si>
+  <si>
+    <t>0776-0800</t>
+  </si>
+  <si>
+    <t>1151-1200</t>
+  </si>
+  <si>
+    <t>1076-1125</t>
+  </si>
+  <si>
+    <t>1076-1150</t>
+  </si>
+  <si>
+    <t>0551-0650</t>
+  </si>
+  <si>
+    <t>1076-1100</t>
+  </si>
+  <si>
+    <t>1051-1100</t>
+  </si>
+  <si>
+    <t>0551-0700</t>
+  </si>
+  <si>
+    <t>1101-1200</t>
+  </si>
+  <si>
+    <t>0501-0600</t>
+  </si>
+  <si>
+    <t>1175-1225</t>
+  </si>
+  <si>
+    <t>1176-1225</t>
+  </si>
+  <si>
+    <t>1101-1125</t>
+  </si>
+  <si>
+    <t>0701-0800</t>
+  </si>
+  <si>
+    <t>INTERNAL DATE</t>
   </si>
   <si>
     <t xml:space="preserve">INTERNAL DATE CRITERIA </t>
   </si>
   <si>
-    <t xml:space="preserve">КРИТЕРИИ ЗА ДАТИРОВКАТА, УКАЗАНА В ПЕЧАТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTERNATIVE DATING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛТЕРНАТИВНА ДАТИРОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEAL’S CONTEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private seal</t>
+    <t>КРИТЕРИИ ЗА ДАТИРОВКАТА, УКАЗАНА В ПЕЧАТА</t>
+  </si>
+  <si>
+    <t>ALTERNATIVE DATING</t>
+  </si>
+  <si>
+    <t>АЛТЕРНАТИВНА ДАТИРОВКА</t>
+  </si>
+  <si>
+    <t>SEAL’S CONTEXT</t>
+  </si>
+  <si>
+    <t>Private seal</t>
   </si>
   <si>
     <t xml:space="preserve">Ecclesiastical </t>
   </si>
   <si>
-    <t xml:space="preserve">Ecclesiastical</t>
+    <t>Ecclesiastical</t>
   </si>
   <si>
     <t xml:space="preserve">Private seal </t>
   </si>
   <si>
-    <t xml:space="preserve">Dignitaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНТЕКСТ НА ПЕЧАТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личен печат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Църковен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личенпечат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Официални лица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISSUER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andronikos Komnenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arsenios Tzamplakon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosmas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ioannes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theophylaktos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Laura of kyr Antonios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photeinos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrianos Dalassenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanaboutzes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratibor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleutherios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theophylaktos Polites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maurianos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgios Doukas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstantinos Doukas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Botaneiates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacharias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sisinnios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЗДАТЕЛ (СОБСТВЕНИК НА ПЕЧАТА)</t>
+    <t>Dignitaries</t>
+  </si>
+  <si>
+    <t>КОНТЕКСТ НА ПЕЧАТА</t>
+  </si>
+  <si>
+    <t>Личен печат</t>
+  </si>
+  <si>
+    <t>Църковен</t>
+  </si>
+  <si>
+    <t>Личенпечат</t>
+  </si>
+  <si>
+    <t>Официални лица</t>
+  </si>
+  <si>
+    <t>ISSUER</t>
+  </si>
+  <si>
+    <t>Andronikos Komnenos</t>
+  </si>
+  <si>
+    <t>Arsenios Tzamplakon</t>
+  </si>
+  <si>
+    <t>Kosmas</t>
+  </si>
+  <si>
+    <t>Ioannes</t>
+  </si>
+  <si>
+    <t>Theophylaktos</t>
+  </si>
+  <si>
+    <t>The Laura of kyr Antonios</t>
+  </si>
+  <si>
+    <t>Photeinos</t>
+  </si>
+  <si>
+    <t>Adrianos Dalassenos</t>
+  </si>
+  <si>
+    <t>Kanaboutzes</t>
+  </si>
+  <si>
+    <t>Mauricius</t>
+  </si>
+  <si>
+    <t>Ratibor</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Eleutherios</t>
+  </si>
+  <si>
+    <t>Menas</t>
+  </si>
+  <si>
+    <t>Theophylaktos Polites</t>
+  </si>
+  <si>
+    <t>Stephanos</t>
+  </si>
+  <si>
+    <t>Maurianos</t>
+  </si>
+  <si>
+    <t>Georgios Doukas</t>
+  </si>
+  <si>
+    <t>Konstantinos Doukas</t>
+  </si>
+  <si>
+    <t>Manuel Botaneiates</t>
+  </si>
+  <si>
+    <t>Zacharias</t>
+  </si>
+  <si>
+    <t>Sisinnios</t>
+  </si>
+  <si>
+    <t>ИЗДАТЕЛ (СОБСТВЕНИК НА ПЕЧАТА)</t>
   </si>
   <si>
     <t xml:space="preserve">Андроник Комнин </t>
   </si>
   <si>
-    <t xml:space="preserve">Арсений Цамблак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Козма</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теофилакт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лаврата на господина Антония</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фотинос</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Адриан Даласенос</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Канавуцис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маврикий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ратибор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Михаил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Елевтерий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теофилакт Политис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стефан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мавриан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Георги Дука</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Константин Дука</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мануил Вотаниат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Захарий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сисини</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISSUER’S MILIEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aristocracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secular Church</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil; Military</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СФЕРА НА ДЕЙНОСТ НА ИЗДАТЕЛЯ (СОБСТВЕНИКА НА ПЕЧАТА)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аристокрация (сфера на дейност)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монашеска (сфера на дейност)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Църковна светска (сфера на дейност)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Частна (сфера на дейност)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цивилна (сфера на дейност)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цивилна (сфера на дейност); Военна (сфера на дейност)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACE OF ORIGIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЯСТО НА ИЗРАБОТКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIND PLACE – ANCIENT FINDSPOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pliska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preslav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selymbria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anchialos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕСТОНАМИРАНЕ – АНТИЧЕН ТОПОНИМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плиска</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Преслав</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Селимбрия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анхиало</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIND PLACE – MODERN FINDSPOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veliki Preslav</t>
+    <t>Арсений Цамблак</t>
+  </si>
+  <si>
+    <t>Козма</t>
+  </si>
+  <si>
+    <t>Теофилакт</t>
+  </si>
+  <si>
+    <t>Лаврата на господина Антония</t>
+  </si>
+  <si>
+    <t>Фотинос</t>
+  </si>
+  <si>
+    <t>Адриан Даласенос</t>
+  </si>
+  <si>
+    <t>Канавуцис</t>
+  </si>
+  <si>
+    <t>Маврикий</t>
+  </si>
+  <si>
+    <t>Ратибор</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Елевтерий</t>
+  </si>
+  <si>
+    <t>Мина</t>
+  </si>
+  <si>
+    <t>Теофилакт Политис</t>
+  </si>
+  <si>
+    <t>Стефан</t>
+  </si>
+  <si>
+    <t>Мавриан</t>
+  </si>
+  <si>
+    <t>Георги Дука</t>
+  </si>
+  <si>
+    <t>Константин Дука</t>
+  </si>
+  <si>
+    <t>Мануил Вотаниат</t>
+  </si>
+  <si>
+    <t>Захарий</t>
+  </si>
+  <si>
+    <t>Сисини</t>
+  </si>
+  <si>
+    <t>ISSUER’S MILIEU</t>
+  </si>
+  <si>
+    <t>Aristocracy</t>
+  </si>
+  <si>
+    <t>Monastic</t>
+  </si>
+  <si>
+    <t>Secular Church</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>Civil; Military</t>
+  </si>
+  <si>
+    <t>СФЕРА НА ДЕЙНОСТ НА ИЗДАТЕЛЯ (СОБСТВЕНИКА НА ПЕЧАТА)</t>
+  </si>
+  <si>
+    <t>Аристокрация (сфера на дейност)</t>
+  </si>
+  <si>
+    <t>Монашеска (сфера на дейност)</t>
+  </si>
+  <si>
+    <t>Църковна светска (сфера на дейност)</t>
+  </si>
+  <si>
+    <t>Частна (сфера на дейност)</t>
+  </si>
+  <si>
+    <t>Цивилна (сфера на дейност)</t>
+  </si>
+  <si>
+    <t>Цивилна (сфера на дейност); Военна (сфера на дейност)</t>
+  </si>
+  <si>
+    <t>PLACE OF ORIGIN</t>
+  </si>
+  <si>
+    <t>МЯСТО НА ИЗРАБОТКА</t>
+  </si>
+  <si>
+    <t>FIND PLACE – ANCIENT FINDSPOT</t>
+  </si>
+  <si>
+    <t>Pliska</t>
+  </si>
+  <si>
+    <t>Preslav</t>
+  </si>
+  <si>
+    <t>Selymbria</t>
+  </si>
+  <si>
+    <t>Anchialos</t>
+  </si>
+  <si>
+    <t>МЕСТОНАМИРАНЕ – АНТИЧЕН ТОПОНИМ</t>
+  </si>
+  <si>
+    <t>Плиска</t>
+  </si>
+  <si>
+    <t>Преслав</t>
+  </si>
+  <si>
+    <t>Селимбрия</t>
+  </si>
+  <si>
+    <t>Анхиало</t>
+  </si>
+  <si>
+    <t>FIND PLACE – MODERN FINDSPOT</t>
+  </si>
+  <si>
+    <t>Veliki Preslav</t>
   </si>
   <si>
     <t xml:space="preserve">Hisarlaka </t>
   </si>
   <si>
-    <t xml:space="preserve">Silivri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beligrad, kraj Kurilo, Novi Iskar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pomorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">village of Ahmatovo, Plovdiv region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">village of Yana, Sofia region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncertain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vicinity of Radomir, Pernik region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕСТОНАМИРАНЕ – СЪВРЕМЕНЕН ТОПОНИМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Велики Преслав</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хисарлъка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Силиврия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Белиград, край Курило, Нови Искър</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поморие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">с. Ахматово, област Пловдив</t>
-  </si>
-  <si>
-    <t xml:space="preserve">с. Яна, Софийска област</t>
-  </si>
-  <si>
-    <t xml:space="preserve">неизвестно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">околностите на Радомир, област Перник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COORDINATES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.136897, 24.742168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.697334, 23.325941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.387, 27.132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.166667, 26.817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2757, 22.6918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.073889, 28.246389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.840833, 23.371111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.840833, 23.371113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5569, 27.6405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.110831, 25.050339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.730899, 23.557926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.546054, 22.962896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.840833, 23.371181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIND DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1931-1937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1906, 1908-1909, 1911-1912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIND CIRCUMSTANCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excavations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБСТОЯТЕЛСТВА НА НАМИРАНЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разкопки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNTRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЪРЖАВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">България</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SETTLEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕЛИЩЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">София</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTITUTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Archaeological Institute with Museum – Bulgarian Academy of Sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИНСТИТУЦИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Национален Археологически Институт с Музей – Българската Академия на Науките</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPOSITORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exhibition</t>
+    <t>Silivri</t>
+  </si>
+  <si>
+    <t>Beligrad, kraj Kurilo, Novi Iskar</t>
+  </si>
+  <si>
+    <t>Pomorie</t>
+  </si>
+  <si>
+    <t>village of Ahmatovo, Plovdiv region</t>
+  </si>
+  <si>
+    <t>village of Yana, Sofia region</t>
+  </si>
+  <si>
+    <t>uncertain</t>
+  </si>
+  <si>
+    <t>vicinity of Radomir, Pernik region</t>
+  </si>
+  <si>
+    <t>МЕСТОНАМИРАНЕ – СЪВРЕМЕНЕН ТОПОНИМ</t>
+  </si>
+  <si>
+    <t>Велики Преслав</t>
+  </si>
+  <si>
+    <t>Хисарлъка</t>
+  </si>
+  <si>
+    <t>Силиврия</t>
+  </si>
+  <si>
+    <t>Белиград, край Курило, Нови Искър</t>
+  </si>
+  <si>
+    <t>Поморие</t>
+  </si>
+  <si>
+    <t>с. Ахматово, област Пловдив</t>
+  </si>
+  <si>
+    <t>с. Яна, Софийска област</t>
+  </si>
+  <si>
+    <t>неизвестно</t>
+  </si>
+  <si>
+    <t>околностите на Радомир, област Перник</t>
+  </si>
+  <si>
+    <t>COORDINATES</t>
+  </si>
+  <si>
+    <t>42.136897, 24.742168</t>
+  </si>
+  <si>
+    <t>42.697334, 23.325941</t>
+  </si>
+  <si>
+    <t>43.387, 27.132</t>
+  </si>
+  <si>
+    <t>43.166667, 26.817</t>
+  </si>
+  <si>
+    <t>42.2757, 22.6918</t>
+  </si>
+  <si>
+    <t>41.073889, 28.246389</t>
+  </si>
+  <si>
+    <t>42.840833, 23.371111</t>
+  </si>
+  <si>
+    <t>42.840833, 23.371113</t>
+  </si>
+  <si>
+    <t>42.5569, 27.6405</t>
+  </si>
+  <si>
+    <t>42.110831, 25.050339</t>
+  </si>
+  <si>
+    <t>42.730899, 23.557926</t>
+  </si>
+  <si>
+    <t>42.546054, 22.962896</t>
+  </si>
+  <si>
+    <t>42.840833, 23.371181</t>
+  </si>
+  <si>
+    <t>FIND DATE</t>
+  </si>
+  <si>
+    <t>1931-1937</t>
+  </si>
+  <si>
+    <t>1906, 1908-1909, 1911-1912</t>
+  </si>
+  <si>
+    <t>FIND CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t>Excavations</t>
+  </si>
+  <si>
+    <t>ОБСТОЯТЕЛСТВА НА НАМИРАНЕ</t>
+  </si>
+  <si>
+    <t>Разкопки</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>ДЪРЖАВА</t>
+  </si>
+  <si>
+    <t>България</t>
+  </si>
+  <si>
+    <t>SETTLEMENT</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>СЕЛИЩЕ</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
+    <t>INSTITUTION</t>
+  </si>
+  <si>
+    <t>National Archaeological Institute with Museum – Bulgarian Academy of Sciences</t>
+  </si>
+  <si>
+    <t>ИНСТИТУЦИЯ</t>
+  </si>
+  <si>
+    <t>Национален Археологически Институт с Музей – Българската Академия на Науките</t>
+  </si>
+  <si>
+    <t>REPOSITORY</t>
+  </si>
+  <si>
+    <t>Exhibition</t>
   </si>
   <si>
     <t xml:space="preserve">МЯСТО НА СЪХРАНЕНИЕ </t>
   </si>
   <si>
-    <t xml:space="preserve">Нумизматичен фонд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Експозиция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОЛЕКЦИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVENTORY NUMBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACQUISITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchased from Georgi Panayotov in 1976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donation by Asen Nikolov (Silistra) in 1976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchased from Emil Kosev (Shumen) in 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donation by Trifon Kunev in 1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given to the museum by Oskar Shehim (Russe), who purchased it at the Constantinople market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchased from Kiril Dimitrov (Burgas) in 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donated by Metodi Nedyalkov Kondev (Yana), a teacher, in 1964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donated by a goldsmith from Sofia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donated by K. Dimitrov (Burgas) in 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СПОСОБ НА ПРИДОБИВАНЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Закупен от Георги Панайотов през 1976 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дарение от Асен Николов (Силистра) през 1976 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Закупен от Емил Косев (Шумен) през 1994 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дарение от Трифон Кунев през 1953 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Закупен от Кирил Димитров (Бургас) през 1989 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дарение от Методи Недялков Кондев през 1964 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дарение от софийски златар.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дарение от К. Димитров (Бургас) през 1989 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREVIOUS LOCATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Archaeological Institute with Museum – Bulgarian Academy of Sciences 173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avramov collection (Bulgaria)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAIM 129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAIM 111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAIM 156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAIM 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРЕДИШНО МЕСТОСЪХРАНЕНИЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Национален Археологически Институт с Музей – Българската Академия на Науките 173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Частна колекция Аврамов (България)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАИМ 129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАИМ 111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАИМ 156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАИМ 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODERN OBSERVATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is not known whether G. Panayotov discovered the seal or he was simply the one who presented it to the museum.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although it has been assumed that because A. Nikolov was from Silistra, therefore the seal must have originated from the same place, this cannot be verified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discovered during excavations at the Palace Square (NW sector, square 2) in Pliska, in 2005.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is not known whether E. Kosev discovered the seal or he was simply the one who presented it to the museum. In the Corpus of 2009 and the Museum Catalogue of 2011, Jordanov writes that the seal “was passed on to the Archaeological Museum by E. Kosev in 1984”, but in Jordanov, 2006, 353, the author says that the seal with inventory number 251 was purchased by that person in 1994.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discovered during the excavations in Pliska by K. Miyatev, in 1931-1937.</t>
+    <t>Нумизматичен фонд</t>
+  </si>
+  <si>
+    <t>Експозиция</t>
+  </si>
+  <si>
+    <t>COLLECTION</t>
+  </si>
+  <si>
+    <t>КОЛЕКЦИЯ</t>
+  </si>
+  <si>
+    <t>INVENTORY NUMBER</t>
+  </si>
+  <si>
+    <t>ACQUISITION</t>
+  </si>
+  <si>
+    <t>Purchased from Georgi Panayotov in 1976</t>
+  </si>
+  <si>
+    <t>Donation by Asen Nikolov (Silistra) in 1976</t>
+  </si>
+  <si>
+    <t>Purchased from Emil Kosev (Shumen) in 1994</t>
+  </si>
+  <si>
+    <t>Donation by Trifon Kunev in 1953</t>
+  </si>
+  <si>
+    <t>Given to the museum by Oskar Shehim (Russe), who purchased it at the Constantinople market</t>
+  </si>
+  <si>
+    <t>Purchased from Kiril Dimitrov (Burgas) in 1989</t>
+  </si>
+  <si>
+    <t>Donated by Metodi Nedyalkov Kondev (Yana), a teacher, in 1964</t>
+  </si>
+  <si>
+    <t>Donated by a goldsmith from Sofia.</t>
+  </si>
+  <si>
+    <t>Donated by K. Dimitrov (Burgas) in 1989</t>
+  </si>
+  <si>
+    <t>СПОСОБ НА ПРИДОБИВАНЕ</t>
+  </si>
+  <si>
+    <t>Закупен от Георги Панайотов през 1976 г.</t>
+  </si>
+  <si>
+    <t>Дарение от Асен Николов (Силистра) през 1976 г.</t>
+  </si>
+  <si>
+    <t>Закупен от Емил Косев (Шумен) през 1994 г.</t>
+  </si>
+  <si>
+    <t>Дарение от Трифон Кунев през 1953 г.</t>
+  </si>
+  <si>
+    <t>Закупен от Кирил Димитров (Бургас) през 1989 г.</t>
+  </si>
+  <si>
+    <t>Дарение от Методи Недялков Кондев през 1964 г.</t>
+  </si>
+  <si>
+    <t>Дарение от софийски златар.</t>
+  </si>
+  <si>
+    <t>Дарение от К. Димитров (Бургас) през 1989 г.</t>
+  </si>
+  <si>
+    <t>PREVIOUS LOCATIONS</t>
+  </si>
+  <si>
+    <t>National Archaeological Institute with Museum – Bulgarian Academy of Sciences 173</t>
+  </si>
+  <si>
+    <t>Avramov collection (Bulgaria)</t>
+  </si>
+  <si>
+    <t>NAIM 129</t>
+  </si>
+  <si>
+    <t>NAIM 111</t>
+  </si>
+  <si>
+    <t>NAIM 156</t>
+  </si>
+  <si>
+    <t>NAIM 50</t>
+  </si>
+  <si>
+    <t>ПРЕДИШНО МЕСТОСЪХРАНЕНИЕ</t>
+  </si>
+  <si>
+    <t>Национален Археологически Институт с Музей – Българската Академия на Науките 173</t>
+  </si>
+  <si>
+    <t>Частна колекция Аврамов (България)</t>
+  </si>
+  <si>
+    <t>НАИМ 129</t>
+  </si>
+  <si>
+    <t>НАИМ 111</t>
+  </si>
+  <si>
+    <t>НАИМ 156</t>
+  </si>
+  <si>
+    <t>НАИМ 50</t>
+  </si>
+  <si>
+    <t>MODERN OBSERVATIONS</t>
+  </si>
+  <si>
+    <t>It is not known whether G. Panayotov discovered the seal or he was simply the one who presented it to the museum.</t>
+  </si>
+  <si>
+    <t>Although it has been assumed that because A. Nikolov was from Silistra, therefore the seal must have originated from the same place, this cannot be verified.</t>
+  </si>
+  <si>
+    <t>Discovered during excavations at the Palace Square (NW sector, square 2) in Pliska, in 2005.</t>
+  </si>
+  <si>
+    <t>It is not known whether E. Kosev discovered the seal or he was simply the one who presented it to the museum. In the Corpus of 2009 and the Museum Catalogue of 2011, Jordanov writes that the seal “was passed on to the Archaeological Museum by E. Kosev in 1984”, but in Jordanov, 2006, 353, the author says that the seal with inventory number 251 was purchased by that person in 1994.</t>
+  </si>
+  <si>
+    <t>Discovered during the excavations in Pliska by K. Miyatev, in 1931-1937.</t>
   </si>
   <si>
     <t xml:space="preserve">It is not clear where the seal was found or how it came into possession of the National Archaeological Institute with Museum. The seal shows traces of letters on both the obverse and the reverse, which means that what we see today is a second strike, unrelated to the first, i.e. the disc was reused. </t>
@@ -1259,532 +1264,532 @@
     <t xml:space="preserve">Discovered during the excavations in Hisarlak fortress, next to Kyustendil, by J. Ivanov, in 1906, 1908-1909, 1911-1912. </t>
   </si>
   <si>
-    <t xml:space="preserve">It is not clear whether T. Kunev discovered the seal in 1912 and it was again him who donated it in 1953.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to Jordanov, it was found in the region of Veliko Tarnovo (without more precise information). There are traces of letters indicating that the disc was struck twice and seemingly the first time by a different boulloterion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although it has been assumed that because M. Kondev was a teacher in the village of Yana, the seal also originated from that same place, this cannot be confirmed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЪВРЕМЕННИ НАБЛЮДЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не е ясно дали Г. Панайотов е откривателят на печата, или само го е дарил на музея.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Счита се, че понеже А. Николов е от Силистра, то и печатът произхожда от същото място, но това не може да се потвърди.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Счита се, че понеже М. Кондев е бил учител в с. Яна, то и печатът произхожда от същото място, но това не може да се потвърди.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBVERSE LAYOUT OF FIELD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend of 8 lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend of 4 lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iconography with circular legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruciform monogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iconography with legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend of 3 lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОФОРМЛЕНИЕ НА ЛИЦЕВАТА СТРАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линеен надпис в 8 редове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линеен надпис в 4 редове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иконография с кръгов надпис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кръстообразен монограм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линеен надпис в 3 редове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монограм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBVERSE FIELD’S DIMENSIONS (mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBVERSE MATRIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИЦЕВ ПЕЧАТ / ЛИЦЕВА МАТРИЦА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBVERSE ICONOGRAPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bust of Mother of God orans; sigla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patriarchal Cross, on three steps, with X at the intersection of the arms and a hizontal line forming a crosslet on top, flanked by floral decoration reaching to the crosslet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bust of Mother of God, type Nikopoios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bust of Mother of God, type Minimalorantengestus; sigla; Tongues of Fire above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of God, type Hagiosoritissa, standing; sigla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bust of Mother of God, type Episkepsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bust of Mother of God, type Nikopoios; sigla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lion advancing to the right; star above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bust of Saint Clement (pope of Rome), blessing (r. hand) and holding the Holy Gospel (l. hand); on either side, vertical inscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Eustratios, standing, holding a spear (r. hand) and a shield resting on the ground (l. hand); on either side, vertical inscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bust of Saint Menas, bearded; on either side, cross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bust of Mother of God, type Episkepsis; sigla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross; letters in the lower quarters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Georgios on horseback, moving to the right, holding a spear (r. hand) and the leash (l. hand); on either side, vertical inscription arranged in horizontal lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of God, type Eleousa, standing on a suppedion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bust of Saint Theodoros holding a spear (r. hand) and a shield (l. hand).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИКОНОГРАФИЯ НА АВЕРСА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюст на Богородица; сигла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюст на Богородица Никопея</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюст на Богородица Minimalorantengestus; сигла; Огнени Езици</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богородица Агиосоритиса; сигла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюст на Богородица Епискепсис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюст на Богородица Никопея; сигла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюст на Богородица Епискепсис; сигла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Св. Георги на кон (на д.), държи копие на рамо (д. ръка) и поводите (л. ръка). От двете страни на главата му има вертикален надпис в хоризонтални линии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Св. Георги на кон (на д.), държи копие на рамо (д. ръка) и поводите (л. ръка). От двете страни на главата му има надпис в хоризонтални линии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богородица Елеуса стъпила върху супендион</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюст на Св. Тодор, държащ копие (д. ръка) и щит (л. ръка).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBVERSE DECORATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЕКОРАТИВНИ ЕЛЕМЕНТИ НА АВЕРСА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVERSE LAYOUT OF FIELD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend of 7 lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend of 6 lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend of 5 lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend of 2 lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block monogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОФОРМЛЕНИЕ НА ОБРАТНАТА СТРАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линеен надпис в 7 редове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линеен надпис в 6 редове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линеен надпис в 5 редове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линеен надпис в 2 редове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блоков монограм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линеен надпис в 6 редoве</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVERSE FIELD’S DIMENSIONS (mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVERSE MATRIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕВЕРСЕН ПЕЧАТ / РЕВЕРС НА МАТРИЦА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVERSE ICONOGRAPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИКОНОГРАФИЯ НА РЕВЕРСА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVERSE DECORATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЕКОРАТИВНИ ЕЛЕМЕНТИ НА РЕВЕРСА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANGUAGE(S)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byzantine Greek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byzantine Greek and Old Russian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕЗИК (ЕЗИЦИ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Византийски гръцки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Латински</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Византийски гръцки и староруски</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACSIMILE OBVERSE GRAPHIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_182_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_183_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_278_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_251_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_245_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_90_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_135_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_86_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_132_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_133_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_317_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_91_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_131_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_312_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_29_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_49_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_181_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_238_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_127_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_144_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_42_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_39_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_54_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_243_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_30_O.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACSIMILE OBVERSE DESCRIPTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal of Georgios Doukas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACSIMILE REVERSE GRAPHIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_182_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_183_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_278_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_251_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_245_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_90_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_135_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_86_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_132_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_133_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_317_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_91_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_131_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_312_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_29_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_49_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_181_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_238_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_127_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_144_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_42_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_39_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_54_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_243_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia_NAIM_30_R.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACSIMILE REVERSE DESCRIPTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDITION(S)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 161, p. 80; Jordanov, Corpus, 3, 1933; Jordanov, Corpus, 2, 339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 138, p. 70; Jordanov, Corpus, 3, 1780; Jordanov, Corpus, 2, 710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 141, p. 71-72; Jordanov, Corpus, 3, 1742, p. 575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 135, p. 69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 133, p. 68; Jordanov, Corpus, 3, 1619, p. 528-530; Jordanov, 2006, p. 353-359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 137, p. 70; Jordanov, Corpus, 3, 1652, p. 544-545; Jordanov, Corpus, 1, 9.1, p. 39; Jordanov, 1992, 25, p. 291; Laurent, Corpus, 5.2, 1139, p. 66-67; Gerasimov, 1940-1942, 5, p. 176-177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 145, p. 73; Jordanov, Corpus, 3, 1752, p. 581; Jordanov, Corpus, 1, 75.1, p. 161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wassiliou-Seibt, 2016, 2135, p. 363-364; Jordanov, 2011, 139, p. 71; Jordanov, Corpus, 3, 1680, p. 555; Jordanov, Corpus, 1, 16.1, p. 45; Laurent, Corpus, 5.2, 1501, p. 330; Ivanov, 1919-1920, 18, p. 112-113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 153, p. 77; Jordanov, Corpus, 3, 1866, p. 616; Jordanov, Corpus, 2, 156, p. 119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 158, p. 79; Jordanov, Corpus, 3, 1910, p. 626-627; Jordanov, Corpus, 2, 260, p. 178-179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 174, p. 86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 167, p. 83; Bulgakova, 2004, p. 246-247; Janin, 1970, 71, p. 62-64, 181, tables 7.71, 40.71; Gerasimov, 1952, 1, p. 93-95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 154, p. 77; Jordanov, Corpus, 3, 1886, p. 622; Jordanov, Corpus, 2, 222, p. 152-153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 170, p. 84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 184, p. 88-89; Jordanov, Corpus, 3, 2303, p. 730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 165, p. 82; Jordanov, Corpus, 3, 2018, p. 655; Jordanov, Corpus, 2, 553, p. 331; Mushmov, 1934, 38, p. 345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 209, p. 96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 213, p. 97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 72, p. 34; Jordanov, 2009, 22, p. 164-165; Jordanov, Corpus, 3, 631, p. 235-236; Jordanov, Corpus, 2, 198, p. 139; Jordanov, 1998, 10, p. 13; Jordanov, 1995, 8, p. 119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 73, p. 34-35; Jordanov, 2009, 26, p. 173-174; Jordanov, Corpus, 3, 651, p. 241-242; Jordanov, Corpus, 2, 201, p. 142-143; Jordanov, 1998, 22, p. 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 74, p. 34-35; Jordanov, 2009, 27, p. 173-174; Jordanov, Corpus, 3, 652, p. 241-242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 75, p. 35-36; Jordanov, Corpus, 3, 658, p. 243; Jordanov, Corpus, 2, 118(b), p. 99-100; Jordanov, 1998, 28(2), p. 27; Mushmov, 1934, 19(2), p. 339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 76, p. 35-36; Jordanov, Corpus, 3, 659, p. 243; Jordanov, Corpus, 2, 119(c), p. 99-100; Jordanov, 1998, 29(3), p. 27; Mushmov, 1934, 19(1), p. 339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 78, p. 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 79, p. 36-37; Jordanov, Corpus, 3, 710, p. 259-260; Mushmov, 1934, 30, p. 343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУБЛИКАЦИЯ (ПУБЛИКАЦИИ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011, 161, стр. 80; Jordanov, Corpus, 3, 1933; Jordanov, Corpus, 2, 339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov, 2011,138, стр. 70; Jordanov, Corpus, 3, 1780; Jordanov, Corpus, 2, 710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMENTARY ON EDITION(S)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov mistook the cross at the beginning of the first line on the obverse for a theta, making an invocation to the Mother of God.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The seal preserves more letters that are not displayed in Jordanov’s diplomatic edition. It is possible that the author confused the reading of this seal with that published as Jordanov, Corpus, 3, no. 1631, p. 536, perhaps attributed to the same person.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov dated the seal in the years of Basil I. However, the alpha with broken horizontal line, as well as the short omega point to a much earlier date. There is no reason to assume that a bishop of Trabzon must have necessarily been also a metropolitan, since Trabzon was a suffragant bishopric in the eighth century, and Photeinos’ seal could have been issued in that period by a simple bishop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is no space for a third line. The name is spelled in Latin.</t>
+    <t>It is not clear whether T. Kunev discovered the seal in 1912 and it was again him who donated it in 1953.</t>
+  </si>
+  <si>
+    <t>According to Jordanov, it was found in the region of Veliko Tarnovo (without more precise information). There are traces of letters indicating that the disc was struck twice and seemingly the first time by a different boulloterion.</t>
+  </si>
+  <si>
+    <t>Although it has been assumed that because M. Kondev was a teacher in the village of Yana, the seal also originated from that same place, this cannot be confirmed.</t>
+  </si>
+  <si>
+    <t>СЪВРЕМЕННИ НАБЛЮДЕНИЯ</t>
+  </si>
+  <si>
+    <t>Не е ясно дали Г. Панайотов е откривателят на печата, или само го е дарил на музея.</t>
+  </si>
+  <si>
+    <t>Счита се, че понеже А. Николов е от Силистра, то и печатът произхожда от същото място, но това не може да се потвърди.</t>
+  </si>
+  <si>
+    <t>Счита се, че понеже М. Кондев е бил учител в с. Яна, то и печатът произхожда от същото място, но това не може да се потвърди.</t>
+  </si>
+  <si>
+    <t>OBVERSE LAYOUT OF FIELD</t>
+  </si>
+  <si>
+    <t>Legend of 8 lines</t>
+  </si>
+  <si>
+    <t>Legend of 4 lines</t>
+  </si>
+  <si>
+    <t>Iconography with circular legend</t>
+  </si>
+  <si>
+    <t>Cruciform monogram</t>
+  </si>
+  <si>
+    <t>Iconography with legend</t>
+  </si>
+  <si>
+    <t>Legend of 3 lines</t>
+  </si>
+  <si>
+    <t>Monogram</t>
+  </si>
+  <si>
+    <t>ОФОРМЛЕНИЕ НА ЛИЦЕВАТА СТРАНА</t>
+  </si>
+  <si>
+    <t>Линеен надпис в 8 редове</t>
+  </si>
+  <si>
+    <t>Линеен надпис в 4 редове</t>
+  </si>
+  <si>
+    <t>Иконография с кръгов надпис</t>
+  </si>
+  <si>
+    <t>Кръстообразен монограм</t>
+  </si>
+  <si>
+    <t>Линеен надпис в 3 редове</t>
+  </si>
+  <si>
+    <t>Монограм</t>
+  </si>
+  <si>
+    <t>OBVERSE FIELD’S DIMENSIONS (mm)</t>
+  </si>
+  <si>
+    <t>OBVERSE MATRIX</t>
+  </si>
+  <si>
+    <t>ЛИЦЕВ ПЕЧАТ / ЛИЦЕВА МАТРИЦА</t>
+  </si>
+  <si>
+    <t>OBVERSE ICONOGRAPHY</t>
+  </si>
+  <si>
+    <t>Bust of Mother of God orans; sigla</t>
+  </si>
+  <si>
+    <t>Patriarchal Cross, on three steps, with X at the intersection of the arms and a hizontal line forming a crosslet on top, flanked by floral decoration reaching to the crosslet</t>
+  </si>
+  <si>
+    <t>Bust of Mother of God, type Nikopoios</t>
+  </si>
+  <si>
+    <t>Bust of Mother of God, type Minimalorantengestus; sigla; Tongues of Fire above</t>
+  </si>
+  <si>
+    <t>Mother of God, type Hagiosoritissa, standing; sigla</t>
+  </si>
+  <si>
+    <t>Bust of Mother of God, type Episkepsis</t>
+  </si>
+  <si>
+    <t>Bust of Mother of God, type Nikopoios; sigla</t>
+  </si>
+  <si>
+    <t>Lion advancing to the right; star above</t>
+  </si>
+  <si>
+    <t>Bust of Saint Clement (pope of Rome), blessing (r. hand) and holding the Holy Gospel (l. hand); on either side, vertical inscription</t>
+  </si>
+  <si>
+    <t>Saint Eustratios, standing, holding a spear (r. hand) and a shield resting on the ground (l. hand); on either side, vertical inscription</t>
+  </si>
+  <si>
+    <t>Bust of Saint Menas, bearded; on either side, cross</t>
+  </si>
+  <si>
+    <t>Bust of Mother of God, type Episkepsis; sigla</t>
+  </si>
+  <si>
+    <t>Cross; letters in the lower quarters</t>
+  </si>
+  <si>
+    <t>Saint Georgios on horseback, moving to the right, holding a spear (r. hand) and the leash (l. hand); on either side, vertical inscription arranged in horizontal lines</t>
+  </si>
+  <si>
+    <t>Mother of God, type Eleousa, standing on a suppedion</t>
+  </si>
+  <si>
+    <t>Bust of Saint Theodoros holding a spear (r. hand) and a shield (l. hand).</t>
+  </si>
+  <si>
+    <t>ИКОНОГРАФИЯ НА АВЕРСА</t>
+  </si>
+  <si>
+    <t>Бюст на Богородица; сигла</t>
+  </si>
+  <si>
+    <t>Бюст на Богородица Никопея</t>
+  </si>
+  <si>
+    <t>Бюст на Богородица Minimalorantengestus; сигла; Огнени Езици</t>
+  </si>
+  <si>
+    <t>Богородица Агиосоритиса; сигла</t>
+  </si>
+  <si>
+    <t>Бюст на Богородица Епискепсис</t>
+  </si>
+  <si>
+    <t>Бюст на Богородица Никопея; сигла</t>
+  </si>
+  <si>
+    <t>Бюст на Богородица Епискепсис; сигла</t>
+  </si>
+  <si>
+    <t>Св. Георги на кон (на д.), държи копие на рамо (д. ръка) и поводите (л. ръка). От двете страни на главата му има вертикален надпис в хоризонтални линии</t>
+  </si>
+  <si>
+    <t>Св. Георги на кон (на д.), държи копие на рамо (д. ръка) и поводите (л. ръка). От двете страни на главата му има надпис в хоризонтални линии</t>
+  </si>
+  <si>
+    <t>Богородица Елеуса стъпила върху супендион</t>
+  </si>
+  <si>
+    <t>Бюст на Св. Тодор, държащ копие (д. ръка) и щит (л. ръка).</t>
+  </si>
+  <si>
+    <t>OBVERSE DECORATION</t>
+  </si>
+  <si>
+    <t>ДЕКОРАТИВНИ ЕЛЕМЕНТИ НА АВЕРСА</t>
+  </si>
+  <si>
+    <t>REVERSE LAYOUT OF FIELD</t>
+  </si>
+  <si>
+    <t>Legend of 7 lines</t>
+  </si>
+  <si>
+    <t>Legend of 6 lines</t>
+  </si>
+  <si>
+    <t>Legend of 5 lines</t>
+  </si>
+  <si>
+    <t>Legend of 2 lines</t>
+  </si>
+  <si>
+    <t>Block monogram</t>
+  </si>
+  <si>
+    <t>ОФОРМЛЕНИЕ НА ОБРАТНАТА СТРАНА</t>
+  </si>
+  <si>
+    <t>Линеен надпис в 7 редове</t>
+  </si>
+  <si>
+    <t>Линеен надпис в 6 редове</t>
+  </si>
+  <si>
+    <t>Линеен надпис в 5 редове</t>
+  </si>
+  <si>
+    <t>Линеен надпис в 2 редове</t>
+  </si>
+  <si>
+    <t>Блоков монограм</t>
+  </si>
+  <si>
+    <t>Линеен надпис в 6 редoве</t>
+  </si>
+  <si>
+    <t>REVERSE FIELD’S DIMENSIONS (mm)</t>
+  </si>
+  <si>
+    <t>REVERSE MATRIX</t>
+  </si>
+  <si>
+    <t>РЕВЕРСЕН ПЕЧАТ / РЕВЕРС НА МАТРИЦА</t>
+  </si>
+  <si>
+    <t>REVERSE ICONOGRAPHY</t>
+  </si>
+  <si>
+    <t>ИКОНОГРАФИЯ НА РЕВЕРСА</t>
+  </si>
+  <si>
+    <t>REVERSE DECORATION</t>
+  </si>
+  <si>
+    <t>ДЕКОРАТИВНИ ЕЛЕМЕНТИ НА РЕВЕРСА</t>
+  </si>
+  <si>
+    <t>LANGUAGE(S)</t>
+  </si>
+  <si>
+    <t>Byzantine Greek</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>Byzantine Greek and Old Russian</t>
+  </si>
+  <si>
+    <t>ЕЗИК (ЕЗИЦИ)</t>
+  </si>
+  <si>
+    <t>Византийски гръцки</t>
+  </si>
+  <si>
+    <t>Латински</t>
+  </si>
+  <si>
+    <t>Византийски гръцки и староруски</t>
+  </si>
+  <si>
+    <t>FACSIMILE OBVERSE GRAPHIC</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_182_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_183_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_278_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_251_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_245_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_90_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_135_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_86_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_132_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_133_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_317_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_91_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_131_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_312_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_29_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_49_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_181_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_238_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_127_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_144_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_42_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_39_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_54_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_243_O.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_30_O.jpg</t>
+  </si>
+  <si>
+    <t>FACSIMILE OBVERSE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Seal of Georgios Doukas</t>
+  </si>
+  <si>
+    <t>FACSIMILE REVERSE GRAPHIC</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_182_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_183_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_278_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_251_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_245_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_90_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_135_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_86_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_132_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_133_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_317_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_91_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_131_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_312_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_29_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_49_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_181_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_238_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_127_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_144_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_42_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_39_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_54_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_243_R.jpg</t>
+  </si>
+  <si>
+    <t>Sofia_NAIM_30_R.jpg</t>
+  </si>
+  <si>
+    <t>FACSIMILE REVERSE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>EDITION(S)</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 161, p. 80; Jordanov, Corpus, 3, 1933; Jordanov, Corpus, 2, 339</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 138, p. 70; Jordanov, Corpus, 3, 1780; Jordanov, Corpus, 2, 710</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 141, p. 71-72; Jordanov, Corpus, 3, 1742, p. 575</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 135, p. 69</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 133, p. 68; Jordanov, Corpus, 3, 1619, p. 528-530; Jordanov, 2006, p. 353-359</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 137, p. 70; Jordanov, Corpus, 3, 1652, p. 544-545; Jordanov, Corpus, 1, 9.1, p. 39; Jordanov, 1992, 25, p. 291; Laurent, Corpus, 5.2, 1139, p. 66-67; Gerasimov, 1940-1942, 5, p. 176-177</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 145, p. 73; Jordanov, Corpus, 3, 1752, p. 581; Jordanov, Corpus, 1, 75.1, p. 161</t>
+  </si>
+  <si>
+    <t>Wassiliou-Seibt, 2016, 2135, p. 363-364; Jordanov, 2011, 139, p. 71; Jordanov, Corpus, 3, 1680, p. 555; Jordanov, Corpus, 1, 16.1, p. 45; Laurent, Corpus, 5.2, 1501, p. 330; Ivanov, 1919-1920, 18, p. 112-113</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 153, p. 77; Jordanov, Corpus, 3, 1866, p. 616; Jordanov, Corpus, 2, 156, p. 119</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 158, p. 79; Jordanov, Corpus, 3, 1910, p. 626-627; Jordanov, Corpus, 2, 260, p. 178-179</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 174, p. 86</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 167, p. 83; Bulgakova, 2004, p. 246-247; Janin, 1970, 71, p. 62-64, 181, tables 7.71, 40.71; Gerasimov, 1952, 1, p. 93-95</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 154, p. 77; Jordanov, Corpus, 3, 1886, p. 622; Jordanov, Corpus, 2, 222, p. 152-153</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 170, p. 84</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 184, p. 88-89; Jordanov, Corpus, 3, 2303, p. 730</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 165, p. 82; Jordanov, Corpus, 3, 2018, p. 655; Jordanov, Corpus, 2, 553, p. 331; Mushmov, 1934, 38, p. 345</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 209, p. 96</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 213, p. 97</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 72, p. 34; Jordanov, 2009, 22, p. 164-165; Jordanov, Corpus, 3, 631, p. 235-236; Jordanov, Corpus, 2, 198, p. 139; Jordanov, 1998, 10, p. 13; Jordanov, 1995, 8, p. 119</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 73, p. 34-35; Jordanov, 2009, 26, p. 173-174; Jordanov, Corpus, 3, 651, p. 241-242; Jordanov, Corpus, 2, 201, p. 142-143; Jordanov, 1998, 22, p. 23</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 74, p. 34-35; Jordanov, 2009, 27, p. 173-174; Jordanov, Corpus, 3, 652, p. 241-242</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 75, p. 35-36; Jordanov, Corpus, 3, 658, p. 243; Jordanov, Corpus, 2, 118(b), p. 99-100; Jordanov, 1998, 28(2), p. 27; Mushmov, 1934, 19(2), p. 339</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 76, p. 35-36; Jordanov, Corpus, 3, 659, p. 243; Jordanov, Corpus, 2, 119(c), p. 99-100; Jordanov, 1998, 29(3), p. 27; Mushmov, 1934, 19(1), p. 339</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 78, p. 36</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 79, p. 36-37; Jordanov, Corpus, 3, 710, p. 259-260; Mushmov, 1934, 30, p. 343</t>
+  </si>
+  <si>
+    <t>ПУБЛИКАЦИЯ (ПУБЛИКАЦИИ)</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011, 161, стр. 80; Jordanov, Corpus, 3, 1933; Jordanov, Corpus, 2, 339</t>
+  </si>
+  <si>
+    <t>Jordanov, 2011,138, стр. 70; Jordanov, Corpus, 3, 1780; Jordanov, Corpus, 2, 710</t>
+  </si>
+  <si>
+    <t>COMMENTARY ON EDITION(S)</t>
+  </si>
+  <si>
+    <t>Jordanov mistook the cross at the beginning of the first line on the obverse for a theta, making an invocation to the Mother of God.</t>
+  </si>
+  <si>
+    <t>The seal preserves more letters that are not displayed in Jordanov’s diplomatic edition. It is possible that the author confused the reading of this seal with that published as Jordanov, Corpus, 3, no. 1631, p. 536, perhaps attributed to the same person.</t>
+  </si>
+  <si>
+    <t>Jordanov dated the seal in the years of Basil I. However, the alpha with broken horizontal line, as well as the short omega point to a much earlier date. There is no reason to assume that a bishop of Trabzon must have necessarily been also a metropolitan, since Trabzon was a suffragant bishopric in the eighth century, and Photeinos’ seal could have been issued in that period by a simple bishop.</t>
+  </si>
+  <si>
+    <t>There is no space for a third line. The name is spelled in Latin.</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgakova provides different size numbers. According to Bulgakova, there are two more types of this seal, issued with different boulloteria. </t>
   </si>
   <si>
-    <t xml:space="preserve">Jordanov has presented the seal as if Michael bears the family name Eustratios. In fact, the name Eustratios on the reverse refers to the Saint (also depicted on the obverse)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordanov dated the seal in the 10th-11th c., but it is an early one.</t>
+    <t>Jordanov has presented the seal as if Michael bears the family name Eustratios. In fact, the name Eustratios on the reverse refers to the Saint (also depicted on the obverse)</t>
+  </si>
+  <si>
+    <t>Jordanov dated the seal in the 10th-11th c., but it is an early one.</t>
   </si>
   <si>
     <r>
@@ -1795,7 +1800,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Mushmov read ΠΑΛΙΤΗΝ. Jordanov at first also read the same, interpreting the family name ΠΑΛΙΤΗΝΟC, which he associated with the well-known name ΠΑΛΑΤΙΝΟC. Later, Jordanov changed the reading to ΠΟΛΙΤΗΝ, interpreting it as ΠΟΛΙΤΗΝΟC. First, one must comment on the name’s second letter: it is true, that in the photo published by Mushmov, at a time when the seal was better preserved than today, the letter looks like an alpha, albeit thinner than the one right above it. However, close inspection of the specimen, as well as the high quality photo, show that the letter is closing below with a circular line, which makes it an omicron. Therefore, the reading should be ΠΟΛΙΤΗΝ. Second: there is no reason to search for abbreviated names since the family name ΠΟΛΙΤΗC was commonly attested in the 11</t>
+      <t>Mushmov read ΠΑΛΙΤΗΝ. Jordanov at first also read the same, interpreting the family name ΠΑΛΙΤΗΝΟC, which he associated with the well-known name ΠΑΛΑΤΙΝΟC. Later, Jordanov changed the reading to ΠΟΛΙΤΗΝ, interpreting it as ΠΟΛΙΤΗΝΟC. First, one must comment on the name’s second letter: it is true, that in the photo published by Mushmov, at a time when the seal was better preserved than today, the letter looks like an alpha, albeit thinner than the one right above it. However, close inspection of the specimen, as well as the high quality photo, show that the letter is closing below with a circular line, which makes it an omicron. Therefore, the reading should be ΠΟΛΙΤΗΝ. Second: there is no reason to search for abbreviated names since the family name ΠΟΛΙΤΗC was commonly attested in the 11</t>
     </r>
     <r>
       <rPr>
@@ -1806,7 +1811,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1827,7 +1832,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1841,7 +1846,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Jordanov described the figure on the obverse as a saint.</t>
+    <t>Jordanov described the figure on the obverse as a saint.</t>
   </si>
   <si>
     <r>
@@ -1852,7 +1857,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">According to Jordanov, the cross on the obverse occupies the whole field. In fact, there are two letters on either side of the lower quarters: the right one is a C, while the left looks like a reverse C, but the weak imprint does not allow for a certain identification. The tall cross is characteristic of the 6</t>
+      <t>According to Jordanov, the cross on the obverse occupies the whole field. In fact, there are two letters on either side of the lower quarters: the right one is a C, while the left looks like a reverse C, but the weak imprint does not allow for a certain identification. The tall cross is characteristic of the 6</t>
     </r>
     <r>
       <rPr>
@@ -1863,7 +1868,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1877,86 +1882,297 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">КОМЕНТАР НА ПУБЛИКАЦИИТЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARALLEL(S)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacos, 1, 2730a, p. 1532; Zacos,1, 2730b, p. 1533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO BZS.1951.31.5.1833 (DOS 3, 67.2); Vienna MK 219 (Laurent, Corpus, 5.1, 382)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archaeological Museum Veliki Preslav 20178 (Jordanov, 1993, 380; Jordanov, Corpus, 3, 1627, p. 536); RHM Shumen 14217 (Jordanov, 1993, 381; Jordanov, Corpus, 3, 1628, p. 536); RHM Shumen 15228 (Jordanov, Corpus, 3, 1629, p. 536); Private collection – Bulgaria (Jordanov, Corpus, 3, 1630, p. 536)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numismatic Museum, Athens, K618 (Stavrakos, coll. Athens, 2000, 54, p. 118-119; Konstantopoulos, coll. Athens, 1917, 618, p. 160)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Historical Museum, Sofia (Jordanov, Corpus, 3, 2849, p. 862)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHM Shumen 14857 (Jordanov, Corpus, 3, 1887, p. 622; Jordanov, Corpus, 2, 223, p. 152-153; Jordanov, Zhekova, coll. Shumen, 2007, 382)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHM Shumen 15210 (Jordanov, Corpus, 3, 2112, p. 684; Jordanov, Zhekova, coll. Shumen, 2007, 418)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No parallels known</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numismatic Museum, Athens, K492δ (Stavrakos, coll. Athens, 2000, 70, p. 137-138; Laurent, 1932, 482; Konstantopoulos, coll. Athens, 1917, 492δ, p. 335)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАРАЛЕЛ (ПАРАЛЕЛИ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacos, 1, 2730a, стр. 1532; Zacos,1, 2730b, стр. 1533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Няма известни паралели</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMENTARY ON PARALLEL(S)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All seals were struck with the same boulloterion</t>
+    <t>КОМЕНТАР НА ПУБЛИКАЦИИТЕ</t>
+  </si>
+  <si>
+    <t>PARALLEL(S)</t>
+  </si>
+  <si>
+    <t>Zacos, 1, 2730a, p. 1532; Zacos,1, 2730b, p. 1533</t>
+  </si>
+  <si>
+    <t>DO BZS.1951.31.5.1833 (DOS 3, 67.2); Vienna MK 219 (Laurent, Corpus, 5.1, 382)</t>
+  </si>
+  <si>
+    <t>Archaeological Museum Veliki Preslav 20178 (Jordanov, 1993, 380; Jordanov, Corpus, 3, 1627, p. 536); RHM Shumen 14217 (Jordanov, 1993, 381; Jordanov, Corpus, 3, 1628, p. 536); RHM Shumen 15228 (Jordanov, Corpus, 3, 1629, p. 536); Private collection – Bulgaria (Jordanov, Corpus, 3, 1630, p. 536)</t>
+  </si>
+  <si>
+    <t>Numismatic Museum, Athens, K618 (Stavrakos, coll. Athens, 2000, 54, p. 118-119; Konstantopoulos, coll. Athens, 1917, 618, p. 160)</t>
+  </si>
+  <si>
+    <t>National Historical Museum, Sofia (Jordanov, Corpus, 3, 2849, p. 862)</t>
+  </si>
+  <si>
+    <t>RHM Shumen 14857 (Jordanov, Corpus, 3, 1887, p. 622; Jordanov, Corpus, 2, 223, p. 152-153; Jordanov, Zhekova, coll. Shumen, 2007, 382)</t>
+  </si>
+  <si>
+    <t>RHM Shumen 15210 (Jordanov, Corpus, 3, 2112, p. 684; Jordanov, Zhekova, coll. Shumen, 2007, 418)</t>
+  </si>
+  <si>
+    <t>No parallels known</t>
+  </si>
+  <si>
+    <t>Numismatic Museum, Athens, K492δ (Stavrakos, coll. Athens, 2000, 70, p. 137-138; Laurent, 1932, 482; Konstantopoulos, coll. Athens, 1917, 492δ, p. 335)</t>
+  </si>
+  <si>
+    <t>ПАРАЛЕЛ (ПАРАЛЕЛИ)</t>
+  </si>
+  <si>
+    <t>Zacos, 1, 2730a, стр. 1532; Zacos,1, 2730b, стр. 1533</t>
+  </si>
+  <si>
+    <t>Няма известни паралели</t>
+  </si>
+  <si>
+    <t>COMMENTARY ON PARALLEL(S)</t>
+  </si>
+  <si>
+    <t>All seals were struck with the same boulloterion</t>
   </si>
   <si>
     <t xml:space="preserve">According to Laurent, the Vienna specimen and the one mentioned by Schlumberger (Sig., p. 250-251) are the same object. This statement is repeated by the editors of the DO catalogue. It is not clear why Laurent assumed this: Schlumberger only noted that the information about this seal was sent to him by A. Sorlin-Dorigny. There is no photo, no drawing, and no information about the place where that seal was kept. Considering the above, it is possible that Schlumberger was referring not to the Vienna seal, but to another specimen, whose destiny is still unknown to scholars. </t>
   </si>
   <si>
-    <t xml:space="preserve">Similar specimens, struck with different boulloteria, in: Bulgakova, 2004, p. 245-247. The seals were issued by Ratibor, deputy of the prince of Kiev.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another two specimen were issued with different boulloteria – the differences are visible on both the obverse and the reverse: Sofia, NAIM, 42 (see here); unknown present location (Spink Auction 127, coll. Zacos, part 1, 1998, 79, p. 41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another three specimen were issued with different boulloteria – the differences are visible on both the obverse and the reverse: Sofia, NAIM, 144 (see here); unknown present location (Spink Auction 127, coll. Zacos, part 1, 1998, 79, p. 41); Numismatic Museum, Athens, K492δ (Stavrakos, coll. Athens, 2000, 70, p. 137-138; Laurent, 1932, 482; Konstantopoulos, coll. Athens, 1917, 492δ, p. 335)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМЕНТАР НА ПАРАЛЕЛИТЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всички печати са отсечени с един и същи булотирион</t>
+    <t>Similar specimens, struck with different boulloteria, in: Bulgakova, 2004, p. 245-247. The seals were issued by Ratibor, deputy of the prince of Kiev.</t>
+  </si>
+  <si>
+    <t>Another two specimen were issued with different boulloteria – the differences are visible on both the obverse and the reverse: Sofia, NAIM, 42 (see here); unknown present location (Spink Auction 127, coll. Zacos, part 1, 1998, 79, p. 41)</t>
+  </si>
+  <si>
+    <t>Another three specimen were issued with different boulloteria – the differences are visible on both the obverse and the reverse: Sofia, NAIM, 144 (see here); unknown present location (Spink Auction 127, coll. Zacos, part 1, 1998, 79, p. 41); Numismatic Museum, Athens, K492δ (Stavrakos, coll. Athens, 2000, 70, p. 137-138; Laurent, 1932, 482; Konstantopoulos, coll. Athens, 1917, 492δ, p. 335)</t>
+  </si>
+  <si>
+    <t>КОМЕНТАР НА ПАРАЛЕЛИТЕ</t>
+  </si>
+  <si>
+    <t>Всички печати са отсечени с един и същи булотирион</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">EDITION INTERPRETIVE</t>
+    <t>EDITION INTERPRETIVE</t>
+  </si>
+  <si>
+    <t>1 [Θ(εοτό)]κ[ε β(οή)θ(ει)] /2 [Ἀ]δριανὸ[ν] /3 τὸν Δαλα- /4 σινόν</t>
+  </si>
+  <si>
+    <t>1 Mau- /2 rici[i]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – (Μηνᾶ)</t>
+  </si>
+  <si>
+    <t>EDITION DIPLOMATIC</t>
+  </si>
+  <si>
+    <t>1  /2Φ̣ΩΤΙΩ /3.ΠΙΣΚΟΠΩ /4Τ̣ΡΠΕ /5ΟΥ</t>
+  </si>
+  <si>
+    <t>1[] /2.Κ̣… /3.ΔΡΙΑΟ. /4ΤΟΔΑΛΑ /5ΣΙΟ /6[]</t>
+  </si>
+  <si>
+    <t>1mav /2Ṛici.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Μ - Η - Ν - </t>
+  </si>
+  <si>
+    <t>. - Σ – Μ -  - Υ – Ρ – Ι – Α – Ν – Ο – Υ</t>
+  </si>
+  <si>
+    <t>APPARATUS</t>
+  </si>
+  <si>
+    <t>L. 2: reverse N and A in ligature</t>
+  </si>
+  <si>
+    <t>L. 6: Κέα(ς)</t>
+  </si>
+  <si>
+    <t>КРИТИЧЕН АПАРАТ</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>Κομνηνὸς Ἀνδρόνικος ἐξ Εὐδοκίας πορφυροφυοῦς ἐκ φυεὶς ῥίζης κλἀδος ἀνεψιὸς δἐ Μανουὴλ βασιλέως – υἱὸς Βατάτζου δεσπότου Θεοδώρου ἐμὲ προΐστη καὶ λόγων καὶ πραγμάτων</t>
+  </si>
+  <si>
+    <t>Μήτηρ Θεοῦ. Ἐκ σοῦ μοναχὸς Ἀρσένιος Τζαμπλάκων Πάναγνε κυροῖ καὶ γραφὰς και πρακτέα</t>
+  </si>
+  <si>
+    <t>Κύριε βοήθει τῷ σῷ δούλῳ Κοσμᾷ ἐπισκόπῳ Προύσης</t>
+  </si>
+  <si>
+    <t>Κύριε βοήθει τῷ σῷ δούλῳ Ἰωάννῃ κουβουκλεισίῳ καὶ νοταρίῳ</t>
+  </si>
+  <si>
+    <t>Θεοτόκε βοήθει Θεοφυλάκτῳ ἀρχιεπισκόπῳ Κωνσταντινουπόλεως Νέας Ῥώμης</t>
+  </si>
+  <si>
+    <t>Μήτηρ Θεοῦ. Τῆς λαύρας τοῦ κυρίου Ἀντωνίου</t>
+  </si>
+  <si>
+    <t>Θεοτόκε βοήθει Φωτεινῷ ἐπισκόπῳ Τραπεζοῦντος</t>
+  </si>
+  <si>
+    <t>Μήτηρ Θεοῦ. Σκέποις μυστικοῦ ποιμνίου σὺ Παρθένε Βελεβουσδίου ποιμένα Ἰωάννην</t>
+  </si>
+  <si>
+    <t>Θεοτόκε βοήθει Ἀδριανὸν τὸν Δαλασσηνόν</t>
+  </si>
+  <si>
+    <t>Μήτηρ Θεοῦ. Σφραγὶς γραφὰς πιστοῦσα τοῦ Κανναβούτζη</t>
+  </si>
+  <si>
+    <t>Mauricii</t>
+  </si>
+  <si>
+    <t>Ὁ ἅγιος Κλημέντιος. Wт Ратибора</t>
+  </si>
+  <si>
+    <t>῾Ο ἅγιος Εὐστράτιος. Σόν, Εὐστράτιε, Μιχαὴλ δοῦλον σκέποις</t>
+  </si>
+  <si>
+    <t>Κύριε βοήθει τῷ σῷ δούλῳ Ἐλευθερίῳ</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 [Κο]μνηνὸ[ς] /2 [Ἀν]δρόνικος /3 [ἐξ Ε]ὐδοκίας /4 [πορ]φυροφυοῦς /5 [ἐκ] φυεὶς ῥίζης /6 [κλ]ἀδος ἀνεψι&lt;ὸ-&gt; /7 [ς δ]ἐ Μανουὴλ /8 [βα]σιλέως - 1 [υἱ]ὸς Βατ&lt;ά-&gt; /2 τζου δεσπ[ό-] /3 του Θεοδώρου /4 ἐμὲ προΐστ[η] /5 κ(α</t>
+      <t>Μην</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ᾶ</t>
+    </r>
+  </si>
+  <si>
+    <t>Μήτηρ Θεοῦ. Θεοφύλακτον Πολίτην Ἁγνή σκέποις</t>
+  </si>
+  <si>
+    <t>Μήτηρ Θεοῦ. Στέφανος […]</t>
+  </si>
+  <si>
+    <t>[…] Μαυριανοῦ</t>
+  </si>
+  <si>
+    <t>TRANSLATION</t>
+  </si>
+  <si>
+    <t>Andronikos Komnenos, distinguished by his birth and origin from Eudokia born in the purple, nephew of the emperor Manuel, son of the despotes Theodore Vatatzes, has set me over his words and acts</t>
+  </si>
+  <si>
+    <t>(It is) Through you, All-holy One, (that) Arsenios Tzamplakon the monk authenticates his scripts and acts</t>
+  </si>
+  <si>
+    <t>Lord, aid your servant Kosmas, bishop of Prousa</t>
+  </si>
+  <si>
+    <t>Lord, aid your servant Ioannes, kouboukleisios and notarios</t>
+  </si>
+  <si>
+    <t>Mother of God, aid Theophylaktos, archbishop of Constantinople, the New Rome</t>
+  </si>
+  <si>
+    <t>Mother of God. (The seal of) The Laura of kyr Antonios</t>
+  </si>
+  <si>
+    <t>Mother of God, aid Photeinos, bishop of Trapezous</t>
+  </si>
+  <si>
+    <t>Mother of God. Virgin [...] may you protect Ioannes bishop of Velebousdion</t>
+  </si>
+  <si>
+    <t>Mother of God, aid Adrianos Dalassenos</t>
+  </si>
+  <si>
+    <t>Mother of God. Seal authenticating the writings of Kanaboutzes</t>
+  </si>
+  <si>
+    <t>(Seal of) Mauricius</t>
+  </si>
+  <si>
+    <t>From Ratibor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Eustratios. Eustratios, may you protect your servant Michael </t>
+  </si>
+  <si>
+    <t>Lord, aid your servant Eleutherios</t>
+  </si>
+  <si>
+    <t>(Seal of) Menas</t>
+  </si>
+  <si>
+    <t>Mother of God. Pure one, may you protect Theophylaktos Polites</t>
+  </si>
+  <si>
+    <t>Mother of God. Stephanos […]</t>
+  </si>
+  <si>
+    <t>[…] (Seal of) Maurianos</t>
+  </si>
+  <si>
+    <t>ПРЕВОД НА НАДПИСИТЕ</t>
+  </si>
+  <si>
+    <t>Богородица. (Печат на) Лаврата на господина Антоний</t>
+  </si>
+  <si>
+    <t>(Печат на) Маврикий</t>
+  </si>
+  <si>
+    <t>От Ратибор</t>
+  </si>
+  <si>
+    <t>(Печат на) Мина</t>
+  </si>
+  <si>
+    <t>Богородица. Стефан […]</t>
+  </si>
+  <si>
+    <t>[…] (Печат на) Мавриан</t>
+  </si>
+  <si>
+    <t>COMMENTARY ON TEXT</t>
+  </si>
+  <si>
+    <t>The name could be reconstructed either in Nominative - Στέ[φ]αν(ος), or in Genitive - Στε[φ]άν(ου), or in Dative – Στε[φ]άν(ῳ). The Nominative seems more plausible, if one accepts that the following word is a family name ending in sigma, which, however, is not certain at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The block monogram contains several certain and a few uncertain letters. Not all of them are necessarily used to give the key word. From left to right: V, P (reverse), Ι, N (reverse), A, M, Λ, Ο. Excluding the Λ, the remaining letters form the name MAVPIANOV. The reverse N is attested, albeit rarely, in block monograms of the early period (e.g. Zacos, 1, plate 241, no. 438 and plate 245, no. 234A).  </t>
+  </si>
+  <si>
+    <t>КОМЕНТАР НА НАДПИСИТЕ</t>
+  </si>
+  <si>
+    <t>FOOTNOTES</t>
+  </si>
+  <si>
+    <t>БЕЛЕЖКИ ПОД ЛИНИЯ</t>
+  </si>
+  <si>
+    <t>BIBLIOGRAPHY</t>
+  </si>
+  <si>
+    <t>БИБЛИОГРАФИЯ</t>
+  </si>
+  <si>
+    <r>
+      <t>1 [Κο]μνηνὸ[ς] /2 [Ἀν]δρόνικος /3 [ἐξ Ε]ὐδοκίας /4 [πορ]φυροφυοῦς /5 [ἐκ] φυεὶς ῥίζης /6 [κλ]ἀδος ἀνεψι&lt;ὸ-&gt; /7 [ς δ]ἐ Μανουὴλ /8 [βα]σιλέως -- 1 [υἱ]ὸς Βατ&lt;ά-&gt; /2 τζου δεσπ[ό-] /3 του Θεοδώρου /4 ἐμὲ προΐστ[η] /5 κ(α</t>
     </r>
     <r>
       <rPr>
@@ -1965,7 +2181,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ὶ</t>
+      <t>ὶ</t>
     </r>
     <r>
       <rPr>
@@ -1974,118 +2190,84 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">) λόγων /6 καὶ πραγ- /7 μάτων</t>
+      <t>) λόγων /6 καὶ πραγ- /7 μάτων</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1 Μ(ήτη)ρ Θ(εο)ῦ  – 1 Ἐκ σοῦ /2 μοναχὸς Ἀρ- /3 σένιος Τζαμ- /4 πλάκων Π[άνα-] /5 γνε κυροῖ καὶ /6 γραφὰς και π- /7 ρακτέα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Κ(ύρι)ε /2 [β]οήθι /3 [τ]ῷ σῷ /4 δούλ(ῳ) - 1 Κοσμᾶ /2 [ἐ]πισκό- /3 πῳ Πρού- /4 σης</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Κ(ύρι)ε βωήθει τῷ σῷ δούλ(ῳ) - 1 Ἰω(άννῃ) κου- /2 βουκλησ(ίῳ) /3 (καὶ) νοτα- /4 ρίο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Θε[οτ]όκε βοήθει – 1 Θεοφυ- /2 [λ]άκτῳ ἀρ- /3 χιεπισκό- /4 π(ῳ) Κωνσταν- /5 τ(ινου)πόλ(εως) Νέα(ς) /6  Ῥώμης</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Μ(ήτη)ρ Θ(εο)ῦ  – 1 Τῆς /2 λαύρας /3 τοῦ κ(υρίο)υ Ἀν- /4 [τ]ωνί[ου]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Θεοτόκε βοήθει)  – 1 Φωτινῷ /2 [ἐ]πισκόπῳ /3 Τραπε- /4 ζοῦ(ντος)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μ(ήτη)ρ Θ(εο)ῦ –  1 Σκέποις μ(υσ-) /2 τικοῦ [π]οιμνήου /3 [σ]ὺ Παρθένε Βε- /4 λεβουσδίου ποι- /5 μένα Ἰωά- /6 ννην</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 [Θ(εοτό)]κ[ε β(οή)θ(ει)] /2 [Ἀ]δριανὸ[ν] /3 τὸν Δαλα- /4 σινόν</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μή(τη)ρ Θ(εο)ῦ. – 1 Σφρα- /2 γὶς γραφὰς /3 πιστοῦσα /4 τοῦ Καννα- /5 βο[ύ]τζι</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Mau- /2 rici[i]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a (Ὁ ἅγιος) Κλη- - b μέ[ν]τ(ιος) – 1 ωт /2 Рати- /3 бора</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a ῾Ο ἅγιος - b Εὐστράτ(ιος) – 1 Σόν Εὐ- /2 στράτιε /3 Μιχαὴλ /4 δοῦλον /5 σκέποι[ς]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Κ(ύρι)ε /2 [β]οήθει /3 τῷ σῷ – 1 δούλῳ /2 [Ἐ]λευθε- /3 ρίῳ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> – (Μηνᾶ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μή(τη)ρ Θ(εο)ῦ –  1 Θεοφύ- /2 λακτον /3 Πολίτην /4 [Ἁ]γνή σκέ- /5 [π]οι[ς]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Μή(τη)ρ] Θ[(εο)ῦ] –  1 Στε- /2 [φ]αν(...) [.]α /3 [.]τας</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[.]σ – (Μαυριανοῦ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDITION DIPLOMATIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1..μνηνο. /2.ΔΡΟΝΙΚΟΣ /3..υδοκιας /4..ρΦΥΡΟΦΥς /5.ΦυιςριΖΗΣ /6.ΛΑΔΟΣΑΝΕΨΙ /7..ΕΜΑΝΗΛ /8..ΣΙΛΕΟΣ – 1..ΟΣRΑΤ /2ΤΖΔΕΣΠ. /3ΤΘΕΟΔΩΡ /4ΕΜΕΠΡΟΙΣΤ. /5ΚΕΛΟΓΩΝ /6ΚΑΙΠΡΑΓ /7ΜΑΤΩΝ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1̅ΘΥ̅ – 1ΕΚ̣ΣΟ̣Υ̣ /2ΜΟΑΧΟΣΑ̣Ρ̣ /3ΣΕΝΙΟΣΤΑ̣Μ̣ /4ΠΛ̣ΑΚΠ̣.. /5ΓΕΚΥ̣ΡΟΙΚ̣Α̣Ι /6ΓΡΑΦΑ̣ΣΚΑΙΠ /7ΡΑΚΤ̣ΕΑ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1̣Ε /2.ΟΗΘΙ /3.Σ /4Λ, /5 – 1 ̣ΟΣΜ /2.ΙΣΟ /3̣̣ /4ΣΗΣ /5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ΕΗΘΕΙΤΣΟΥΛ   – 1 /2̣Ι̅ /3̣ΛΗΣ, /4.ΝΟΤΑ̣ /5ΡΙΟ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ΘΕ.Ο̣Ε̣ΟΗΘΕΙ – 1ΘΕΟΥ /2.ΑΤ,ΑΡ̣ /3ΧΙΕΠΙΣΟ̣ /4Π,ΝΣΤΑΝ /5Τ,ΠΟΛ,ΕΑ⸊ /6ΜΗΣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1̅ Θ̅Υ – 1 /2ΤΗΣ /3ΛΑΥΑΣ /4Τ͵ΥΑΝ /5.Ι. /6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1  /2Φ̣ΩΤΙΩ /3.ΠΙΣΚΟΠΩ /4Τ̣ΡΠΕ /5ΟΥ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μ̅Ρ Θ̅Υ – 1 .ΣΚΕΠΟ̣ΙΣΜ /2ΤΙΚ.Ο̣ΙΜ /3.ΥΠΑΡΘ̣ΕΝΕΕ /4Λ̣ΕΟΥΣΔΙΠΟΙ /5ΜΕΝΑΙΑ /6ΝΝΗΝ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1[] /2.Κ̣… /3.ΔΡΙΑΟ. /4ΤΟΔΑΛΑ /5ΣΙΟ /6[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">̅ Θ̅Υ – 1̣ΣΦ̣ΡΑ /2ΓΙΣΓΡΑΦΑΣ /3ΠΙΣΤΟΥΣΑ /4ΤΟΥΚΑΝΝΑ /5Ο.Ι</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1mav /2Ṛici.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a |ΚΛ|Η - b Μ|Ε.|Τ –  1ΩΤ /2ΡΤΗ /3БΟΡ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a Ο|Α|ΓΙ|ΟΣ - b Ε|Υ|ΣΤ|ΡΑ̣|Τ̣ –  1 /2ΣΟΕ /3ΣΤΡΑΤΙΕ̣ /4ΙΧΑΗΛ̣ /5ΔΟΥΛΟ̣ /6Σ̣ΚΕΠΟ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ΚΕ̅ /2.Ο̣ΗΘΕΙ /3Τ̣Σ – 1 /2Δ̣Λ /3.ΛΕΥΘΕ /4ΡΙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> – Μ - Η - Ν - </t>
+    <t>1..μνηνο. /2.ΔΡΟΝΙΚΟΣ /3..υδοκιας /4..ρΦΥΡΟΦΥς /5.ΦυιςριΖΗΣ /6.ΛΑΔΟΣΑΝΕΨΙ /7..ΕΜΑΝΗΛ /8..ΣΙΛΕΟΣ-- 1..ΟΣRΑΤ /2ΤΖΔΕΣΠ. /3ΤΘΕΟΔΩΡ /4ΕΜΕΠΡΟΙΣΤ. /5ΚΕΛΟΓΩΝ /6ΚΑΙΠΡΑΓ /7ΜΑΤΩΝ</t>
+  </si>
+  <si>
+    <t>1 Μ(ήτη)ρ Θ(εο)ῦ  -- 1 Ἐκ σοῦ /2 μοναχὸς Ἀρ- /3 σένιος Τζαμ- /4 πλάκων Π[άνα-] /5 γνε κυροῖ καὶ /6 γραφὰς και π- /7 ρακτέα</t>
+  </si>
+  <si>
+    <t>1̅ΘΥ̅ -- 1ΕΚ̣ΣΟ̣Υ̣ /2ΜΟΑΧΟΣΑ̣Ρ̣ /3ΣΕΝΙΟΣΤΑ̣Μ̣ /4ΠΛ̣ΑΚΠ̣.. /5ΓΕΚΥ̣ΡΟΙΚ̣Α̣Ι /6ΓΡΑΦΑ̣ΣΚΑΙΠ /7ΡΑΚΤ̣ΕΑ</t>
+  </si>
+  <si>
+    <t>1 Κ(ύρι)ε /2 [β]οήθι /3 [τ]ῷ σῷ /4 δούλ(ῳ) -- 1 Κοσμᾶ /2 [ἐ]πισκό- /3 πῳ Πρού- /4 σης</t>
+  </si>
+  <si>
+    <t>1̣Ε /2.ΟΗΘΙ /3.Σ /4Λ, /5 -- 1 ̣ΟΣΜ /2.ΙΣΟ /3̣̣ /4ΣΗΣ /5</t>
+  </si>
+  <si>
+    <t>1 Κ(ύρι)ε βωήθει τῷ σῷ δούλ(ῳ) -- 1 Ἰω(άννῃ) κου- /2 βουκλησ(ίῳ) /3 (καὶ) νοτα- /4 ρίο</t>
+  </si>
+  <si>
+    <t>1ΕΗΘΕΙΤΣΟΥΛ   -- 1 /2̣Ι̅ /3̣ΛΗΣ, /4.ΝΟΤΑ̣ /5ΡΙΟ</t>
+  </si>
+  <si>
+    <t>1 Θε[οτ]όκε βοήθει -- 1 Θεοφυ- /2 [λ]άκτῳ ἀρ- /3 χιεπισκό- /4 π(ῳ) Κωνσταν- /5 τ(ινου)πόλ(εως) Νέα(ς) /6  Ῥώμης</t>
+  </si>
+  <si>
+    <t>1ΘΕ.Ο̣Ε̣ΟΗΘΕΙ -- 1ΘΕΟΥ /2.ΑΤ,ΑΡ̣ /3ΧΙΕΠΙΣΟ̣ /4Π,ΝΣΤΑΝ /5Τ,ΠΟΛ,ΕΑ⸊ /6ΜΗΣ</t>
+  </si>
+  <si>
+    <t>1 Μ(ήτη)ρ Θ(εο)ῦ  -- 1 Τῆς /2 λαύρας /3 τοῦ κ(υρίο)υ Ἀν- /4 [τ]ωνί[ου]</t>
+  </si>
+  <si>
+    <t>1̅ Θ̅Υ -- 1 /2ΤΗΣ /3ΛΑΥΑΣ /4Τ͵ΥΑΝ /5.Ι. /6</t>
+  </si>
+  <si>
+    <t>(Θεοτόκε βοήθει)  -- 1 Φωτινῷ /2 [ἐ]πισκόπῳ /3 Τραπε- /4 ζοῦ(ντος)</t>
+  </si>
+  <si>
+    <t>Μ(ήτη)ρ Θ(εο)ῦ --  1 Σκέποις μ(υσ-) /2 τικοῦ [π]οιμνήου /3 [σ]ὺ Παρθένε Βε- /4 λεβουσδίου ποι- /5 μένα Ἰωά- /6 ννην</t>
+  </si>
+  <si>
+    <t>Μ̅Ρ Θ̅Υ -- 1 .ΣΚΕΠΟ̣ΙΣΜ /2ΤΙΚ.Ο̣ΙΜ /3.ΥΠΑΡΘ̣ΕΝΕΕ /4Λ̣ΕΟΥΣΔΙΠΟΙ /5ΜΕΝΑΙΑ /6ΝΝΗΝ</t>
+  </si>
+  <si>
+    <t>Μή(τη)ρ Θ(εο)ῦ. -- 1 Σφρα- /2 γὶς γραφὰς /3 πιστοῦσα /4 τοῦ Καννα- /5 βο[ύ]τζι</t>
+  </si>
+  <si>
+    <t>̅ Θ̅Υ -- 1̣ΣΦ̣ΡΑ /2ΓΙΣΓΡΑΦΑΣ /3ΠΙΣΤΟΥΣΑ /4ΤΟΥΚΑΝΝΑ /5Ο.Ι</t>
+  </si>
+  <si>
+    <t>a (Ὁ ἅγιος) Κλη- - b μέ[ν]τ(ιος) -- 1 ωт /2 Рати- /3 бора</t>
+  </si>
+  <si>
+    <t>a |ΚΛ|Η - b Μ|Ε.|Τ --  1ΩΤ /2ΡΤΗ /3БΟΡ</t>
+  </si>
+  <si>
+    <t>a ῾Ο ἅγιος - b Εὐστράτ(ιος) -- 1 Σόν Εὐ- /2 στράτιε /3 Μιχαὴλ /4 δοῦλον /5 σκέποι[ς]</t>
+  </si>
+  <si>
+    <t>a Ο|Α|ΓΙ|ΟΣ - b Ε|Υ|ΣΤ|ΡΑ̣|Τ̣ --  1 /2ΣΟΕ /3ΣΤΡΑΤΙΕ̣ /4ΙΧΑΗΛ̣ /5ΔΟΥΛΟ̣ /6Σ̣ΚΕΠΟ.</t>
+  </si>
+  <si>
+    <t>1 Κ(ύρι)ε /2 [β]οήθει /3 τῷ σῷ -- 1 δούλῳ /2 [Ἐ]λευθε- /3 ρίῳ</t>
+  </si>
+  <si>
+    <t>1ΚΕ̅ /2.Ο̣ΗΘΕΙ /3Τ̣Σ -- 1 /2Δ̣Λ /3.ΛΕΥΘΕ /4ΡΙ</t>
+  </si>
+  <si>
+    <t>Μή(τη)ρ Θ(εο)ῦ --  1 Θεοφύ- /2 λακτον /3 Πολίτην /4 [Ἁ]γνή σκέ- /5 [π]οι[ς]</t>
+  </si>
+  <si>
+    <t>̅ Θ̅Υ -- 1  /2ΘΕΟΦΥ /3ΛΑΚΤΟ /4ΠΟΛΙΤΗ /5.ΓΣΚΕ /6.ΟΙ.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Athena Ruby"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">̅ Θ̅Υ </t>
+      <t>.. Θ. --</t>
     </r>
     <r>
       <rPr>
@@ -2095,276 +2277,39 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">–</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Athena Ruby"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 1  /2ΘΕΟΦΥ /3ΛΑΚΤΟ /4ΠΟΛΙΤΗ /5.ΓΣΚΕ /6.ΟΙ.</t>
+      <t>1 /2̣ΣΤΕ /3.Α͂, .̄ Α̣ /4.Τ̣Α̣Σ /5</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Athena Ruby"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.. Θ. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">– </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Athena Ruby"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 /2̣ΣΤΕ /3.Α͂, .̄ Α̣ /4.Τ̣Α̣Σ /5</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">. - Σ – Μ -  - Υ – Ρ – Ι – Α – Ν – Ο – Υ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPARATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L. 2: reverse N and A in ligature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L. 6: Κέα(ς)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КРИТИЧЕН АПАРАТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEGEND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κομνηνὸς Ἀνδρόνικος ἐξ Εὐδοκίας πορφυροφυοῦς ἐκ φυεὶς ῥίζης κλἀδος ἀνεψιὸς δἐ Μανουὴλ βασιλέως – υἱὸς Βατάτζου δεσπότου Θεοδώρου ἐμὲ προΐστη καὶ λόγων καὶ πραγμάτων</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μήτηρ Θεοῦ. Ἐκ σοῦ μοναχὸς Ἀρσένιος Τζαμπλάκων Πάναγνε κυροῖ καὶ γραφὰς και πρακτέα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κύριε βοήθει τῷ σῷ δούλῳ Κοσμᾷ ἐπισκόπῳ Προύσης</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κύριε βοήθει τῷ σῷ δούλῳ Ἰωάννῃ κουβουκλεισίῳ καὶ νοταρίῳ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Θεοτόκε βοήθει Θεοφυλάκτῳ ἀρχιεπισκόπῳ Κωνσταντινουπόλεως Νέας Ῥώμης</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μήτηρ Θεοῦ. Τῆς λαύρας τοῦ κυρίου Ἀντωνίου</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Θεοτόκε βοήθει Φωτεινῷ ἐπισκόπῳ Τραπεζοῦντος</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μήτηρ Θεοῦ. Σκέποις μυστικοῦ ποιμνίου σὺ Παρθένε Βελεβουσδίου ποιμένα Ἰωάννην</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Θεοτόκε βοήθει Ἀδριανὸν τὸν Δαλασσηνόν</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μήτηρ Θεοῦ. Σφραγὶς γραφὰς πιστοῦσα τοῦ Κανναβούτζη</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ὁ ἅγιος Κλημέντιος. Wт Ратибора</t>
-  </si>
-  <si>
-    <t xml:space="preserve">῾Ο ἅγιος Εὐστράτιος. Σόν, Εὐστράτιε, Μιχαὴλ δοῦλον σκέποις</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κύριε βοήθει τῷ σῷ δούλῳ Ἐλευθερίῳ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Μην</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ᾶ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Μήτηρ Θεοῦ. Θεοφύλακτον Πολίτην Ἁγνή σκέποις</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μήτηρ Θεοῦ. Στέφανος […]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[…] Μαυριανοῦ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSLATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andronikos Komnenos, distinguished by his birth and origin from Eudokia born in the purple, nephew of the emperor Manuel, son of the despotes Theodore Vatatzes, has set me over his words and acts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(It is) Through you, All-holy One, (that) Arsenios Tzamplakon the monk authenticates his scripts and acts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lord, aid your servant Kosmas, bishop of Prousa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lord, aid your servant Ioannes, kouboukleisios and notarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of God, aid Theophylaktos, archbishop of Constantinople, the New Rome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of God. (The seal of) The Laura of kyr Antonios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of God, aid Photeinos, bishop of Trapezous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of God. Virgin [...] may you protect Ioannes bishop of Velebousdion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of God, aid Adrianos Dalassenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of God. Seal authenticating the writings of Kanaboutzes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Seal of) Mauricius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Ratibor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Eustratios. Eustratios, may you protect your servant Michael </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lord, aid your servant Eleutherios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Seal of) Menas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of God. Pure one, may you protect Theophylaktos Polites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of God. Stephanos […]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[…] (Seal of) Maurianos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРЕВОД НА НАДПИСИТЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богородица. (Печат на) Лаврата на господина Антоний</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Печат на) Маврикий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">От Ратибор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Печат на) Мина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богородица. Стефан […]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[…] (Печат на) Мавриан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMENTARY ON TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name could be reconstructed either in Nominative - Στέ[φ]αν(ος), or in Genitive - Στε[φ]άν(ου), or in Dative – Στε[φ]άν(ῳ). The Nominative seems more plausible, if one accepts that the following word is a family name ending in sigma, which, however, is not certain at all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The block monogram contains several certain and a few uncertain letters. Not all of them are necessarily used to give the key word. From left to right: V, P (reverse), Ι, N (reverse), A, M, Λ, Ο. Excluding the Λ, the remaining letters form the name MAVPIANOV. The reverse N is attested, albeit rarely, in block monograms of the early period (e.g. Zacos, 1, plate 241, no. 438 and plate 245, no. 234A).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМЕНТАР НА НАДПИСИТЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOOTNOTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЕЖКИ ПОД ЛИНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIBLIOGRAPHY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИБЛИОГРАФИЯ</t>
+    <t>[Μή(τη)ρ] Θ[(εο)ῦ] --  1 Στε- /2 [φ]αν(...) [.]α /3 [.]τας</t>
+  </si>
+  <si>
+    <t>[.]σ -- (Μαυριανοῦ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2403,20 +2348,17 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Athena Ruby"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Athena Ruby"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2442,148 +2384,106 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2642,54 +2542,382 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z66" activeCellId="0" sqref="Z66"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="T120" sqref="T120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="5" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="30.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="5" width="16.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="5" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="6" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="6" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="6" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="6" width="21.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="7" width="8.57"/>
+    <col min="1" max="1" width="60.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12" style="5" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="30.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="5"/>
+    <col min="20" max="20" width="13.1640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="16.83203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="6" customWidth="1"/>
+    <col min="23" max="23" width="18.1640625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="15" style="6" customWidth="1"/>
+    <col min="25" max="25" width="15.5" style="6" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" style="6" customWidth="1"/>
+    <col min="27" max="1024" width="8.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +2997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="43">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2849,7 +3077,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -2929,7 +3157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -3009,7 +3237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -3089,7 +3317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -3169,7 +3397,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -3249,7 +3477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,7 +3557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="28">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -3409,7 +3637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="28">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
@@ -3489,7 +3717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="42">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -3569,87 +3797,87 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>182</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>183</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="3">
         <v>278</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>251</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>245</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="4">
         <v>90</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="5">
         <v>135</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="5">
         <v>86</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="5">
         <v>132</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="5">
         <v>133</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="5">
         <v>317</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="5">
         <v>91</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="5">
         <v>131</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="5">
         <v>312</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="5">
         <v>29</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="Q12" s="5">
         <v>49</v>
       </c>
-      <c r="R12" s="5" t="n">
+      <c r="R12" s="5">
         <v>181</v>
       </c>
-      <c r="S12" s="5" t="n">
+      <c r="S12" s="5">
         <v>238</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="T12" s="6">
         <v>127</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="U12" s="6">
         <v>144</v>
       </c>
-      <c r="V12" s="6" t="n">
+      <c r="V12" s="6">
         <v>42</v>
       </c>
-      <c r="W12" s="6" t="n">
+      <c r="W12" s="6">
         <v>39</v>
       </c>
-      <c r="X12" s="6" t="n">
+      <c r="X12" s="6">
         <v>54</v>
       </c>
-      <c r="Y12" s="6" t="n">
+      <c r="Y12" s="6">
         <v>243</v>
       </c>
-      <c r="Z12" s="6" t="n">
+      <c r="Z12" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="28">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -3707,29 +3935,29 @@
       <c r="S13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="10" t="n">
+      <c r="T13" s="10">
         <v>45119</v>
       </c>
-      <c r="U13" s="10" t="n">
+      <c r="U13" s="10">
         <v>45147</v>
       </c>
-      <c r="V13" s="10" t="n">
+      <c r="V13" s="10">
         <v>45147</v>
       </c>
-      <c r="W13" s="10" t="n">
+      <c r="W13" s="10">
         <v>45147</v>
       </c>
-      <c r="X13" s="10" t="n">
+      <c r="X13" s="10">
         <v>45147</v>
       </c>
-      <c r="Y13" s="10" t="n">
+      <c r="Y13" s="10">
         <v>45147</v>
       </c>
-      <c r="Z13" s="10" t="n">
+      <c r="Z13" s="10">
         <v>45147</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
@@ -3809,7 +4037,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -3889,7 +4117,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="42">
       <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
@@ -3969,7 +4197,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="42">
       <c r="A17" s="1" t="s">
         <v>117</v>
       </c>
@@ -4049,17 +4277,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="29">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
@@ -4139,7 +4367,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="42">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
@@ -4219,7 +4447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
         <v>129</v>
       </c>
@@ -4299,7 +4527,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -4379,71 +4607,71 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="11">
         <v>33</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="12">
         <v>21</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="5">
         <v>27</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="5">
         <v>25</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="5">
         <v>25</v>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="H24" s="5">
         <v>24</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="5">
         <v>28.5</v>
       </c>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="5">
         <v>20</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="5">
         <v>32</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="L24" s="5">
         <v>15</v>
       </c>
-      <c r="M24" s="5" t="n">
+      <c r="M24" s="5">
         <v>24.5</v>
       </c>
-      <c r="N24" s="5" t="n">
+      <c r="N24" s="5">
         <v>19.5</v>
       </c>
-      <c r="O24" s="5" t="n">
+      <c r="O24" s="5">
         <v>14</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="5">
         <v>22</v>
       </c>
-      <c r="Q24" s="5" t="n">
+      <c r="Q24" s="5">
         <v>30</v>
       </c>
-      <c r="R24" s="5" t="n">
+      <c r="R24" s="5">
         <v>21</v>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="5">
         <v>15</v>
       </c>
       <c r="T24" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="U24" s="13" t="n">
+      <c r="U24" s="13">
         <v>31</v>
       </c>
-      <c r="V24" s="13" t="n">
+      <c r="V24" s="13">
         <v>32</v>
       </c>
       <c r="W24" s="13" t="s">
@@ -4459,62 +4687,62 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26">
       <c r="A25" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="11">
         <v>23.73</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="11">
         <v>22.82</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="12">
         <v>6.36</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="5">
         <v>10.99</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="5">
         <v>10.67</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="5">
         <v>7.75</v>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="H25" s="5">
         <v>15.28</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="5">
         <v>15.3</v>
       </c>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="5">
         <v>6.17</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="5">
         <v>24.76</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="L25" s="5">
         <v>4.51</v>
       </c>
-      <c r="M25" s="5" t="n">
+      <c r="M25" s="5">
         <v>10.97</v>
       </c>
-      <c r="N25" s="5" t="n">
+      <c r="N25" s="5">
         <v>5.58</v>
       </c>
-      <c r="O25" s="5" t="n">
+      <c r="O25" s="5">
         <v>4.7</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="P25" s="5">
         <v>15.97</v>
       </c>
-      <c r="Q25" s="5" t="n">
+      <c r="Q25" s="5">
         <v>20.12</v>
       </c>
-      <c r="R25" s="5" t="n">
+      <c r="R25" s="5">
         <v>7.06</v>
       </c>
-      <c r="S25" s="5" t="n">
+      <c r="S25" s="5">
         <v>4.25</v>
       </c>
       <c r="T25" s="13" t="s">
@@ -4539,37 +4767,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26">
       <c r="A28" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26">
       <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26">
       <c r="A31" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26">
       <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
@@ -4649,7 +4877,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26">
       <c r="A33" s="1" t="s">
         <v>156</v>
       </c>
@@ -4729,27 +4957,27 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26">
       <c r="A34" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26">
       <c r="A35" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26">
       <c r="A37" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26">
       <c r="A38" s="1" t="s">
         <v>162</v>
       </c>
@@ -4829,7 +5057,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:26">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -4909,7 +5137,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="153.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:26" ht="141">
       <c r="A40" s="14" t="s">
         <v>166</v>
       </c>
@@ -4935,7 +5163,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="153.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:26" ht="155">
       <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
@@ -4961,167 +5189,167 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:26">
       <c r="A42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="11">
         <v>1133</v>
       </c>
-      <c r="C42" s="11" t="n">
+      <c r="C42" s="11">
         <v>1301</v>
       </c>
-      <c r="D42" s="12" t="n">
+      <c r="D42" s="12">
         <v>1001</v>
       </c>
-      <c r="E42" s="12" t="n">
+      <c r="E42" s="12">
         <v>976</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="5">
         <v>933</v>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="G42" s="5">
         <v>1026</v>
       </c>
-      <c r="H42" s="5" t="n">
+      <c r="H42" s="5">
         <v>776</v>
       </c>
-      <c r="I42" s="5" t="n">
+      <c r="I42" s="5">
         <v>1151</v>
       </c>
-      <c r="J42" s="5" t="n">
+      <c r="J42" s="5">
         <v>1076</v>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="K42" s="5">
         <v>1076</v>
       </c>
-      <c r="L42" s="5" t="n">
+      <c r="L42" s="5">
         <v>551</v>
       </c>
-      <c r="M42" s="5" t="n">
+      <c r="M42" s="5">
         <v>1076</v>
       </c>
-      <c r="N42" s="5" t="n">
+      <c r="N42" s="5">
         <v>1076</v>
       </c>
-      <c r="O42" s="5" t="n">
+      <c r="O42" s="5">
         <v>1051</v>
       </c>
-      <c r="P42" s="5" t="n">
+      <c r="P42" s="5">
         <v>551</v>
       </c>
-      <c r="Q42" s="5" t="n">
+      <c r="Q42" s="5">
         <v>1076</v>
       </c>
-      <c r="R42" s="5" t="n">
+      <c r="R42" s="5">
         <v>1101</v>
       </c>
-      <c r="S42" s="5" t="n">
+      <c r="S42" s="5">
         <v>501</v>
       </c>
-      <c r="T42" s="15" t="n">
+      <c r="T42" s="15">
         <v>1176</v>
       </c>
-      <c r="U42" s="16" t="n">
+      <c r="U42" s="16">
         <v>1176</v>
       </c>
-      <c r="V42" s="16" t="n">
+      <c r="V42" s="16">
         <v>1176</v>
       </c>
-      <c r="W42" s="16" t="n">
+      <c r="W42" s="16">
         <v>1101</v>
       </c>
-      <c r="X42" s="16" t="n">
+      <c r="X42" s="16">
         <v>1101</v>
       </c>
-      <c r="Y42" s="16" t="n">
+      <c r="Y42" s="16">
         <v>1051</v>
       </c>
-      <c r="Z42" s="16" t="n">
+      <c r="Z42" s="16">
         <v>701</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:26">
       <c r="A43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="11">
         <v>1176</v>
       </c>
-      <c r="C43" s="11" t="n">
+      <c r="C43" s="11">
         <v>1350</v>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="12">
         <v>1050</v>
       </c>
-      <c r="E43" s="12" t="n">
+      <c r="E43" s="12">
         <v>1025</v>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="5">
         <v>956</v>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="G43" s="5">
         <v>1075</v>
       </c>
-      <c r="H43" s="5" t="n">
+      <c r="H43" s="5">
         <v>800</v>
       </c>
-      <c r="I43" s="5" t="n">
+      <c r="I43" s="5">
         <v>1200</v>
       </c>
-      <c r="J43" s="5" t="n">
+      <c r="J43" s="5">
         <v>1125</v>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="K43" s="5">
         <v>1150</v>
       </c>
-      <c r="L43" s="5" t="n">
+      <c r="L43" s="5">
         <v>650</v>
       </c>
-      <c r="M43" s="5" t="n">
+      <c r="M43" s="5">
         <v>1125</v>
       </c>
-      <c r="N43" s="5" t="n">
+      <c r="N43" s="5">
         <v>1100</v>
       </c>
-      <c r="O43" s="5" t="n">
+      <c r="O43" s="5">
         <v>1100</v>
       </c>
-      <c r="P43" s="5" t="n">
+      <c r="P43" s="5">
         <v>700</v>
       </c>
-      <c r="Q43" s="5" t="n">
+      <c r="Q43" s="5">
         <v>1100</v>
       </c>
-      <c r="R43" s="5" t="n">
+      <c r="R43" s="5">
         <v>1200</v>
       </c>
-      <c r="S43" s="5" t="n">
+      <c r="S43" s="5">
         <v>600</v>
       </c>
-      <c r="T43" s="15" t="n">
+      <c r="T43" s="15">
         <v>1225</v>
       </c>
-      <c r="U43" s="16" t="n">
+      <c r="U43" s="16">
         <v>1225</v>
       </c>
-      <c r="V43" s="16" t="n">
+      <c r="V43" s="16">
         <v>1225</v>
       </c>
-      <c r="W43" s="16" t="n">
+      <c r="W43" s="16">
         <v>1125</v>
       </c>
-      <c r="X43" s="16" t="n">
+      <c r="X43" s="16">
         <v>1125</v>
       </c>
-      <c r="Y43" s="16" t="n">
+      <c r="Y43" s="16">
         <v>1100</v>
       </c>
-      <c r="Z43" s="16" t="n">
+      <c r="Z43" s="16">
         <v>800</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:26" ht="42">
       <c r="A44" s="1" t="s">
         <v>180</v>
       </c>
@@ -5201,7 +5429,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:26" ht="56">
       <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
@@ -5281,7 +5509,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:26">
       <c r="A46" s="1" t="s">
         <v>194</v>
       </c>
@@ -5361,7 +5589,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:26">
       <c r="A47" s="1" t="s">
         <v>198</v>
       </c>
@@ -5441,7 +5669,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:26">
       <c r="A48" s="1" t="s">
         <v>202</v>
       </c>
@@ -5521,12 +5749,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:26">
       <c r="A49" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:26">
       <c r="A50" s="1" t="s">
         <v>224</v>
       </c>
@@ -5534,7 +5762,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:26">
       <c r="A51" s="1" t="s">
         <v>225</v>
       </c>
@@ -5542,17 +5770,17 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:26">
       <c r="A52" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:26">
       <c r="A53" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:26" ht="28">
       <c r="A54" s="1" t="s">
         <v>228</v>
       </c>
@@ -5632,7 +5860,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:26" ht="28">
       <c r="A55" s="1" t="s">
         <v>234</v>
       </c>
@@ -5712,7 +5940,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:26" ht="29">
       <c r="A56" s="1" t="s">
         <v>239</v>
       </c>
@@ -5792,7 +6020,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:26" ht="42">
       <c r="A57" s="1" t="s">
         <v>262</v>
       </c>
@@ -5872,7 +6100,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:26">
       <c r="A58" s="1" t="s">
         <v>284</v>
       </c>
@@ -5952,7 +6180,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:26" ht="43">
       <c r="A59" s="14" t="s">
         <v>291</v>
       </c>
@@ -6032,17 +6260,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:26">
       <c r="A60" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:26">
       <c r="A61" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:26">
       <c r="A62" s="1" t="s">
         <v>300</v>
       </c>
@@ -6068,7 +6296,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:26">
       <c r="A63" s="1" t="s">
         <v>305</v>
       </c>
@@ -6094,7 +6322,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:26" ht="43">
       <c r="A64" s="1" t="s">
         <v>310</v>
       </c>
@@ -6147,7 +6375,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:26" ht="43">
       <c r="A65" s="1" t="s">
         <v>320</v>
       </c>
@@ -6200,7 +6428,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:26" ht="29">
       <c r="A66" s="1" t="s">
         <v>330</v>
       </c>
@@ -6253,13 +6481,13 @@
         <v>343</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:26" ht="28">
       <c r="A67" s="14" t="s">
         <v>344</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="5" t="n">
+      <c r="D67" s="5">
         <v>2005</v>
       </c>
       <c r="G67" s="4" t="s">
@@ -6268,16 +6496,16 @@
       <c r="I67" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J67" s="5" t="n">
+      <c r="J67" s="5">
         <v>1912</v>
       </c>
-      <c r="N67" s="5" t="n">
+      <c r="N67" s="5">
         <v>1912</v>
       </c>
-      <c r="T67" s="16" t="n">
+      <c r="T67" s="16">
         <v>1951</v>
       </c>
-      <c r="U67" s="16" t="n">
+      <c r="U67" s="16">
         <v>1964</v>
       </c>
       <c r="V67" s="15"/>
@@ -6286,7 +6514,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:26">
       <c r="A68" s="1" t="s">
         <v>347</v>
       </c>
@@ -6300,7 +6528,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:26">
       <c r="A69" s="1" t="s">
         <v>349</v>
       </c>
@@ -6314,7 +6542,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:26">
       <c r="A70" s="1" t="s">
         <v>351</v>
       </c>
@@ -6394,7 +6622,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:26">
       <c r="A71" s="1" t="s">
         <v>353</v>
       </c>
@@ -6474,7 +6702,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:26">
       <c r="A72" s="1" t="s">
         <v>355</v>
       </c>
@@ -6554,7 +6782,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:26">
       <c r="A73" s="1" t="s">
         <v>357</v>
       </c>
@@ -6634,7 +6862,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:26" ht="154">
       <c r="A74" s="14" t="s">
         <v>359</v>
       </c>
@@ -6714,7 +6942,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:26" ht="168">
       <c r="A75" s="14" t="s">
         <v>361</v>
       </c>
@@ -6794,7 +7022,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:26">
       <c r="A76" s="14" t="s">
         <v>363</v>
       </c>
@@ -6818,7 +7046,7 @@
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
     </row>
-    <row r="77" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:26" ht="29">
       <c r="A77" s="14" t="s">
         <v>365</v>
       </c>
@@ -6898,97 +7126,97 @@
         <v>366</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:26">
       <c r="A78" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:26">
       <c r="A79" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:26">
       <c r="A80" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B80" s="11" t="n">
+      <c r="B80" s="11">
         <v>182</v>
       </c>
-      <c r="C80" s="11" t="n">
+      <c r="C80" s="11">
         <v>183</v>
       </c>
-      <c r="D80" s="12" t="n">
+      <c r="D80" s="12">
         <v>278</v>
       </c>
-      <c r="E80" s="5" t="n">
+      <c r="E80" s="5">
         <v>251</v>
       </c>
-      <c r="F80" s="5" t="n">
+      <c r="F80" s="5">
         <v>245</v>
       </c>
-      <c r="G80" s="5" t="n">
+      <c r="G80" s="5">
         <v>90</v>
       </c>
-      <c r="H80" s="5" t="n">
+      <c r="H80" s="5">
         <v>135</v>
       </c>
-      <c r="I80" s="5" t="n">
+      <c r="I80" s="5">
         <v>86</v>
       </c>
-      <c r="J80" s="5" t="n">
+      <c r="J80" s="5">
         <v>132</v>
       </c>
-      <c r="K80" s="5" t="n">
+      <c r="K80" s="5">
         <v>133</v>
       </c>
-      <c r="L80" s="5" t="n">
+      <c r="L80" s="5">
         <v>317</v>
       </c>
-      <c r="M80" s="5" t="n">
+      <c r="M80" s="5">
         <v>91</v>
       </c>
-      <c r="N80" s="5" t="n">
+      <c r="N80" s="5">
         <v>131</v>
       </c>
-      <c r="O80" s="5" t="n">
+      <c r="O80" s="5">
         <v>312</v>
       </c>
-      <c r="P80" s="5" t="n">
+      <c r="P80" s="5">
         <v>29</v>
       </c>
-      <c r="Q80" s="5" t="n">
+      <c r="Q80" s="5">
         <v>49</v>
       </c>
-      <c r="R80" s="5" t="n">
+      <c r="R80" s="5">
         <v>181</v>
       </c>
-      <c r="S80" s="5" t="n">
+      <c r="S80" s="5">
         <v>238</v>
       </c>
-      <c r="T80" s="16" t="n">
+      <c r="T80" s="16">
         <v>127</v>
       </c>
-      <c r="U80" s="16" t="n">
+      <c r="U80" s="16">
         <v>144</v>
       </c>
-      <c r="V80" s="16" t="n">
+      <c r="V80" s="16">
         <v>42</v>
       </c>
-      <c r="W80" s="16" t="n">
+      <c r="W80" s="16">
         <v>39</v>
       </c>
-      <c r="X80" s="16" t="n">
+      <c r="X80" s="16">
         <v>54</v>
       </c>
-      <c r="Y80" s="16" t="n">
+      <c r="Y80" s="16">
         <v>243</v>
       </c>
-      <c r="Z80" s="16" t="n">
+      <c r="Z80" s="16">
         <v>30</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:26" ht="112">
       <c r="A81" s="1" t="s">
         <v>371</v>
       </c>
@@ -7029,7 +7257,7 @@
       </c>
       <c r="Z81" s="8"/>
     </row>
-    <row r="82" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:26" ht="84">
       <c r="A82" s="1" t="s">
         <v>381</v>
       </c>
@@ -7067,7 +7295,7 @@
       </c>
       <c r="Z82" s="8"/>
     </row>
-    <row r="83" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:26" ht="98">
       <c r="A83" s="1" t="s">
         <v>390</v>
       </c>
@@ -7090,7 +7318,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:26" ht="84">
       <c r="A84" s="1" t="s">
         <v>397</v>
       </c>
@@ -7114,7 +7342,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="357" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:26" ht="358">
       <c r="A85" s="1" t="s">
         <v>404</v>
       </c>
@@ -7149,7 +7377,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:26" ht="99">
       <c r="A86" s="1" t="s">
         <v>415</v>
       </c>
@@ -7168,7 +7396,7 @@
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
     </row>
-    <row r="87" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:26" ht="28">
       <c r="A87" s="1" t="s">
         <v>419</v>
       </c>
@@ -7248,7 +7476,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:26" ht="29">
       <c r="A88" s="1" t="s">
         <v>427</v>
       </c>
@@ -7328,79 +7556,79 @@
         <v>433</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:26">
       <c r="A89" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="B89" s="11" t="n">
+      <c r="B89" s="11">
         <v>30</v>
       </c>
-      <c r="C89" s="11" t="n">
+      <c r="C89" s="11">
         <v>30</v>
       </c>
-      <c r="D89" s="5" t="n">
+      <c r="D89" s="5">
         <v>18.5</v>
       </c>
-      <c r="E89" s="5" t="n">
+      <c r="E89" s="5">
         <v>18.5</v>
       </c>
-      <c r="G89" s="5" t="n">
+      <c r="G89" s="5">
         <v>21</v>
       </c>
-      <c r="K89" s="5" t="n">
+      <c r="K89" s="5">
         <v>22.5</v>
       </c>
-      <c r="N89" s="5" t="n">
+      <c r="N89" s="5">
         <v>17.5</v>
       </c>
-      <c r="O89" s="5" t="n">
+      <c r="O89" s="5">
         <v>10.5</v>
       </c>
-      <c r="P89" s="5" t="n">
+      <c r="P89" s="5">
         <v>19</v>
       </c>
-      <c r="Q89" s="5" t="n">
+      <c r="Q89" s="5">
         <v>24</v>
       </c>
-      <c r="R89" s="5" t="n">
+      <c r="R89" s="5">
         <v>16</v>
       </c>
-      <c r="S89" s="5" t="n">
+      <c r="S89" s="5">
         <v>10</v>
       </c>
-      <c r="T89" s="16" t="n">
+      <c r="T89" s="16">
         <v>27</v>
       </c>
-      <c r="U89" s="16" t="n">
+      <c r="U89" s="16">
         <v>30</v>
       </c>
-      <c r="V89" s="16" t="n">
+      <c r="V89" s="16">
         <v>29</v>
       </c>
-      <c r="W89" s="16" t="n">
+      <c r="W89" s="16">
         <v>22</v>
       </c>
-      <c r="X89" s="16" t="n">
+      <c r="X89" s="16">
         <v>25.5</v>
       </c>
-      <c r="Y89" s="16" t="n">
+      <c r="Y89" s="16">
         <v>12.2</v>
       </c>
-      <c r="Z89" s="16" t="n">
+      <c r="Z89" s="16">
         <v>19.5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:26">
       <c r="A90" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:26">
       <c r="A91" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:26" ht="154">
       <c r="A92" s="1" t="s">
         <v>437</v>
       </c>
@@ -7465,7 +7693,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:26" ht="141">
       <c r="A93" s="1" t="s">
         <v>454</v>
       </c>
@@ -7512,17 +7740,17 @@
         <v>431</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:26">
       <c r="A94" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:26">
       <c r="A95" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:26" ht="28">
       <c r="A96" s="1" t="s">
         <v>468</v>
       </c>
@@ -7602,7 +7830,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:26" ht="29">
       <c r="A97" s="1" t="s">
         <v>474</v>
       </c>
@@ -7682,93 +7910,93 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:26">
       <c r="A98" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="B98" s="11" t="n">
+      <c r="B98" s="11">
         <v>30</v>
       </c>
-      <c r="C98" s="11" t="n">
+      <c r="C98" s="11">
         <v>30</v>
       </c>
-      <c r="E98" s="5" t="n">
+      <c r="E98" s="5">
         <v>18.5</v>
       </c>
-      <c r="G98" s="5" t="n">
+      <c r="G98" s="5">
         <v>21</v>
       </c>
-      <c r="N98" s="5" t="n">
+      <c r="N98" s="5">
         <v>17.5</v>
       </c>
-      <c r="O98" s="5" t="n">
+      <c r="O98" s="5">
         <v>10.5</v>
       </c>
-      <c r="P98" s="5" t="n">
+      <c r="P98" s="5">
         <v>19</v>
       </c>
-      <c r="Q98" s="5" t="n">
+      <c r="Q98" s="5">
         <v>24</v>
       </c>
-      <c r="R98" s="5" t="n">
+      <c r="R98" s="5">
         <v>16</v>
       </c>
-      <c r="S98" s="5" t="n">
+      <c r="S98" s="5">
         <v>10</v>
       </c>
-      <c r="T98" s="16" t="n">
+      <c r="T98" s="16">
         <v>27</v>
       </c>
-      <c r="U98" s="16" t="n">
+      <c r="U98" s="16">
         <v>30</v>
       </c>
-      <c r="V98" s="16" t="n">
+      <c r="V98" s="16">
         <v>29</v>
       </c>
-      <c r="W98" s="16" t="n">
+      <c r="W98" s="16">
         <v>22</v>
       </c>
-      <c r="X98" s="16" t="n">
+      <c r="X98" s="16">
         <v>25.5</v>
       </c>
-      <c r="Y98" s="16" t="n">
+      <c r="Y98" s="16">
         <v>12.2</v>
       </c>
-      <c r="Z98" s="16" t="n">
+      <c r="Z98" s="16">
         <v>19.5</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:26">
       <c r="A99" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:26">
       <c r="A100" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:26">
       <c r="A101" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:26">
       <c r="A102" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:26">
       <c r="A103" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:26">
       <c r="A104" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:26" ht="42">
       <c r="A105" s="1" t="s">
         <v>488</v>
       </c>
@@ -7848,7 +8076,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:26" ht="42">
       <c r="A106" s="1" t="s">
         <v>492</v>
       </c>
@@ -7928,7 +8156,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:26" ht="42">
       <c r="A107" s="1" t="s">
         <v>496</v>
       </c>
@@ -8008,7 +8236,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:26" ht="57">
       <c r="A108" s="1" t="s">
         <v>522</v>
       </c>
@@ -8088,7 +8316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:26" ht="42">
       <c r="A109" s="1" t="s">
         <v>524</v>
       </c>
@@ -8168,7 +8396,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:26" ht="57">
       <c r="A110" s="1" t="s">
         <v>550</v>
       </c>
@@ -8248,7 +8476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:26" ht="224">
       <c r="A111" s="1" t="s">
         <v>551</v>
       </c>
@@ -8328,7 +8556,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:26" ht="224">
       <c r="A112" s="14" t="s">
         <v>577</v>
       </c>
@@ -8408,7 +8636,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:26" ht="409.6">
       <c r="A113" s="1" t="s">
         <v>580</v>
       </c>
@@ -8443,12 +8671,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:26">
       <c r="A114" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="267.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:26" ht="293">
       <c r="A115" s="1" t="s">
         <v>592</v>
       </c>
@@ -8483,7 +8711,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="267.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:26" ht="293">
       <c r="A116" s="1" t="s">
         <v>602</v>
       </c>
@@ -8518,7 +8746,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:26" ht="409.6">
       <c r="A117" s="1" t="s">
         <v>605</v>
       </c>
@@ -8542,7 +8770,7 @@
       <c r="Y117" s="15"/>
       <c r="Z117" s="15"/>
     </row>
-    <row r="118" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:26" ht="28">
       <c r="A118" s="1" t="s">
         <v>611</v>
       </c>
@@ -8556,327 +8784,322 @@
         <v>613</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:26" ht="168">
       <c r="A119" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="J119" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="K119" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="L119" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="M119" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="O119" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="P119" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="Q119" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="R119" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="S119" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" ht="168">
+      <c r="A120" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="B120" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="H120" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="I120" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="J120" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="K120" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="L120" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="M120" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="O120" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="P120" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="J119" s="5" t="s">
+      <c r="Q120" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="R120" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="S120" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="K119" s="5" t="s">
+    </row>
+    <row r="121" spans="1:26" ht="28">
+      <c r="A121" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="L119" s="5" t="s">
+      <c r="C121" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="F121" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="N119" s="5" t="s">
+    </row>
+    <row r="122" spans="1:26">
+      <c r="A122" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="O119" s="19" t="s">
+      <c r="F122" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" ht="112">
+      <c r="A123" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="P119" s="5" t="s">
+      <c r="B123" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="Q119" s="5" t="s">
+      <c r="C123" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="R119" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="S119" s="5" t="s">
+      <c r="E123" s="4" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="178.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="F123" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="G123" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="H123" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="D120" s="21" t="s">
+      <c r="I123" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="E120" s="22" t="s">
+      <c r="J123" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="F120" s="22" t="s">
+      <c r="K123" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="L123" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="H120" s="21" t="s">
+      <c r="M123" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="I120" s="21" t="s">
+      <c r="N123" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="J120" s="21" t="s">
+      <c r="O123" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="K120" s="21" t="s">
+      <c r="P123" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="L120" s="21" t="s">
+      <c r="Q123" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="R123" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="N120" s="5" t="s">
+      <c r="S123" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="O120" s="21" t="s">
+    </row>
+    <row r="124" spans="1:26" ht="112">
+      <c r="A124" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="P120" s="21" t="s">
+      <c r="B124" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="Q120" s="21" t="s">
+      <c r="C124" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="R120" s="21" t="s">
+      <c r="D124" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="S120" s="21" t="s">
+      <c r="E124" s="4" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+      <c r="F124" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="G124" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="H124" s="5" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="I124" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="J124" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="K124" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="L124" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="M124" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="N124" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="O124" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="G123" s="4" t="s">
+      <c r="P124" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="Q124" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="I123" s="5" t="s">
+      <c r="R124" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="J123" s="5" t="s">
+      <c r="S124" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="K123" s="5" t="s">
+    </row>
+    <row r="125" spans="1:26" ht="70">
+      <c r="A125" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="L123" s="5" t="s">
+      <c r="G125" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="M123" s="5" t="s">
+      <c r="L125" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="M125" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="O123" s="5" t="s">
+      <c r="P125" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="P123" s="5" t="s">
+      <c r="R125" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="Q123" s="5" t="s">
+      <c r="S125" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="R123" s="5" t="s">
+    </row>
+    <row r="126" spans="1:26" ht="409.6">
+      <c r="A126" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="S123" s="5" t="s">
+      <c r="R126" s="5" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="127.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+      <c r="S126" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="B124" s="5" t="s">
+    </row>
+    <row r="127" spans="1:26">
+      <c r="A127" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C124" s="2" t="s">
+    </row>
+    <row r="128" spans="1:26">
+      <c r="A128" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D124" s="4" t="s">
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E124" s="4" t="s">
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F124" s="4" t="s">
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="K124" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="L124" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="N124" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="O124" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="P124" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="Q124" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="R124" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="S124" s="5" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="L125" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="P125" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="R125" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="S125" s="5" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="R126" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="S126" s="5" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>708</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>